--- a/downloads/notebooks/pretty_tables.xlsx
+++ b/downloads/notebooks/pretty_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricKim\Documents\aegis4048.github.io-source\content\downloads\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9629AB01-0BFA-49DE-9ECB-09636983E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C5194E-F77B-4AD7-9AC7-447B2EEB76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="SCN3 V2" sheetId="7" r:id="rId6"/>
     <sheet name="SCN Parameters" sheetId="6" r:id="rId7"/>
     <sheet name="H2S" sheetId="8" r:id="rId8"/>
+    <sheet name="Seasonal" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>Slope</t>
   </si>
@@ -319,6 +320,48 @@
   </si>
   <si>
     <t>** Normalizing Factor = 20 ppm / 500# Sep Gas H2S ppm value from the original value table</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Gas Vol.</t>
+  </si>
+  <si>
+    <t>Oil Vol.</t>
+  </si>
+  <si>
+    <t>RVP</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Heater P [psig]</t>
+  </si>
+  <si>
+    <t>30 Degree Oil Facility</t>
+  </si>
+  <si>
+    <t>TX, Midland</t>
+  </si>
+  <si>
+    <t>UT, Cedar City</t>
+  </si>
+  <si>
+    <t>GHV (Btu/scf)</t>
+  </si>
+  <si>
+    <t>Gas Vol</t>
+  </si>
+  <si>
+    <t>Oil Vol (bbl/d)</t>
+  </si>
+  <si>
+    <t>Gas (Mscf/d)</t>
+  </si>
+  <si>
+    <t>Jan -&gt; July diff. (%)</t>
   </si>
 </sst>
 </file>
@@ -955,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1240,6 +1283,206 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,250 +1522,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,36 +1530,125 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2448,26 +2536,26 @@
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="108" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111" t="s">
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="108" t="s">
+      <c r="J3" s="179"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
       <c r="Q3" s="23" t="s">
         <v>19</v>
       </c>
@@ -5415,21 +5503,21 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="108" t="s">
+      <c r="G3" s="179"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -6840,38 +6928,38 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="I2" s="113" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="I2" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="183"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="110"/>
+      <c r="F3" s="178"/>
       <c r="H3" s="63"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="108" t="s">
+      <c r="J3" s="178"/>
+      <c r="K3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="110"/>
+      <c r="L3" s="178"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -8314,44 +8402,44 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="116"/>
-      <c r="C2" s="118" t="s">
+      <c r="B2" s="184"/>
+      <c r="C2" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="L2" s="118" t="s">
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
+      <c r="L2" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="188"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="117"/>
-      <c r="C3" s="109" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="109" t="s">
+      <c r="F3" s="178"/>
+      <c r="G3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -9615,17 +9703,17 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="73"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="108" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9743,7 +9831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E812E2-26CD-498F-85DB-98B5685A3E62}">
   <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -9755,109 +9843,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" s="202" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+    <row r="2" spans="2:16" s="168" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
     </row>
     <row r="3" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="147" t="s">
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="148" t="s">
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="196"/>
     </row>
     <row r="4" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="150"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153" t="s">
+      <c r="B4" s="210"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="154"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="153" t="s">
+      <c r="G4" s="197"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="153" t="s">
+      <c r="K4" s="198"/>
+      <c r="L4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="154" t="s">
+      <c r="M4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="155"/>
+      <c r="N4" s="198"/>
     </row>
     <row r="5" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159" t="s">
+      <c r="B5" s="211"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="160" t="s">
+      <c r="G5" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="161" t="s">
+      <c r="H5" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="159" t="s">
+      <c r="I5" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="160" t="s">
+      <c r="M5" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="161" t="s">
+      <c r="N5" s="126" t="s">
         <v>55</v>
       </c>
       <c r="P5" s="93" t="s">
@@ -9865,43 +9953,43 @@
       </c>
     </row>
     <row r="6" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="126">
+      <c r="B6" s="199">
         <v>1000</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="201">
         <v>100</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="121">
         <v>2</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="165">
         <v>13.4</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="166">
         <v>18.7</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="166">
         <v>12.3</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="167">
         <v>0.40200000000000002</v>
       </c>
-      <c r="I6" s="199">
+      <c r="I6" s="165">
         <v>12.3</v>
       </c>
-      <c r="J6" s="200">
+      <c r="J6" s="166">
         <v>66.2</v>
       </c>
-      <c r="K6" s="201">
+      <c r="K6" s="167">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L6" s="199">
+      <c r="L6" s="165">
         <v>0.40200000000000002</v>
       </c>
-      <c r="M6" s="200">
+      <c r="M6" s="166">
         <v>256</v>
       </c>
-      <c r="N6" s="201">
+      <c r="N6" s="167">
         <v>0.25600000000000001</v>
       </c>
       <c r="P6" s="93">
@@ -9910,39 +9998,39 @@
       </c>
     </row>
     <row r="7" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="126"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="121">
+      <c r="B7" s="199"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="108">
         <v>5</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="113">
         <v>17.5</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="115">
         <v>20.100000000000001</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="115">
         <v>16.899999999999999</v>
       </c>
-      <c r="H7" s="122">
+      <c r="H7" s="109">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I7" s="133">
+      <c r="I7" s="113">
         <v>16.899999999999999</v>
       </c>
-      <c r="J7" s="135">
+      <c r="J7" s="115">
         <v>76.2</v>
       </c>
-      <c r="K7" s="122">
+      <c r="K7" s="109">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L7" s="133">
+      <c r="L7" s="113">
         <v>0.52600000000000002</v>
       </c>
-      <c r="M7" s="135">
+      <c r="M7" s="115">
         <v>321</v>
       </c>
-      <c r="N7" s="122">
+      <c r="N7" s="109">
         <v>0.32100000000000001</v>
       </c>
       <c r="P7" s="93">
@@ -9951,39 +10039,39 @@
       </c>
     </row>
     <row r="8" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="126"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="142">
+      <c r="B8" s="199"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="122">
         <v>10</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E8" s="118">
         <v>19.5</v>
       </c>
-      <c r="F8" s="139">
+      <c r="F8" s="119">
         <v>20.7</v>
       </c>
-      <c r="G8" s="139">
+      <c r="G8" s="119">
         <v>22.4</v>
       </c>
-      <c r="H8" s="140">
+      <c r="H8" s="120">
         <v>0.70099999999999996</v>
       </c>
-      <c r="I8" s="138">
+      <c r="I8" s="118">
         <v>22.4</v>
       </c>
-      <c r="J8" s="139">
+      <c r="J8" s="119">
         <v>81.2</v>
       </c>
-      <c r="K8" s="140">
+      <c r="K8" s="120">
         <v>2.69</v>
       </c>
-      <c r="L8" s="138">
+      <c r="L8" s="118">
         <v>0.70099999999999996</v>
       </c>
-      <c r="M8" s="139">
+      <c r="M8" s="119">
         <v>400</v>
       </c>
-      <c r="N8" s="140">
+      <c r="N8" s="120">
         <v>0.40100000000000002</v>
       </c>
       <c r="P8" s="93">
@@ -9992,39 +10080,39 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="126"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="137">
+      <c r="B9" s="199"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="117">
         <v>20</v>
       </c>
-      <c r="E9" s="197">
+      <c r="E9" s="163">
         <v>20.7</v>
       </c>
-      <c r="F9" s="198">
+      <c r="F9" s="164">
         <v>21</v>
       </c>
-      <c r="G9" s="198">
+      <c r="G9" s="164">
         <v>29.4</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="112">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I9" s="197">
+      <c r="I9" s="163">
         <v>29.4</v>
       </c>
-      <c r="J9" s="198">
+      <c r="J9" s="164">
         <v>81.099999999999994</v>
       </c>
-      <c r="K9" s="125">
+      <c r="K9" s="112">
         <v>2.68</v>
       </c>
-      <c r="L9" s="197">
+      <c r="L9" s="163">
         <v>0.98399999999999999</v>
       </c>
-      <c r="M9" s="198">
+      <c r="M9" s="164">
         <v>512</v>
       </c>
-      <c r="N9" s="125">
+      <c r="N9" s="112">
         <v>0.51200000000000001</v>
       </c>
       <c r="P9" s="93">
@@ -10033,41 +10121,41 @@
       </c>
     </row>
     <row r="10" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="129">
+      <c r="B10" s="199"/>
+      <c r="C10" s="202">
         <v>1000</v>
       </c>
-      <c r="D10" s="142">
+      <c r="D10" s="122">
         <v>2</v>
       </c>
-      <c r="E10" s="138">
+      <c r="E10" s="118">
         <v>4.58</v>
       </c>
-      <c r="F10" s="139">
+      <c r="F10" s="119">
         <v>17.8</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="119">
         <v>11.2</v>
       </c>
-      <c r="H10" s="140">
+      <c r="H10" s="120">
         <v>0.373</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="118">
         <v>11.2</v>
       </c>
-      <c r="J10" s="139">
+      <c r="J10" s="119">
         <v>61.4</v>
       </c>
-      <c r="K10" s="140">
+      <c r="K10" s="120">
         <v>2.04</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="118">
         <v>0.373</v>
       </c>
-      <c r="M10" s="139">
+      <c r="M10" s="119">
         <v>238</v>
       </c>
-      <c r="N10" s="140">
+      <c r="N10" s="120">
         <v>0.23799999999999999</v>
       </c>
       <c r="P10" s="93">
@@ -10076,39 +10164,39 @@
       </c>
     </row>
     <row r="11" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="121">
+      <c r="B11" s="199"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="108">
         <v>5</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="113">
         <v>8.59</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="115">
         <v>19.8</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="115">
         <v>14.2</v>
       </c>
-      <c r="H11" s="122">
+      <c r="H11" s="109">
         <v>0.45400000000000001</v>
       </c>
-      <c r="I11" s="133">
+      <c r="I11" s="113">
         <v>14.2</v>
       </c>
-      <c r="J11" s="135">
+      <c r="J11" s="115">
         <v>69.8</v>
       </c>
-      <c r="K11" s="122">
+      <c r="K11" s="109">
         <v>2.31</v>
       </c>
-      <c r="L11" s="133">
+      <c r="L11" s="113">
         <v>0.45400000000000001</v>
       </c>
-      <c r="M11" s="135">
+      <c r="M11" s="115">
         <v>285</v>
       </c>
-      <c r="N11" s="122">
+      <c r="N11" s="109">
         <v>0.28499999999999998</v>
       </c>
       <c r="P11" s="93">
@@ -10117,39 +10205,39 @@
       </c>
     </row>
     <row r="12" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="126"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="142">
+      <c r="B12" s="199"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="122">
         <v>10</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="118">
         <v>12.3</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="119">
         <v>20.6</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="119">
         <v>17.5</v>
       </c>
-      <c r="H12" s="140">
+      <c r="H12" s="120">
         <v>0.54600000000000004</v>
       </c>
-      <c r="I12" s="138">
+      <c r="I12" s="118">
         <v>17.5</v>
       </c>
-      <c r="J12" s="139">
+      <c r="J12" s="119">
         <v>75</v>
       </c>
-      <c r="K12" s="140">
+      <c r="K12" s="120">
         <v>2.48</v>
       </c>
-      <c r="L12" s="138">
+      <c r="L12" s="118">
         <v>0.54600000000000004</v>
       </c>
-      <c r="M12" s="139">
+      <c r="M12" s="119">
         <v>332</v>
       </c>
-      <c r="N12" s="140">
+      <c r="N12" s="120">
         <v>0.33300000000000002</v>
       </c>
       <c r="P12" s="93">
@@ -10158,39 +10246,39 @@
       </c>
     </row>
     <row r="13" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="126"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="137">
+      <c r="B13" s="199"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="117">
         <v>20</v>
       </c>
-      <c r="E13" s="197">
+      <c r="E13" s="163">
         <v>15.8</v>
       </c>
-      <c r="F13" s="198">
+      <c r="F13" s="164">
         <v>21.1</v>
       </c>
-      <c r="G13" s="198">
+      <c r="G13" s="164">
         <v>22.4</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="112">
         <v>0.70599999999999996</v>
       </c>
-      <c r="I13" s="197">
+      <c r="I13" s="163">
         <v>22.4</v>
       </c>
-      <c r="J13" s="198">
+      <c r="J13" s="164">
         <v>77.900000000000006</v>
       </c>
-      <c r="K13" s="125">
+      <c r="K13" s="112">
         <v>2.57</v>
       </c>
-      <c r="L13" s="197">
+      <c r="L13" s="163">
         <v>0.70599999999999996</v>
       </c>
-      <c r="M13" s="198">
+      <c r="M13" s="164">
         <v>405</v>
       </c>
-      <c r="N13" s="125">
+      <c r="N13" s="112">
         <v>0.40500000000000003</v>
       </c>
       <c r="P13" s="93">
@@ -10199,41 +10287,41 @@
       </c>
     </row>
     <row r="14" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="129">
+      <c r="B14" s="199"/>
+      <c r="C14" s="202">
         <v>2000</v>
       </c>
-      <c r="D14" s="142">
+      <c r="D14" s="122">
         <v>2</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="118">
         <v>2.65</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="119">
         <v>16.8</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="119">
         <v>10.5</v>
       </c>
-      <c r="H14" s="140">
+      <c r="H14" s="120">
         <v>0.35</v>
       </c>
-      <c r="I14" s="138">
+      <c r="I14" s="118">
         <v>10.5</v>
       </c>
-      <c r="J14" s="139">
+      <c r="J14" s="119">
         <v>57.7</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="120">
         <v>1.92</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="118">
         <v>0.35</v>
       </c>
-      <c r="M14" s="139">
+      <c r="M14" s="119">
         <v>224</v>
       </c>
-      <c r="N14" s="140">
+      <c r="N14" s="120">
         <v>0.224</v>
       </c>
       <c r="P14" s="93">
@@ -10242,39 +10330,39 @@
       </c>
     </row>
     <row r="15" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="126"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="121">
+      <c r="B15" s="199"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="108">
         <v>5</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="113">
         <v>5.48</v>
       </c>
-      <c r="F15" s="135">
+      <c r="F15" s="115">
         <v>19.3</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="115">
         <v>13.1</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="109">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I15" s="133">
+      <c r="I15" s="113">
         <v>13.1</v>
       </c>
-      <c r="J15" s="135">
+      <c r="J15" s="115">
         <v>66.2</v>
       </c>
-      <c r="K15" s="122">
+      <c r="K15" s="109">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L15" s="133">
+      <c r="L15" s="113">
         <v>0.42499999999999999</v>
       </c>
-      <c r="M15" s="135">
+      <c r="M15" s="115">
         <v>269</v>
       </c>
-      <c r="N15" s="122">
+      <c r="N15" s="109">
         <v>0.26900000000000002</v>
       </c>
       <c r="P15" s="93">
@@ -10283,39 +10371,39 @@
       </c>
     </row>
     <row r="16" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="142">
+      <c r="B16" s="199"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="122">
         <v>10</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="118">
         <v>8.73</v>
       </c>
-      <c r="F16" s="139">
+      <c r="F16" s="119">
         <v>20.399999999999999</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="119">
         <v>15.6</v>
       </c>
-      <c r="H16" s="140">
+      <c r="H16" s="120">
         <v>0.49299999999999999</v>
       </c>
-      <c r="I16" s="138">
+      <c r="I16" s="118">
         <v>15.6</v>
       </c>
-      <c r="J16" s="139">
+      <c r="J16" s="119">
         <v>71.400000000000006</v>
       </c>
-      <c r="K16" s="140">
+      <c r="K16" s="120">
         <v>2.37</v>
       </c>
-      <c r="L16" s="138">
+      <c r="L16" s="118">
         <v>0.49299999999999999</v>
       </c>
-      <c r="M16" s="139">
+      <c r="M16" s="119">
         <v>306</v>
       </c>
-      <c r="N16" s="140">
+      <c r="N16" s="120">
         <v>0.30599999999999999</v>
       </c>
       <c r="P16" s="93">
@@ -10324,39 +10412,39 @@
       </c>
     </row>
     <row r="17" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="124" t="s">
+      <c r="B17" s="200"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="114">
         <v>11.5</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="116">
         <v>20.9</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="116">
         <v>18.100000000000001</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="110">
         <v>0.56499999999999995</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="114">
         <v>18.100000000000001</v>
       </c>
-      <c r="J17" s="136">
+      <c r="J17" s="116">
         <v>74.5</v>
       </c>
-      <c r="K17" s="123">
+      <c r="K17" s="110">
         <v>2.46</v>
       </c>
-      <c r="L17" s="134">
+      <c r="L17" s="114">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M17" s="136">
+      <c r="M17" s="116">
         <v>342</v>
       </c>
-      <c r="N17" s="123">
+      <c r="N17" s="110">
         <v>0.34200000000000003</v>
       </c>
       <c r="P17" s="93">
@@ -10365,716 +10453,716 @@
       </c>
     </row>
     <row r="18" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="215"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:16" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="205"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="191"/>
     </row>
     <row r="21" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="147" t="s">
+      <c r="E21" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="147" t="s">
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="148"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="148" t="s">
+      <c r="J21" s="195"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="196"/>
     </row>
     <row r="22" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153" t="s">
+      <c r="B22" s="210"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="F22" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="153" t="s">
+      <c r="G22" s="197"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="154" t="s">
+      <c r="J22" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="155"/>
-      <c r="L22" s="153" t="s">
+      <c r="K22" s="198"/>
+      <c r="L22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="154" t="s">
+      <c r="M22" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="155"/>
+      <c r="N22" s="198"/>
     </row>
     <row r="23" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159" t="s">
+      <c r="B23" s="211"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="160" t="s">
+      <c r="F23" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="160" t="s">
+      <c r="G23" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="161" t="s">
+      <c r="H23" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="159" t="s">
+      <c r="I23" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="160" t="s">
+      <c r="J23" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="161" t="s">
+      <c r="K23" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="159" t="s">
+      <c r="L23" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="160" t="s">
+      <c r="M23" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="161" t="s">
+      <c r="N23" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="207" t="s">
+      <c r="O23" s="169" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="126">
+      <c r="B24" s="199">
         <v>1000</v>
       </c>
-      <c r="C24" s="128">
+      <c r="C24" s="201">
         <v>100</v>
       </c>
-      <c r="D24" s="141">
+      <c r="D24" s="121">
         <v>2</v>
       </c>
-      <c r="E24" s="179">
+      <c r="E24" s="145">
         <f>E6/$P6</f>
         <v>14.331550802139038</v>
       </c>
-      <c r="F24" s="180">
+      <c r="F24" s="146">
         <f>F6/$P6</f>
         <v>20</v>
       </c>
-      <c r="G24" s="181">
+      <c r="G24" s="147">
         <f t="shared" ref="G24:N24" si="1">G6/$P6</f>
         <v>13.155080213903744</v>
       </c>
-      <c r="H24" s="182">
+      <c r="H24" s="148">
         <f t="shared" si="1"/>
         <v>0.42994652406417116</v>
       </c>
-      <c r="I24" s="179">
+      <c r="I24" s="145">
         <f t="shared" si="1"/>
         <v>13.155080213903744</v>
       </c>
-      <c r="J24" s="181">
+      <c r="J24" s="147">
         <f t="shared" si="1"/>
         <v>70.802139037433165</v>
       </c>
-      <c r="K24" s="183">
+      <c r="K24" s="149">
         <f t="shared" si="1"/>
         <v>2.3529411764705888</v>
       </c>
-      <c r="L24" s="184">
+      <c r="L24" s="150">
         <f t="shared" si="1"/>
         <v>0.42994652406417116</v>
       </c>
-      <c r="M24" s="181">
+      <c r="M24" s="147">
         <f t="shared" si="1"/>
         <v>273.79679144385028</v>
       </c>
-      <c r="N24" s="182">
+      <c r="N24" s="148">
         <f t="shared" si="1"/>
         <v>0.27379679144385027</v>
       </c>
-      <c r="O24" s="208">
+      <c r="O24" s="170">
         <f>1/P6</f>
         <v>1.0695187165775402</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="126"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="121">
+      <c r="B25" s="199"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="108">
         <v>5</v>
       </c>
-      <c r="E25" s="164">
+      <c r="E25" s="130">
         <f t="shared" ref="E25:N25" si="2">E7/$P7</f>
         <v>17.412935323383081</v>
       </c>
-      <c r="F25" s="177">
+      <c r="F25" s="143">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G25" s="165">
+      <c r="G25" s="131">
         <f t="shared" si="2"/>
         <v>16.815920398009947</v>
       </c>
-      <c r="H25" s="172">
+      <c r="H25" s="138">
         <f t="shared" si="2"/>
         <v>0.52338308457711435</v>
       </c>
-      <c r="I25" s="164">
+      <c r="I25" s="130">
         <f t="shared" si="2"/>
         <v>16.815920398009947</v>
       </c>
-      <c r="J25" s="165">
+      <c r="J25" s="131">
         <f t="shared" si="2"/>
         <v>75.820895522388057</v>
       </c>
-      <c r="K25" s="169">
+      <c r="K25" s="135">
         <f t="shared" si="2"/>
         <v>2.5174129353233825</v>
       </c>
-      <c r="L25" s="175">
+      <c r="L25" s="141">
         <f t="shared" si="2"/>
         <v>0.52338308457711435</v>
       </c>
-      <c r="M25" s="165">
+      <c r="M25" s="131">
         <f t="shared" si="2"/>
         <v>319.40298507462683</v>
       </c>
-      <c r="N25" s="172">
+      <c r="N25" s="138">
         <f t="shared" si="2"/>
         <v>0.31940298507462683</v>
       </c>
-      <c r="O25" s="209">
+      <c r="O25" s="171">
         <f t="shared" ref="O25:O35" si="3">1/P7</f>
         <v>0.99502487562189046</v>
       </c>
     </row>
     <row r="26" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="126"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="142">
+      <c r="B26" s="199"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="122">
         <v>10</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="128">
         <f t="shared" ref="E26:N26" si="4">E8/$P8</f>
         <v>18.840579710144929</v>
       </c>
-      <c r="F26" s="177">
+      <c r="F26" s="143">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G26" s="163">
+      <c r="G26" s="129">
         <f t="shared" si="4"/>
         <v>21.642512077294686</v>
       </c>
-      <c r="H26" s="171">
+      <c r="H26" s="137">
         <f t="shared" si="4"/>
         <v>0.67729468599033815</v>
       </c>
-      <c r="I26" s="162">
+      <c r="I26" s="128">
         <f t="shared" si="4"/>
         <v>21.642512077294686</v>
       </c>
-      <c r="J26" s="163">
+      <c r="J26" s="129">
         <f t="shared" si="4"/>
         <v>78.454106280193244</v>
       </c>
-      <c r="K26" s="168">
+      <c r="K26" s="134">
         <f t="shared" si="4"/>
         <v>2.5990338164251208</v>
       </c>
-      <c r="L26" s="174">
+      <c r="L26" s="140">
         <f t="shared" si="4"/>
         <v>0.67729468599033815</v>
       </c>
-      <c r="M26" s="163">
+      <c r="M26" s="129">
         <f t="shared" si="4"/>
         <v>386.47342995169083</v>
       </c>
-      <c r="N26" s="171">
+      <c r="N26" s="137">
         <f t="shared" si="4"/>
         <v>0.38743961352657008</v>
       </c>
-      <c r="O26" s="209">
+      <c r="O26" s="171">
         <f t="shared" si="3"/>
         <v>0.96618357487922713</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="126"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="137">
+      <c r="B27" s="199"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="117">
         <v>20</v>
       </c>
-      <c r="E27" s="185">
+      <c r="E27" s="151">
         <f t="shared" ref="E27:N27" si="5">E9/$P9</f>
         <v>19.714285714285712</v>
       </c>
-      <c r="F27" s="186">
+      <c r="F27" s="152">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G27" s="187">
+      <c r="G27" s="153">
         <f t="shared" si="5"/>
         <v>27.999999999999996</v>
       </c>
-      <c r="H27" s="188">
+      <c r="H27" s="154">
         <f t="shared" si="5"/>
         <v>0.93714285714285706</v>
       </c>
-      <c r="I27" s="185">
+      <c r="I27" s="151">
         <f t="shared" si="5"/>
         <v>27.999999999999996</v>
       </c>
-      <c r="J27" s="187">
+      <c r="J27" s="153">
         <f t="shared" si="5"/>
         <v>77.238095238095227</v>
       </c>
-      <c r="K27" s="189">
+      <c r="K27" s="155">
         <f t="shared" si="5"/>
         <v>2.5523809523809526</v>
       </c>
-      <c r="L27" s="190">
+      <c r="L27" s="156">
         <f t="shared" si="5"/>
         <v>0.93714285714285706</v>
       </c>
-      <c r="M27" s="187">
+      <c r="M27" s="153">
         <f t="shared" si="5"/>
         <v>487.61904761904759</v>
       </c>
-      <c r="N27" s="188">
+      <c r="N27" s="154">
         <f t="shared" si="5"/>
         <v>0.48761904761904762</v>
       </c>
-      <c r="O27" s="210">
+      <c r="O27" s="172">
         <f t="shared" si="3"/>
         <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="126"/>
-      <c r="C28" s="132">
+      <c r="B28" s="199"/>
+      <c r="C28" s="204">
         <v>1000</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="123">
         <v>2</v>
       </c>
-      <c r="E28" s="191">
+      <c r="E28" s="157">
         <f t="shared" ref="E28:N28" si="6">E10/$P10</f>
         <v>5.1460674157303368</v>
       </c>
-      <c r="F28" s="192">
+      <c r="F28" s="158">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G28" s="193">
+      <c r="G28" s="159">
         <f t="shared" si="6"/>
         <v>12.584269662921347</v>
       </c>
-      <c r="H28" s="194">
+      <c r="H28" s="160">
         <f t="shared" si="6"/>
         <v>0.41910112359550561</v>
       </c>
-      <c r="I28" s="191">
+      <c r="I28" s="157">
         <f t="shared" si="6"/>
         <v>12.584269662921347</v>
       </c>
-      <c r="J28" s="193">
+      <c r="J28" s="159">
         <f t="shared" si="6"/>
         <v>68.988764044943821</v>
       </c>
-      <c r="K28" s="195">
+      <c r="K28" s="161">
         <f t="shared" si="6"/>
         <v>2.292134831460674</v>
       </c>
-      <c r="L28" s="196">
+      <c r="L28" s="162">
         <f t="shared" si="6"/>
         <v>0.41910112359550561</v>
       </c>
-      <c r="M28" s="193">
+      <c r="M28" s="159">
         <f t="shared" si="6"/>
         <v>267.41573033707863</v>
       </c>
-      <c r="N28" s="194">
+      <c r="N28" s="160">
         <f t="shared" si="6"/>
         <v>0.26741573033707866</v>
       </c>
-      <c r="O28" s="211">
+      <c r="O28" s="173">
         <f t="shared" si="3"/>
         <v>1.1235955056179776</v>
       </c>
     </row>
     <row r="29" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="126"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="121">
+      <c r="B29" s="199"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="108">
         <v>5</v>
       </c>
-      <c r="E29" s="164">
+      <c r="E29" s="130">
         <f t="shared" ref="E29:N29" si="7">E11/$P11</f>
         <v>8.6767676767676765</v>
       </c>
-      <c r="F29" s="177">
+      <c r="F29" s="143">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="G29" s="165">
+      <c r="G29" s="131">
         <f t="shared" si="7"/>
         <v>14.343434343434343</v>
       </c>
-      <c r="H29" s="172">
+      <c r="H29" s="138">
         <f t="shared" si="7"/>
         <v>0.4585858585858586</v>
       </c>
-      <c r="I29" s="164">
+      <c r="I29" s="130">
         <f t="shared" si="7"/>
         <v>14.343434343434343</v>
       </c>
-      <c r="J29" s="165">
+      <c r="J29" s="131">
         <f t="shared" si="7"/>
         <v>70.505050505050505</v>
       </c>
-      <c r="K29" s="169">
+      <c r="K29" s="135">
         <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="L29" s="175">
+      <c r="L29" s="141">
         <f t="shared" si="7"/>
         <v>0.4585858585858586</v>
       </c>
-      <c r="M29" s="165">
+      <c r="M29" s="131">
         <f t="shared" si="7"/>
         <v>287.87878787878788</v>
       </c>
-      <c r="N29" s="172">
+      <c r="N29" s="138">
         <f t="shared" si="7"/>
         <v>0.28787878787878785</v>
       </c>
-      <c r="O29" s="209">
+      <c r="O29" s="171">
         <f t="shared" si="3"/>
         <v>1.0101010101010102</v>
       </c>
     </row>
     <row r="30" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="126"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="142">
+      <c r="B30" s="199"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="122">
         <v>10</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="128">
         <f t="shared" ref="E30:N30" si="8">E12/$P12</f>
         <v>11.941747572815535</v>
       </c>
-      <c r="F30" s="177">
+      <c r="F30" s="143">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G30" s="163">
+      <c r="G30" s="129">
         <f t="shared" si="8"/>
         <v>16.990291262135923</v>
       </c>
-      <c r="H30" s="171">
+      <c r="H30" s="137">
         <f t="shared" si="8"/>
         <v>0.53009708737864081</v>
       </c>
-      <c r="I30" s="162">
+      <c r="I30" s="128">
         <f t="shared" si="8"/>
         <v>16.990291262135923</v>
       </c>
-      <c r="J30" s="163">
+      <c r="J30" s="129">
         <f t="shared" si="8"/>
         <v>72.815533980582529</v>
       </c>
-      <c r="K30" s="168">
+      <c r="K30" s="134">
         <f t="shared" si="8"/>
         <v>2.407766990291262</v>
       </c>
-      <c r="L30" s="174">
+      <c r="L30" s="140">
         <f t="shared" si="8"/>
         <v>0.53009708737864081</v>
       </c>
-      <c r="M30" s="163">
+      <c r="M30" s="129">
         <f t="shared" si="8"/>
         <v>322.33009708737865</v>
       </c>
-      <c r="N30" s="171">
+      <c r="N30" s="137">
         <f t="shared" si="8"/>
         <v>0.3233009708737864</v>
       </c>
-      <c r="O30" s="209">
+      <c r="O30" s="171">
         <f t="shared" si="3"/>
         <v>0.970873786407767</v>
       </c>
     </row>
     <row r="31" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="126"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="137">
+      <c r="B31" s="199"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="117">
         <v>20</v>
       </c>
-      <c r="E31" s="185">
+      <c r="E31" s="151">
         <f t="shared" ref="E31:N31" si="9">E13/$P13</f>
         <v>14.976303317535544</v>
       </c>
-      <c r="F31" s="186">
+      <c r="F31" s="152">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="G31" s="187">
+      <c r="G31" s="153">
         <f t="shared" si="9"/>
         <v>21.232227488151654</v>
       </c>
-      <c r="H31" s="188">
+      <c r="H31" s="154">
         <f t="shared" si="9"/>
         <v>0.66919431279620845</v>
       </c>
-      <c r="I31" s="185">
+      <c r="I31" s="151">
         <f t="shared" si="9"/>
         <v>21.232227488151654</v>
       </c>
-      <c r="J31" s="187">
+      <c r="J31" s="153">
         <f t="shared" si="9"/>
         <v>73.838862559241704</v>
       </c>
-      <c r="K31" s="189">
+      <c r="K31" s="155">
         <f t="shared" si="9"/>
         <v>2.4360189573459712</v>
       </c>
-      <c r="L31" s="190">
+      <c r="L31" s="156">
         <f t="shared" si="9"/>
         <v>0.66919431279620845</v>
       </c>
-      <c r="M31" s="187">
+      <c r="M31" s="153">
         <f t="shared" si="9"/>
         <v>383.88625592417054</v>
       </c>
-      <c r="N31" s="188">
+      <c r="N31" s="154">
         <f t="shared" si="9"/>
         <v>0.38388625592417058</v>
       </c>
-      <c r="O31" s="210">
+      <c r="O31" s="172">
         <f t="shared" si="3"/>
         <v>0.94786729857819896</v>
       </c>
     </row>
     <row r="32" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="126"/>
-      <c r="C32" s="129">
+      <c r="B32" s="199"/>
+      <c r="C32" s="202">
         <v>2000</v>
       </c>
-      <c r="D32" s="142">
+      <c r="D32" s="122">
         <v>2</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="128">
         <f t="shared" ref="E32:N32" si="10">E14/$P14</f>
         <v>3.1547619047619042</v>
       </c>
-      <c r="F32" s="177">
+      <c r="F32" s="143">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="G32" s="163">
+      <c r="G32" s="129">
         <f t="shared" si="10"/>
         <v>12.499999999999998</v>
       </c>
-      <c r="H32" s="171">
+      <c r="H32" s="137">
         <f t="shared" si="10"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="I32" s="162">
+      <c r="I32" s="128">
         <f t="shared" si="10"/>
         <v>12.499999999999998</v>
       </c>
-      <c r="J32" s="163">
+      <c r="J32" s="129">
         <f t="shared" si="10"/>
         <v>68.69047619047619</v>
       </c>
-      <c r="K32" s="168">
+      <c r="K32" s="134">
         <f t="shared" si="10"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="L32" s="174">
+      <c r="L32" s="140">
         <f t="shared" si="10"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="M32" s="173">
+      <c r="M32" s="139">
         <f t="shared" si="10"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="N32" s="171">
+      <c r="N32" s="137">
         <f t="shared" si="10"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="O32" s="209">
+      <c r="O32" s="171">
         <f t="shared" si="3"/>
         <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="33" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="126"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="121">
+      <c r="B33" s="199"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="108">
         <v>5</v>
       </c>
-      <c r="E33" s="164">
+      <c r="E33" s="130">
         <f t="shared" ref="E33:N33" si="11">E15/$P15</f>
         <v>5.6787564766839376</v>
       </c>
-      <c r="F33" s="177">
+      <c r="F33" s="143">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="G33" s="165">
+      <c r="G33" s="131">
         <f t="shared" si="11"/>
         <v>13.575129533678755</v>
       </c>
-      <c r="H33" s="172">
+      <c r="H33" s="138">
         <f t="shared" si="11"/>
         <v>0.44041450777202068</v>
       </c>
-      <c r="I33" s="164">
+      <c r="I33" s="130">
         <f t="shared" si="11"/>
         <v>13.575129533678755</v>
       </c>
-      <c r="J33" s="165">
+      <c r="J33" s="131">
         <f t="shared" si="11"/>
         <v>68.601036269430054</v>
       </c>
-      <c r="K33" s="169">
+      <c r="K33" s="135">
         <f t="shared" si="11"/>
         <v>2.2797927461139897</v>
       </c>
-      <c r="L33" s="175">
+      <c r="L33" s="141">
         <f t="shared" si="11"/>
         <v>0.44041450777202068</v>
       </c>
-      <c r="M33" s="165">
+      <c r="M33" s="131">
         <f t="shared" si="11"/>
         <v>278.75647668393782</v>
       </c>
-      <c r="N33" s="172">
+      <c r="N33" s="138">
         <f t="shared" si="11"/>
         <v>0.27875647668393783</v>
       </c>
-      <c r="O33" s="209">
+      <c r="O33" s="171">
         <f t="shared" si="3"/>
         <v>1.0362694300518134</v>
       </c>
     </row>
     <row r="34" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="126"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="142">
+      <c r="B34" s="199"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="122">
         <v>10</v>
       </c>
-      <c r="E34" s="162">
+      <c r="E34" s="128">
         <f t="shared" ref="E34:N34" si="12">E16/$P16</f>
         <v>8.5588235294117645</v>
       </c>
-      <c r="F34" s="177">
+      <c r="F34" s="143">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="G34" s="163">
+      <c r="G34" s="129">
         <f t="shared" si="12"/>
         <v>15.294117647058822</v>
       </c>
-      <c r="H34" s="171">
+      <c r="H34" s="137">
         <f t="shared" si="12"/>
         <v>0.48333333333333334</v>
       </c>
-      <c r="I34" s="162">
+      <c r="I34" s="128">
         <f t="shared" si="12"/>
         <v>15.294117647058822</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="129">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="K34" s="168">
+      <c r="K34" s="134">
         <f t="shared" si="12"/>
         <v>2.3235294117647061</v>
       </c>
-      <c r="L34" s="174">
+      <c r="L34" s="140">
         <f t="shared" si="12"/>
         <v>0.48333333333333334</v>
       </c>
-      <c r="M34" s="163">
+      <c r="M34" s="129">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
-      <c r="N34" s="171">
+      <c r="N34" s="137">
         <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
-      <c r="O34" s="209">
+      <c r="O34" s="171">
         <f t="shared" si="3"/>
         <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="35" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="127"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="124" t="s">
+      <c r="B35" s="200"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="166">
+      <c r="E35" s="132">
         <f t="shared" ref="E35:N35" si="13">E17/$P17</f>
         <v>11.004784688995215</v>
       </c>
-      <c r="F35" s="178">
+      <c r="F35" s="144">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="G35" s="167">
+      <c r="G35" s="133">
         <f t="shared" si="13"/>
         <v>17.320574162679428</v>
       </c>
@@ -11082,23 +11170,23 @@
         <f t="shared" si="13"/>
         <v>0.54066985645933008</v>
       </c>
-      <c r="I35" s="166">
+      <c r="I35" s="132">
         <f t="shared" si="13"/>
         <v>17.320574162679428</v>
       </c>
-      <c r="J35" s="167">
+      <c r="J35" s="133">
         <f t="shared" si="13"/>
         <v>71.291866028708142</v>
       </c>
-      <c r="K35" s="170">
+      <c r="K35" s="136">
         <f t="shared" si="13"/>
         <v>2.3540669856459333</v>
       </c>
-      <c r="L35" s="176">
+      <c r="L35" s="142">
         <f t="shared" si="13"/>
         <v>0.54066985645933008</v>
       </c>
-      <c r="M35" s="167">
+      <c r="M35" s="133">
         <f t="shared" si="13"/>
         <v>327.27272727272731</v>
       </c>
@@ -11106,49 +11194,64 @@
         <f t="shared" si="13"/>
         <v>0.32727272727272733</v>
       </c>
-      <c r="O35" s="212">
+      <c r="O35" s="174">
         <f t="shared" si="3"/>
         <v>0.95693779904306231</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="206" t="s">
+      <c r="B36" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="206"/>
-      <c r="L36" s="206"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="213"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="175"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="214"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="214"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="216"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B20:N20"/>
     <mergeCell ref="B18:N18"/>
@@ -11165,21 +11268,461 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB2256-7B86-47AF-89EF-202D745657F5}">
+  <dimension ref="C1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="223" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+    </row>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="222" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="216"/>
+      <c r="F2" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="232" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="225"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220">
+        <v>1</v>
+      </c>
+      <c r="G3" s="220">
+        <v>2</v>
+      </c>
+      <c r="H3" s="220">
+        <v>3</v>
+      </c>
+      <c r="I3" s="220">
+        <v>4</v>
+      </c>
+      <c r="J3" s="220">
+        <v>5</v>
+      </c>
+      <c r="K3" s="220">
+        <v>6</v>
+      </c>
+      <c r="L3" s="220">
+        <v>7</v>
+      </c>
+      <c r="M3" s="220">
+        <v>8</v>
+      </c>
+      <c r="N3" s="220">
+        <v>9</v>
+      </c>
+      <c r="O3" s="220">
+        <v>10</v>
+      </c>
+      <c r="P3" s="220">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>12</v>
+      </c>
+      <c r="R3" s="233"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="226" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="180">
+        <v>20</v>
+      </c>
+      <c r="E4" s="216" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="235"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="227"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="218" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="219"/>
+      <c r="R5" s="234"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="227"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="234"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="227"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="218" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="234"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="227"/>
+      <c r="D8" s="230">
+        <v>50</v>
+      </c>
+      <c r="E8" s="218" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="219"/>
+      <c r="R8" s="234"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="227"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="234"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="227"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="234"/>
+    </row>
+    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="228"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="220" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="226" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="180">
+        <v>20</v>
+      </c>
+      <c r="E12" s="216" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="216"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="216"/>
+      <c r="P12" s="216"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="234"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="227"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="219"/>
+      <c r="R13" s="234"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="227"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="234"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="227"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="218" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="234"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="227"/>
+      <c r="D16" s="230">
+        <v>50</v>
+      </c>
+      <c r="E16" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="234"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="227"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="234"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="227"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="234"/>
+    </row>
+    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="228"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="220" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/downloads/notebooks/pretty_tables.xlsx
+++ b/downloads/notebooks/pretty_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricKim\Documents\aegis4048.github.io-source\content\downloads\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C5194E-F77B-4AD7-9AC7-447B2EEB76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A433BB9-007E-4D22-944A-1D038E4D7366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,13 @@
     <sheet name="SCN Parameters" sheetId="6" r:id="rId7"/>
     <sheet name="H2S" sheetId="8" r:id="rId8"/>
     <sheet name="Seasonal" sheetId="9" r:id="rId9"/>
+    <sheet name="Basin-region match" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Basin-region match'!$A$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="155">
   <si>
     <t>Slope</t>
   </si>
@@ -325,57 +331,278 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Gas Vol.</t>
-  </si>
-  <si>
-    <t>Oil Vol.</t>
-  </si>
-  <si>
-    <t>RVP</t>
-  </si>
-  <si>
     <t>Region</t>
-  </si>
-  <si>
-    <t>Heater P [psig]</t>
-  </si>
-  <si>
-    <t>30 Degree Oil Facility</t>
-  </si>
-  <si>
-    <t>TX, Midland</t>
-  </si>
-  <si>
-    <t>UT, Cedar City</t>
   </si>
   <si>
     <t>GHV (Btu/scf)</t>
   </si>
   <si>
-    <t>Gas Vol</t>
+    <t>RVP (psia)</t>
   </si>
   <si>
-    <t>Oil Vol (bbl/d)</t>
+    <t>State</t>
   </si>
   <si>
-    <t>Gas (Mscf/d)</t>
+    <t>City</t>
   </si>
   <si>
-    <t>Jan -&gt; July diff. (%)</t>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Jan -&gt; July Diff</t>
+  </si>
+  <si>
+    <t>Eagleford (San Antonio)</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>TAA</t>
+  </si>
+  <si>
+    <t>°F</t>
+  </si>
+  <si>
+    <t>Haynesville (Texas)</t>
+  </si>
+  <si>
+    <t>Lufkin</t>
+  </si>
+  <si>
+    <t>Haynesville (Louisiana)</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Shreveport</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Midland</t>
+  </si>
+  <si>
+    <t>Barnett Shale</t>
+  </si>
+  <si>
+    <t>Dallas-Fort Worth</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica (West Virginia)</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Granite Wash</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Denver-Julesburg</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Woodford Shale, Anadarko</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica (Pennsylvania)</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Woodford Shale, Arkoma</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica (Ohio)</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Powder River</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica (New York)</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Binghamton</t>
+  </si>
+  <si>
+    <t>Bakken Shale</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Williston</t>
+  </si>
+  <si>
+    <t>Eagleford 
+(San Antonio)</t>
+  </si>
+  <si>
+    <t>Haynesville 
+(Texas)</t>
+  </si>
+  <si>
+    <t>Haynesville 
+(Louisiana)</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica 
+(West Virginia)</t>
+  </si>
+  <si>
+    <t>Woodford Shale 
+(Anadarko)</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica 
+(Pennsylvania)</t>
+  </si>
+  <si>
+    <t>Woodford Shale 
+(Arkoma)</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica
+ (Ohio)</t>
+  </si>
+  <si>
+    <t>Marcellus/Utica 
+(New York)</t>
+  </si>
+  <si>
+    <t>Air T (°F)</t>
+  </si>
+  <si>
+    <t>Gas (MCFD)</t>
+  </si>
+  <si>
+    <t>Jan -&gt; July
+Flash Vol. Diff (%)</t>
+  </si>
+  <si>
+    <t>Region*</t>
+  </si>
+  <si>
+    <t>Results**</t>
+  </si>
+  <si>
+    <t>*Regional monthly average ambient air T  data comes from AP 42 Chapter 7's Table 7.1-7. Location names are changed to match major oil and gas basins in the US.</t>
+  </si>
+  <si>
+    <t>**Assumes liquid being dumped to tanks from a heater treater operating at 30 psig and 120F.</t>
+  </si>
+  <si>
+    <t>Tank T (°F)</t>
+  </si>
+  <si>
+    <t>Dew T (°F)***</t>
+  </si>
+  <si>
+    <t>***Dew point temperature at 250 psig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="172" formatCode="\+0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +650,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,8 +713,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -994,11 +1234,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="hair">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1483,6 +2034,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,6 +2076,66 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,118 +2154,175 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2485,6 +3156,2278 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3535323-3DA0-4929-A4CD-6DAC52A4D633}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="176" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="176" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="176" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="176" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="176" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="68">
+        <v>10.4</v>
+      </c>
+      <c r="G2" s="68">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H2" s="68">
+        <v>28.85</v>
+      </c>
+      <c r="I2" s="68">
+        <v>43.2</v>
+      </c>
+      <c r="J2" s="68">
+        <v>53.45</v>
+      </c>
+      <c r="K2" s="68">
+        <v>62.75</v>
+      </c>
+      <c r="L2" s="68">
+        <v>69.75</v>
+      </c>
+      <c r="M2" s="68">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="N2" s="68">
+        <v>57.65</v>
+      </c>
+      <c r="O2" s="68">
+        <v>43.25</v>
+      </c>
+      <c r="P2" s="68">
+        <v>27.9</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>15.5</v>
+      </c>
+      <c r="R2" s="68">
+        <v>41.55</v>
+      </c>
+      <c r="S2" s="68">
+        <f>ABS(F2-L2)</f>
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="68">
+        <v>22.9</v>
+      </c>
+      <c r="G3" s="68">
+        <v>24.65</v>
+      </c>
+      <c r="H3" s="68">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I3" s="68">
+        <v>45.2</v>
+      </c>
+      <c r="J3" s="68">
+        <v>55.85</v>
+      </c>
+      <c r="K3" s="68">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="L3" s="68">
+        <v>68.5</v>
+      </c>
+      <c r="M3" s="68">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="N3" s="68">
+        <v>59.85</v>
+      </c>
+      <c r="O3" s="68">
+        <v>48.65</v>
+      </c>
+      <c r="P3" s="68">
+        <v>38.4</v>
+      </c>
+      <c r="Q3" s="68">
+        <v>27.75</v>
+      </c>
+      <c r="R3" s="68">
+        <v>46.400000000000013</v>
+      </c>
+      <c r="S3" s="68">
+        <f>ABS(F3-L3)</f>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="68">
+        <v>25.65</v>
+      </c>
+      <c r="G4" s="68">
+        <v>28.3</v>
+      </c>
+      <c r="H4" s="68">
+        <v>35.75</v>
+      </c>
+      <c r="I4" s="68">
+        <v>42.8</v>
+      </c>
+      <c r="J4" s="68">
+        <v>52.6</v>
+      </c>
+      <c r="K4" s="68">
+        <v>62.2</v>
+      </c>
+      <c r="L4" s="68">
+        <v>71</v>
+      </c>
+      <c r="M4" s="68">
+        <v>69.449999999999989</v>
+      </c>
+      <c r="N4" s="68">
+        <v>58.8</v>
+      </c>
+      <c r="O4" s="68">
+        <v>45.85</v>
+      </c>
+      <c r="P4" s="68">
+        <v>34.25</v>
+      </c>
+      <c r="Q4" s="68">
+        <v>25.75</v>
+      </c>
+      <c r="R4" s="68">
+        <v>46</v>
+      </c>
+      <c r="S4" s="68">
+        <f>ABS(F4-L4)</f>
+        <v>45.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="68">
+        <v>29.75</v>
+      </c>
+      <c r="G5" s="68">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="H5" s="68">
+        <v>41.5</v>
+      </c>
+      <c r="I5" s="68">
+        <v>53.25</v>
+      </c>
+      <c r="J5" s="68">
+        <v>62.45</v>
+      </c>
+      <c r="K5" s="68">
+        <v>71.699999999999989</v>
+      </c>
+      <c r="L5" s="68">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="M5" s="68">
+        <v>73.949999999999989</v>
+      </c>
+      <c r="N5" s="68">
+        <v>66.75</v>
+      </c>
+      <c r="O5" s="68">
+        <v>54.95</v>
+      </c>
+      <c r="P5" s="68">
+        <v>44.05</v>
+      </c>
+      <c r="Q5" s="68">
+        <v>33.65</v>
+      </c>
+      <c r="R5" s="68">
+        <v>53.25</v>
+      </c>
+      <c r="S5" s="68">
+        <f>ABS(F5-L5)</f>
+        <v>45.150000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="68">
+        <v>38.15</v>
+      </c>
+      <c r="G6" s="68">
+        <v>43.15</v>
+      </c>
+      <c r="H6" s="68">
+        <v>51.3</v>
+      </c>
+      <c r="I6" s="68">
+        <v>60.55</v>
+      </c>
+      <c r="J6" s="68">
+        <v>69.45</v>
+      </c>
+      <c r="K6" s="68">
+        <v>77.55</v>
+      </c>
+      <c r="L6" s="68">
+        <v>82.85</v>
+      </c>
+      <c r="M6" s="68">
+        <v>82.300000000000011</v>
+      </c>
+      <c r="N6" s="68">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="O6" s="68">
+        <v>61.95</v>
+      </c>
+      <c r="P6" s="68">
+        <v>50.3</v>
+      </c>
+      <c r="Q6" s="68">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="R6" s="68">
+        <v>60.95</v>
+      </c>
+      <c r="S6" s="68">
+        <f>ABS(F6-L6)</f>
+        <v>44.699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="68">
+        <v>29.2</v>
+      </c>
+      <c r="G7" s="68">
+        <v>31.2</v>
+      </c>
+      <c r="H7" s="68">
+        <v>39.75</v>
+      </c>
+      <c r="I7" s="68">
+        <v>51.65</v>
+      </c>
+      <c r="J7" s="68">
+        <v>60.4</v>
+      </c>
+      <c r="K7" s="68">
+        <v>69.25</v>
+      </c>
+      <c r="L7" s="68">
+        <v>72.7</v>
+      </c>
+      <c r="M7" s="68">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="N7" s="68">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="O7" s="68">
+        <v>52.9</v>
+      </c>
+      <c r="P7" s="68">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>32.85</v>
+      </c>
+      <c r="R7" s="68">
+        <v>51.599999999999987</v>
+      </c>
+      <c r="S7" s="68">
+        <f>ABS(F7-L7)</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="68">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G8" s="68">
+        <v>43.45</v>
+      </c>
+      <c r="H8" s="68">
+        <v>51.3</v>
+      </c>
+      <c r="I8" s="68">
+        <v>59.95</v>
+      </c>
+      <c r="J8" s="68">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K8" s="68">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="L8" s="68">
+        <v>82.15</v>
+      </c>
+      <c r="M8" s="68">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="N8" s="68">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="O8" s="68">
+        <v>61.8</v>
+      </c>
+      <c r="P8" s="68">
+        <v>49.9</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>40.65</v>
+      </c>
+      <c r="R8" s="68">
+        <v>60.7</v>
+      </c>
+      <c r="S8" s="68">
+        <f>ABS(F8-L8)</f>
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="68">
+        <v>31.05</v>
+      </c>
+      <c r="G9" s="68">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H9" s="68">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="I9" s="68">
+        <v>47.45</v>
+      </c>
+      <c r="J9" s="68">
+        <v>57.65</v>
+      </c>
+      <c r="K9" s="68">
+        <v>67.050000000000011</v>
+      </c>
+      <c r="L9" s="68">
+        <v>74.2</v>
+      </c>
+      <c r="M9" s="68">
+        <v>71.95</v>
+      </c>
+      <c r="N9" s="68">
+        <v>63.45</v>
+      </c>
+      <c r="O9" s="68">
+        <v>50.85</v>
+      </c>
+      <c r="P9" s="68">
+        <v>38.9</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>31.3</v>
+      </c>
+      <c r="R9" s="68">
+        <v>50.7</v>
+      </c>
+      <c r="S9" s="68">
+        <f>ABS(F9-L9)</f>
+        <v>43.150000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="68">
+        <v>37.5</v>
+      </c>
+      <c r="G10" s="68">
+        <v>41.2</v>
+      </c>
+      <c r="H10" s="68">
+        <v>48</v>
+      </c>
+      <c r="I10" s="68">
+        <v>56.2</v>
+      </c>
+      <c r="J10" s="68">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="K10" s="68">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L10" s="68">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="M10" s="68">
+        <v>76.55</v>
+      </c>
+      <c r="N10" s="68">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="O10" s="68">
+        <v>58.3</v>
+      </c>
+      <c r="P10" s="68">
+        <v>46.1</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="R10" s="68">
+        <v>57.5</v>
+      </c>
+      <c r="S10" s="68">
+        <f>ABS(F10-L10)</f>
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="68">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G11" s="68">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="H11" s="68">
+        <v>45.3</v>
+      </c>
+      <c r="I11" s="68">
+        <v>56.5</v>
+      </c>
+      <c r="J11" s="68">
+        <v>63.55</v>
+      </c>
+      <c r="K11" s="68">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L11" s="68">
+        <v>74.800000000000011</v>
+      </c>
+      <c r="M11" s="68">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N11" s="68">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="O11" s="68">
+        <v>56.3</v>
+      </c>
+      <c r="P11" s="68">
+        <v>46.349999999999987</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>37.35</v>
+      </c>
+      <c r="R11" s="68">
+        <v>55.45</v>
+      </c>
+      <c r="S11" s="68">
+        <f>ABS(F11-L11)</f>
+        <v>39.850000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="68">
+        <v>46.6</v>
+      </c>
+      <c r="G12" s="68">
+        <v>50.75</v>
+      </c>
+      <c r="H12" s="68">
+        <v>57.8</v>
+      </c>
+      <c r="I12" s="68">
+        <v>65.75</v>
+      </c>
+      <c r="J12" s="68">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K12" s="68">
+        <v>81.8</v>
+      </c>
+      <c r="L12" s="68">
+        <v>85.8</v>
+      </c>
+      <c r="M12" s="68">
+        <v>85.699999999999989</v>
+      </c>
+      <c r="N12" s="68">
+        <v>78.199999999999989</v>
+      </c>
+      <c r="O12" s="68">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="P12" s="68">
+        <v>56.650000000000013</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>48.25</v>
+      </c>
+      <c r="R12" s="68">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="S12" s="68">
+        <f>ABS(F12-L12)</f>
+        <v>39.199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="68">
+        <v>44.6</v>
+      </c>
+      <c r="G13" s="68">
+        <v>49.05</v>
+      </c>
+      <c r="H13" s="68">
+        <v>55.75</v>
+      </c>
+      <c r="I13" s="68">
+        <v>64.25</v>
+      </c>
+      <c r="J13" s="68">
+        <v>74</v>
+      </c>
+      <c r="K13" s="68">
+        <v>80.75</v>
+      </c>
+      <c r="L13" s="68">
+        <v>82.4</v>
+      </c>
+      <c r="M13" s="68">
+        <v>81.050000000000011</v>
+      </c>
+      <c r="N13" s="68">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="O13" s="68">
+        <v>64.95</v>
+      </c>
+      <c r="P13" s="68">
+        <v>52.7</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>45.1</v>
+      </c>
+      <c r="R13" s="68">
+        <v>64.05</v>
+      </c>
+      <c r="S13" s="68">
+        <f>ABS(F13-L13)</f>
+        <v>37.800000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="68">
+        <v>46.400000000000013</v>
+      </c>
+      <c r="G14" s="68">
+        <v>51</v>
+      </c>
+      <c r="H14" s="68">
+        <v>57.3</v>
+      </c>
+      <c r="I14" s="68">
+        <v>65.45</v>
+      </c>
+      <c r="J14" s="68">
+        <v>75.25</v>
+      </c>
+      <c r="K14" s="68">
+        <v>82.6</v>
+      </c>
+      <c r="L14" s="68">
+        <v>83.300000000000011</v>
+      </c>
+      <c r="M14" s="68">
+        <v>81.5</v>
+      </c>
+      <c r="N14" s="68">
+        <v>75.95</v>
+      </c>
+      <c r="O14" s="68">
+        <v>65.8</v>
+      </c>
+      <c r="P14" s="68">
+        <v>53.45</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>45.599999999999987</v>
+      </c>
+      <c r="R14" s="68">
+        <v>65.3</v>
+      </c>
+      <c r="S14" s="68">
+        <f>ABS(F14-L14)</f>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="68">
+        <v>47.7</v>
+      </c>
+      <c r="G15" s="68">
+        <v>51.349999999999987</v>
+      </c>
+      <c r="H15" s="68">
+        <v>58.15</v>
+      </c>
+      <c r="I15" s="68">
+        <v>65.5</v>
+      </c>
+      <c r="J15" s="68">
+        <v>73.8</v>
+      </c>
+      <c r="K15" s="68">
+        <v>80.25</v>
+      </c>
+      <c r="L15" s="68">
+        <v>83.45</v>
+      </c>
+      <c r="M15" s="68">
+        <v>83.35</v>
+      </c>
+      <c r="N15" s="68">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="O15" s="68">
+        <v>66.95</v>
+      </c>
+      <c r="P15" s="68">
+        <v>56.25</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>48.8</v>
+      </c>
+      <c r="R15" s="68">
+        <v>66.05</v>
+      </c>
+      <c r="S15" s="68">
+        <f>ABS(F15-L15)</f>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="68">
+        <v>49.55</v>
+      </c>
+      <c r="G16" s="68">
+        <v>53.2</v>
+      </c>
+      <c r="H16" s="68">
+        <v>59.55</v>
+      </c>
+      <c r="I16" s="68">
+        <v>66.55</v>
+      </c>
+      <c r="J16" s="68">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="K16" s="68">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="L16" s="68">
+        <v>82.949999999999989</v>
+      </c>
+      <c r="M16" s="68">
+        <v>82.85</v>
+      </c>
+      <c r="N16" s="68">
+        <v>77.55</v>
+      </c>
+      <c r="O16" s="68">
+        <v>68</v>
+      </c>
+      <c r="P16" s="68">
+        <v>57.8</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>50.7</v>
+      </c>
+      <c r="R16" s="68">
+        <v>67</v>
+      </c>
+      <c r="S16" s="68">
+        <f>ABS(F16-L16)</f>
+        <v>33.399999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="68">
+        <v>52.45</v>
+      </c>
+      <c r="G17" s="68">
+        <v>56.5</v>
+      </c>
+      <c r="H17" s="68">
+        <v>62.45</v>
+      </c>
+      <c r="I17" s="68">
+        <v>69.5</v>
+      </c>
+      <c r="J17" s="68">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K17" s="68">
+        <v>82.550000000000011</v>
+      </c>
+      <c r="L17" s="68">
+        <v>84.6</v>
+      </c>
+      <c r="M17" s="68">
+        <v>85.15</v>
+      </c>
+      <c r="N17" s="68">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="O17" s="68">
+        <v>71.199999999999989</v>
+      </c>
+      <c r="P17" s="68">
+        <v>60.9</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>53.7</v>
+      </c>
+      <c r="R17" s="68">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="S17" s="68">
+        <f>ABS(F17-L17)</f>
+        <v>32.149999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730B681-20CC-4927-9F44-9B9129CFF588}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA6F97C-805A-4E03-8347-E76936A81084}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="B1:S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="176" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="176" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="176" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="176" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="176" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="68">
+        <v>52.45</v>
+      </c>
+      <c r="G2" s="68">
+        <v>56.5</v>
+      </c>
+      <c r="H2" s="68">
+        <v>62.45</v>
+      </c>
+      <c r="I2" s="68">
+        <v>69.5</v>
+      </c>
+      <c r="J2" s="68">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K2" s="68">
+        <v>82.550000000000011</v>
+      </c>
+      <c r="L2" s="68">
+        <v>84.6</v>
+      </c>
+      <c r="M2" s="68">
+        <v>85.15</v>
+      </c>
+      <c r="N2" s="68">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="O2" s="68">
+        <v>71.199999999999989</v>
+      </c>
+      <c r="P2" s="68">
+        <v>60.9</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>53.7</v>
+      </c>
+      <c r="R2" s="68">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="S2" s="68">
+        <f t="shared" ref="S2:S17" si="0">ABS(F2-L2)</f>
+        <v>32.149999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="68">
+        <v>49.55</v>
+      </c>
+      <c r="G3" s="68">
+        <v>53.2</v>
+      </c>
+      <c r="H3" s="68">
+        <v>59.55</v>
+      </c>
+      <c r="I3" s="68">
+        <v>66.55</v>
+      </c>
+      <c r="J3" s="68">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="K3" s="68">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="L3" s="68">
+        <v>82.949999999999989</v>
+      </c>
+      <c r="M3" s="68">
+        <v>82.85</v>
+      </c>
+      <c r="N3" s="68">
+        <v>77.55</v>
+      </c>
+      <c r="O3" s="68">
+        <v>68</v>
+      </c>
+      <c r="P3" s="68">
+        <v>57.8</v>
+      </c>
+      <c r="Q3" s="68">
+        <v>50.7</v>
+      </c>
+      <c r="R3" s="68">
+        <v>67</v>
+      </c>
+      <c r="S3" s="68">
+        <f t="shared" si="0"/>
+        <v>33.399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="68">
+        <v>47.7</v>
+      </c>
+      <c r="G4" s="68">
+        <v>51.349999999999987</v>
+      </c>
+      <c r="H4" s="68">
+        <v>58.15</v>
+      </c>
+      <c r="I4" s="68">
+        <v>65.5</v>
+      </c>
+      <c r="J4" s="68">
+        <v>73.8</v>
+      </c>
+      <c r="K4" s="68">
+        <v>80.25</v>
+      </c>
+      <c r="L4" s="68">
+        <v>83.45</v>
+      </c>
+      <c r="M4" s="68">
+        <v>83.35</v>
+      </c>
+      <c r="N4" s="68">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="O4" s="68">
+        <v>66.95</v>
+      </c>
+      <c r="P4" s="68">
+        <v>56.25</v>
+      </c>
+      <c r="Q4" s="68">
+        <v>48.8</v>
+      </c>
+      <c r="R4" s="68">
+        <v>66.05</v>
+      </c>
+      <c r="S4" s="68">
+        <f t="shared" si="0"/>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="68">
+        <v>46.400000000000013</v>
+      </c>
+      <c r="G5" s="68">
+        <v>51</v>
+      </c>
+      <c r="H5" s="68">
+        <v>57.3</v>
+      </c>
+      <c r="I5" s="68">
+        <v>65.45</v>
+      </c>
+      <c r="J5" s="68">
+        <v>75.25</v>
+      </c>
+      <c r="K5" s="68">
+        <v>82.6</v>
+      </c>
+      <c r="L5" s="68">
+        <v>83.300000000000011</v>
+      </c>
+      <c r="M5" s="68">
+        <v>81.5</v>
+      </c>
+      <c r="N5" s="68">
+        <v>75.95</v>
+      </c>
+      <c r="O5" s="68">
+        <v>65.8</v>
+      </c>
+      <c r="P5" s="68">
+        <v>53.45</v>
+      </c>
+      <c r="Q5" s="68">
+        <v>45.599999999999987</v>
+      </c>
+      <c r="R5" s="68">
+        <v>65.3</v>
+      </c>
+      <c r="S5" s="68">
+        <f t="shared" si="0"/>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="68">
+        <v>44.6</v>
+      </c>
+      <c r="G6" s="68">
+        <v>49.05</v>
+      </c>
+      <c r="H6" s="68">
+        <v>55.75</v>
+      </c>
+      <c r="I6" s="68">
+        <v>64.25</v>
+      </c>
+      <c r="J6" s="68">
+        <v>74</v>
+      </c>
+      <c r="K6" s="68">
+        <v>80.75</v>
+      </c>
+      <c r="L6" s="68">
+        <v>82.4</v>
+      </c>
+      <c r="M6" s="68">
+        <v>81.050000000000011</v>
+      </c>
+      <c r="N6" s="68">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="O6" s="68">
+        <v>64.95</v>
+      </c>
+      <c r="P6" s="68">
+        <v>52.7</v>
+      </c>
+      <c r="Q6" s="68">
+        <v>45.1</v>
+      </c>
+      <c r="R6" s="68">
+        <v>64.05</v>
+      </c>
+      <c r="S6" s="68">
+        <f t="shared" si="0"/>
+        <v>37.800000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="68">
+        <v>46.6</v>
+      </c>
+      <c r="G7" s="68">
+        <v>50.75</v>
+      </c>
+      <c r="H7" s="68">
+        <v>57.8</v>
+      </c>
+      <c r="I7" s="68">
+        <v>65.75</v>
+      </c>
+      <c r="J7" s="68">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K7" s="68">
+        <v>81.8</v>
+      </c>
+      <c r="L7" s="68">
+        <v>85.8</v>
+      </c>
+      <c r="M7" s="68">
+        <v>85.699999999999989</v>
+      </c>
+      <c r="N7" s="68">
+        <v>78.199999999999989</v>
+      </c>
+      <c r="O7" s="68">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="P7" s="68">
+        <v>56.650000000000013</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>48.25</v>
+      </c>
+      <c r="R7" s="68">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="S7" s="68">
+        <f t="shared" si="0"/>
+        <v>39.199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="68">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G8" s="68">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="H8" s="68">
+        <v>45.3</v>
+      </c>
+      <c r="I8" s="68">
+        <v>56.5</v>
+      </c>
+      <c r="J8" s="68">
+        <v>63.55</v>
+      </c>
+      <c r="K8" s="68">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L8" s="68">
+        <v>74.800000000000011</v>
+      </c>
+      <c r="M8" s="68">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N8" s="68">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="O8" s="68">
+        <v>56.3</v>
+      </c>
+      <c r="P8" s="68">
+        <v>46.349999999999987</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>37.35</v>
+      </c>
+      <c r="R8" s="68">
+        <v>55.45</v>
+      </c>
+      <c r="S8" s="68">
+        <f t="shared" si="0"/>
+        <v>39.850000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="68">
+        <v>37.5</v>
+      </c>
+      <c r="G9" s="68">
+        <v>41.2</v>
+      </c>
+      <c r="H9" s="68">
+        <v>48</v>
+      </c>
+      <c r="I9" s="68">
+        <v>56.2</v>
+      </c>
+      <c r="J9" s="68">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="K9" s="68">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L9" s="68">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="M9" s="68">
+        <v>76.55</v>
+      </c>
+      <c r="N9" s="68">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="O9" s="68">
+        <v>58.3</v>
+      </c>
+      <c r="P9" s="68">
+        <v>46.1</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="R9" s="68">
+        <v>57.5</v>
+      </c>
+      <c r="S9" s="68">
+        <f t="shared" si="0"/>
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="68">
+        <v>31.05</v>
+      </c>
+      <c r="G10" s="68">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H10" s="68">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="I10" s="68">
+        <v>47.45</v>
+      </c>
+      <c r="J10" s="68">
+        <v>57.65</v>
+      </c>
+      <c r="K10" s="68">
+        <v>67.050000000000011</v>
+      </c>
+      <c r="L10" s="68">
+        <v>74.2</v>
+      </c>
+      <c r="M10" s="68">
+        <v>71.95</v>
+      </c>
+      <c r="N10" s="68">
+        <v>63.45</v>
+      </c>
+      <c r="O10" s="68">
+        <v>50.85</v>
+      </c>
+      <c r="P10" s="68">
+        <v>38.9</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>31.3</v>
+      </c>
+      <c r="R10" s="68">
+        <v>50.7</v>
+      </c>
+      <c r="S10" s="68">
+        <f t="shared" si="0"/>
+        <v>43.150000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="68">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G11" s="68">
+        <v>43.45</v>
+      </c>
+      <c r="H11" s="68">
+        <v>51.3</v>
+      </c>
+      <c r="I11" s="68">
+        <v>59.95</v>
+      </c>
+      <c r="J11" s="68">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K11" s="68">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="L11" s="68">
+        <v>82.15</v>
+      </c>
+      <c r="M11" s="68">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="N11" s="68">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="O11" s="68">
+        <v>61.8</v>
+      </c>
+      <c r="P11" s="68">
+        <v>49.9</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>40.65</v>
+      </c>
+      <c r="R11" s="68">
+        <v>60.7</v>
+      </c>
+      <c r="S11" s="68">
+        <f t="shared" si="0"/>
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="68">
+        <v>29.2</v>
+      </c>
+      <c r="G12" s="68">
+        <v>31.2</v>
+      </c>
+      <c r="H12" s="68">
+        <v>39.75</v>
+      </c>
+      <c r="I12" s="68">
+        <v>51.65</v>
+      </c>
+      <c r="J12" s="68">
+        <v>60.4</v>
+      </c>
+      <c r="K12" s="68">
+        <v>69.25</v>
+      </c>
+      <c r="L12" s="68">
+        <v>72.7</v>
+      </c>
+      <c r="M12" s="68">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="N12" s="68">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="O12" s="68">
+        <v>52.9</v>
+      </c>
+      <c r="P12" s="68">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>32.85</v>
+      </c>
+      <c r="R12" s="68">
+        <v>51.599999999999987</v>
+      </c>
+      <c r="S12" s="68">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="68">
+        <v>38.15</v>
+      </c>
+      <c r="G13" s="68">
+        <v>43.15</v>
+      </c>
+      <c r="H13" s="68">
+        <v>51.3</v>
+      </c>
+      <c r="I13" s="68">
+        <v>60.55</v>
+      </c>
+      <c r="J13" s="68">
+        <v>69.45</v>
+      </c>
+      <c r="K13" s="68">
+        <v>77.55</v>
+      </c>
+      <c r="L13" s="68">
+        <v>82.85</v>
+      </c>
+      <c r="M13" s="68">
+        <v>82.300000000000011</v>
+      </c>
+      <c r="N13" s="68">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="O13" s="68">
+        <v>61.95</v>
+      </c>
+      <c r="P13" s="68">
+        <v>50.3</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="R13" s="68">
+        <v>60.95</v>
+      </c>
+      <c r="S13" s="68">
+        <f t="shared" si="0"/>
+        <v>44.699999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="68">
+        <v>29.75</v>
+      </c>
+      <c r="G14" s="68">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="H14" s="68">
+        <v>41.5</v>
+      </c>
+      <c r="I14" s="68">
+        <v>53.25</v>
+      </c>
+      <c r="J14" s="68">
+        <v>62.45</v>
+      </c>
+      <c r="K14" s="68">
+        <v>71.699999999999989</v>
+      </c>
+      <c r="L14" s="68">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="M14" s="68">
+        <v>73.949999999999989</v>
+      </c>
+      <c r="N14" s="68">
+        <v>66.75</v>
+      </c>
+      <c r="O14" s="68">
+        <v>54.95</v>
+      </c>
+      <c r="P14" s="68">
+        <v>44.05</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>33.65</v>
+      </c>
+      <c r="R14" s="68">
+        <v>53.25</v>
+      </c>
+      <c r="S14" s="68">
+        <f t="shared" si="0"/>
+        <v>45.150000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="68">
+        <v>25.65</v>
+      </c>
+      <c r="G15" s="68">
+        <v>28.3</v>
+      </c>
+      <c r="H15" s="68">
+        <v>35.75</v>
+      </c>
+      <c r="I15" s="68">
+        <v>42.8</v>
+      </c>
+      <c r="J15" s="68">
+        <v>52.6</v>
+      </c>
+      <c r="K15" s="68">
+        <v>62.2</v>
+      </c>
+      <c r="L15" s="68">
+        <v>71</v>
+      </c>
+      <c r="M15" s="68">
+        <v>69.449999999999989</v>
+      </c>
+      <c r="N15" s="68">
+        <v>58.8</v>
+      </c>
+      <c r="O15" s="68">
+        <v>45.85</v>
+      </c>
+      <c r="P15" s="68">
+        <v>34.25</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>25.75</v>
+      </c>
+      <c r="R15" s="68">
+        <v>46</v>
+      </c>
+      <c r="S15" s="68">
+        <f t="shared" si="0"/>
+        <v>45.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="68">
+        <v>22.9</v>
+      </c>
+      <c r="G16" s="68">
+        <v>24.65</v>
+      </c>
+      <c r="H16" s="68">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I16" s="68">
+        <v>45.2</v>
+      </c>
+      <c r="J16" s="68">
+        <v>55.85</v>
+      </c>
+      <c r="K16" s="68">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="L16" s="68">
+        <v>68.5</v>
+      </c>
+      <c r="M16" s="68">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="N16" s="68">
+        <v>59.85</v>
+      </c>
+      <c r="O16" s="68">
+        <v>48.65</v>
+      </c>
+      <c r="P16" s="68">
+        <v>38.4</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>27.75</v>
+      </c>
+      <c r="R16" s="68">
+        <v>46.400000000000013</v>
+      </c>
+      <c r="S16" s="68">
+        <f t="shared" si="0"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="68">
+        <v>10.4</v>
+      </c>
+      <c r="G17" s="68">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H17" s="68">
+        <v>28.85</v>
+      </c>
+      <c r="I17" s="68">
+        <v>43.2</v>
+      </c>
+      <c r="J17" s="68">
+        <v>53.45</v>
+      </c>
+      <c r="K17" s="68">
+        <v>62.75</v>
+      </c>
+      <c r="L17" s="68">
+        <v>69.75</v>
+      </c>
+      <c r="M17" s="68">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="N17" s="68">
+        <v>57.65</v>
+      </c>
+      <c r="O17" s="68">
+        <v>43.25</v>
+      </c>
+      <c r="P17" s="68">
+        <v>27.9</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>15.5</v>
+      </c>
+      <c r="R17" s="68">
+        <v>41.55</v>
+      </c>
+      <c r="S17" s="68">
+        <f t="shared" si="0"/>
+        <v>59.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B434908-9D8C-419F-A6C5-6CEE9C9F6DFC}">
   <dimension ref="A1"/>
@@ -2536,26 +5479,26 @@
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="176" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="179" t="s">
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="176" t="s">
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179"/>
       <c r="Q3" s="23" t="s">
         <v>19</v>
       </c>
@@ -5503,21 +8446,21 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="176" t="s">
+      <c r="G3" s="180"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -6928,38 +9871,38 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="183"/>
-      <c r="I2" s="181" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="I2" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="176" t="s">
+      <c r="D3" s="179"/>
+      <c r="E3" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="H3" s="63"/>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="176" t="s">
+      <c r="J3" s="179"/>
+      <c r="K3" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="178"/>
+      <c r="L3" s="179"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -8402,44 +11345,44 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="184"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188"/>
-      <c r="L2" s="186" t="s">
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
+      <c r="L2" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="185"/>
-      <c r="C3" s="177" t="s">
+      <c r="B3" s="186"/>
+      <c r="C3" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="176" t="s">
+      <c r="D3" s="179"/>
+      <c r="E3" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="177" t="s">
+      <c r="F3" s="179"/>
+      <c r="G3" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="176" t="s">
+      <c r="H3" s="179"/>
+      <c r="I3" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="178"/>
+      <c r="J3" s="179"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
@@ -9703,17 +12646,17 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="73"/>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="176" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9844,80 +12787,80 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" s="168" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
     </row>
     <row r="3" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="215" t="s">
+      <c r="E3" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="215" t="s">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="195" t="s">
+      <c r="J3" s="193"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="195"/>
-      <c r="N3" s="196"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
     </row>
     <row r="4" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="210"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="207"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="197"/>
-      <c r="H4" s="198"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="191"/>
       <c r="I4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="197" t="s">
+      <c r="J4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="198"/>
+      <c r="K4" s="191"/>
       <c r="L4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="197" t="s">
+      <c r="M4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="198"/>
+      <c r="N4" s="191"/>
     </row>
     <row r="5" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="211"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="208"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="125" t="s">
         <v>51</v>
       </c>
@@ -9953,10 +12896,10 @@
       </c>
     </row>
     <row r="6" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="199">
+      <c r="B6" s="195">
         <v>1000</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="206">
         <v>100</v>
       </c>
       <c r="D6" s="121">
@@ -9998,8 +12941,8 @@
       </c>
     </row>
     <row r="7" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="199"/>
-      <c r="C7" s="202"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="207"/>
       <c r="D7" s="108">
         <v>5</v>
       </c>
@@ -10039,8 +12982,8 @@
       </c>
     </row>
     <row r="8" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="199"/>
-      <c r="C8" s="202"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="207"/>
       <c r="D8" s="122">
         <v>10</v>
       </c>
@@ -10080,8 +13023,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="199"/>
-      <c r="C9" s="203"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="117">
         <v>20</v>
       </c>
@@ -10121,8 +13064,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="199"/>
-      <c r="C10" s="202">
+      <c r="B10" s="195"/>
+      <c r="C10" s="207">
         <v>1000</v>
       </c>
       <c r="D10" s="122">
@@ -10164,8 +13107,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="199"/>
-      <c r="C11" s="202"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="207"/>
       <c r="D11" s="108">
         <v>5</v>
       </c>
@@ -10205,8 +13148,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="199"/>
-      <c r="C12" s="202"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="207"/>
       <c r="D12" s="122">
         <v>10</v>
       </c>
@@ -10246,8 +13189,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="199"/>
-      <c r="C13" s="203"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="117">
         <v>20</v>
       </c>
@@ -10287,8 +13230,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="199"/>
-      <c r="C14" s="202">
+      <c r="B14" s="195"/>
+      <c r="C14" s="207">
         <v>2000</v>
       </c>
       <c r="D14" s="122">
@@ -10330,8 +13273,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="199"/>
-      <c r="C15" s="202"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="207"/>
       <c r="D15" s="108">
         <v>5</v>
       </c>
@@ -10371,8 +13314,8 @@
       </c>
     </row>
     <row r="16" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="199"/>
-      <c r="C16" s="202"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="207"/>
       <c r="D16" s="122">
         <v>10</v>
       </c>
@@ -10412,8 +13355,8 @@
       </c>
     </row>
     <row r="17" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="200"/>
-      <c r="C17" s="205"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="111" t="s">
         <v>64</v>
       </c>
@@ -10453,98 +13396,98 @@
       </c>
     </row>
     <row r="18" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:16" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="212"/>
     </row>
     <row r="21" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="212" t="s">
+      <c r="C21" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="206" t="s">
+      <c r="D21" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="215" t="s">
+      <c r="E21" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="195"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="215" t="s">
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="195"/>
-      <c r="K21" s="196"/>
-      <c r="L21" s="195" t="s">
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="195"/>
-      <c r="N21" s="196"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="194"/>
     </row>
     <row r="22" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="210"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="207"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="197" t="s">
+      <c r="F22" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="197"/>
-      <c r="H22" s="198"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="191"/>
       <c r="I22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="198"/>
+      <c r="K22" s="191"/>
       <c r="L22" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="197" t="s">
+      <c r="M22" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="198"/>
+      <c r="N22" s="191"/>
     </row>
     <row r="23" spans="2:16" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="211"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="208"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="125" t="s">
         <v>51</v>
       </c>
@@ -10580,10 +13523,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="199">
+      <c r="B24" s="195">
         <v>1000</v>
       </c>
-      <c r="C24" s="201">
+      <c r="C24" s="206">
         <v>100</v>
       </c>
       <c r="D24" s="121">
@@ -10635,8 +13578,8 @@
       </c>
     </row>
     <row r="25" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="199"/>
-      <c r="C25" s="202"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="108">
         <v>5</v>
       </c>
@@ -10686,8 +13629,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="199"/>
-      <c r="C26" s="202"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="122">
         <v>10</v>
       </c>
@@ -10737,8 +13680,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="199"/>
-      <c r="C27" s="203"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="117">
         <v>20</v>
       </c>
@@ -10788,8 +13731,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="199"/>
-      <c r="C28" s="204">
+      <c r="B28" s="195"/>
+      <c r="C28" s="216">
         <v>1000</v>
       </c>
       <c r="D28" s="123">
@@ -10841,8 +13784,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="199"/>
-      <c r="C29" s="202"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="207"/>
       <c r="D29" s="108">
         <v>5</v>
       </c>
@@ -10892,8 +13835,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="199"/>
-      <c r="C30" s="202"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="207"/>
       <c r="D30" s="122">
         <v>10</v>
       </c>
@@ -10943,8 +13886,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="199"/>
-      <c r="C31" s="203"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="117">
         <v>20</v>
       </c>
@@ -10994,8 +13937,8 @@
       </c>
     </row>
     <row r="32" spans="2:16" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="199"/>
-      <c r="C32" s="202">
+      <c r="B32" s="195"/>
+      <c r="C32" s="207">
         <v>2000</v>
       </c>
       <c r="D32" s="122">
@@ -11047,8 +13990,8 @@
       </c>
     </row>
     <row r="33" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="199"/>
-      <c r="C33" s="202"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="207"/>
       <c r="D33" s="108">
         <v>5</v>
       </c>
@@ -11098,8 +14041,8 @@
       </c>
     </row>
     <row r="34" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="199"/>
-      <c r="C34" s="202"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="207"/>
       <c r="D34" s="122">
         <v>10</v>
       </c>
@@ -11149,8 +14092,8 @@
       </c>
     </row>
     <row r="35" spans="2:15" s="93" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="200"/>
-      <c r="C35" s="205"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="209"/>
       <c r="D35" s="111" t="s">
         <v>64</v>
       </c>
@@ -11200,58 +14143,43 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="193" t="s">
+      <c r="B36" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
       <c r="O36" s="175"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
       <c r="O37" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B20:N20"/>
     <mergeCell ref="B18:N18"/>
@@ -11268,6 +14196,21 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11275,26 +14218,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB2256-7B86-47AF-89EF-202D745657F5}">
-  <dimension ref="C1:R19"/>
+  <dimension ref="C1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="223" t="s">
-        <v>77</v>
-      </c>
+    <row r="1" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="223"/>
       <c r="D1" s="223"/>
       <c r="E1" s="223"/>
       <c r="F1" s="223"/>
@@ -11308,421 +14247,5052 @@
       <c r="N1" s="223"/>
       <c r="O1" s="223"/>
       <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-    </row>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2" s="224" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="222" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="221" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="224" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="232" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="225"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="225" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227">
         <v>1</v>
       </c>
-      <c r="G3" s="220">
+      <c r="F3" s="228">
         <v>2</v>
       </c>
-      <c r="H3" s="220">
+      <c r="G3" s="228">
         <v>3</v>
       </c>
-      <c r="I3" s="220">
+      <c r="H3" s="228">
         <v>4</v>
       </c>
-      <c r="J3" s="220">
+      <c r="I3" s="228">
         <v>5</v>
       </c>
-      <c r="K3" s="220">
+      <c r="J3" s="228">
         <v>6</v>
       </c>
-      <c r="L3" s="220">
+      <c r="K3" s="228">
         <v>7</v>
       </c>
-      <c r="M3" s="220">
+      <c r="L3" s="228">
         <v>8</v>
       </c>
-      <c r="N3" s="220">
+      <c r="M3" s="228">
         <v>9</v>
       </c>
-      <c r="O3" s="220">
+      <c r="N3" s="228">
         <v>10</v>
       </c>
-      <c r="P3" s="220">
+      <c r="O3" s="228">
         <v>11</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="P3" s="229">
         <v>12</v>
       </c>
-      <c r="R3" s="233"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="226" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="180">
-        <v>20</v>
-      </c>
-      <c r="E4" s="216" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="235"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="227"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="218" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="234"/>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="227"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="218" t="s">
+      <c r="Q3" s="230"/>
+    </row>
+    <row r="4" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="220" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="254">
+        <v>10.4</v>
+      </c>
+      <c r="F4" s="232">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G4" s="232">
+        <v>28.85</v>
+      </c>
+      <c r="H4" s="232">
+        <v>43.2</v>
+      </c>
+      <c r="I4" s="232">
+        <v>53.45</v>
+      </c>
+      <c r="J4" s="232">
+        <v>62.75</v>
+      </c>
+      <c r="K4" s="254">
+        <v>69.75</v>
+      </c>
+      <c r="L4" s="232">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="M4" s="232">
+        <v>57.65</v>
+      </c>
+      <c r="N4" s="232">
+        <v>43.25</v>
+      </c>
+      <c r="O4" s="232">
+        <v>27.9</v>
+      </c>
+      <c r="P4" s="233">
+        <v>15.5</v>
+      </c>
+      <c r="Q4" s="250"/>
+    </row>
+    <row r="5" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="221"/>
+      <c r="D5" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="255">
+        <v>44.308046848546098</v>
+      </c>
+      <c r="F5" s="235">
+        <v>46.735195757444878</v>
+      </c>
+      <c r="G5" s="235">
+        <v>51.802429718197999</v>
+      </c>
+      <c r="H5" s="235">
+        <v>59.486931036258511</v>
+      </c>
+      <c r="I5" s="235">
+        <v>64.127914054938785</v>
+      </c>
+      <c r="J5" s="235">
+        <v>67.94122850822356</v>
+      </c>
+      <c r="K5" s="255">
+        <v>71.548250808112329</v>
+      </c>
+      <c r="L5" s="235">
+        <v>70.982305554077087</v>
+      </c>
+      <c r="M5" s="235">
+        <v>65.541174734424104</v>
+      </c>
+      <c r="N5" s="235">
+        <v>58.056252438621343</v>
+      </c>
+      <c r="O5" s="235">
+        <v>50.229975494059552</v>
+      </c>
+      <c r="P5" s="236">
+        <v>45.669947333793928</v>
+      </c>
+      <c r="Q5" s="249">
+        <f t="shared" ref="Q5" si="0">K5/E5 - 1</f>
+        <v>0.61479135048942202</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="221"/>
+      <c r="D6" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="255">
+        <v>74.503665102477996</v>
+      </c>
+      <c r="F6" s="235">
+        <v>78.008957547116538</v>
+      </c>
+      <c r="G6" s="235">
+        <v>84.483996752521676</v>
+      </c>
+      <c r="H6" s="235">
+        <v>92.79377266180343</v>
+      </c>
+      <c r="I6" s="235">
+        <v>98.151134087560223</v>
+      </c>
+      <c r="J6" s="235">
+        <v>102.5617843167085</v>
+      </c>
+      <c r="K6" s="255">
+        <v>106.5083099677524</v>
+      </c>
+      <c r="L6" s="235">
+        <v>105.88726330220091</v>
+      </c>
+      <c r="M6" s="235">
+        <v>99.798385115304185</v>
+      </c>
+      <c r="N6" s="235">
+        <v>91.406473641578756</v>
+      </c>
+      <c r="O6" s="235">
+        <v>82.682929176742803</v>
+      </c>
+      <c r="P6" s="236">
+        <v>76.579079114970895</v>
+      </c>
+      <c r="Q6" s="251"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="221"/>
+      <c r="D7" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="218"/>
-      <c r="L6" s="218"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="218"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="234"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="227"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="218" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="219"/>
-      <c r="R7" s="234"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="227"/>
-      <c r="D8" s="230">
-        <v>50</v>
-      </c>
-      <c r="E8" s="218" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="234"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="227"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="218" t="s">
+      <c r="E7" s="275">
+        <v>7.141967171553822</v>
+      </c>
+      <c r="F7" s="276">
+        <v>7.0227600303122228</v>
+      </c>
+      <c r="G7" s="276">
+        <v>6.7844148013312786</v>
+      </c>
+      <c r="H7" s="276">
+        <v>6.4513217949282957</v>
+      </c>
+      <c r="I7" s="276">
+        <v>6.2563526010643837</v>
+      </c>
+      <c r="J7" s="276">
+        <v>6.0953299067437454</v>
+      </c>
+      <c r="K7" s="275">
+        <v>5.9457989161424072</v>
+      </c>
+      <c r="L7" s="276">
+        <v>5.9685609576692</v>
+      </c>
+      <c r="M7" s="276">
+        <v>6.1960469703228158</v>
+      </c>
+      <c r="N7" s="276">
+        <v>6.5128309448371677</v>
+      </c>
+      <c r="O7" s="276">
+        <v>6.8594106060797726</v>
+      </c>
+      <c r="P7" s="277">
+        <v>7.076049349522731</v>
+      </c>
+      <c r="Q7" s="251"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="221"/>
+      <c r="D8" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="278">
+        <v>1.160611854479356</v>
+      </c>
+      <c r="F8" s="279">
+        <v>1.180075227218911</v>
+      </c>
+      <c r="G8" s="279">
+        <v>1.215867472726498</v>
+      </c>
+      <c r="H8" s="279">
+        <v>1.260495831307485</v>
+      </c>
+      <c r="I8" s="279">
+        <v>1.289363994262303</v>
+      </c>
+      <c r="J8" s="279">
+        <v>1.3144564041403271</v>
+      </c>
+      <c r="K8" s="278">
+        <v>1.336953933152943</v>
+      </c>
+      <c r="L8" s="279">
+        <v>1.3334020727411999</v>
+      </c>
+      <c r="M8" s="279">
+        <v>1.298641913433725</v>
+      </c>
+      <c r="N8" s="279">
+        <v>1.253085641351358</v>
+      </c>
+      <c r="O8" s="279">
+        <v>1.205668137316231</v>
+      </c>
+      <c r="P8" s="280">
+        <v>1.171921070108094</v>
+      </c>
+      <c r="Q8" s="253"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="221"/>
+      <c r="D9" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="261">
+        <v>145.70014076167641</v>
+      </c>
+      <c r="F9" s="262">
+        <v>188.33300987006751</v>
+      </c>
+      <c r="G9" s="262">
+        <v>198.2742483126415</v>
+      </c>
+      <c r="H9" s="262">
+        <v>211.1285158249581</v>
+      </c>
+      <c r="I9" s="262">
+        <v>214.03504184377971</v>
+      </c>
+      <c r="J9" s="262">
+        <v>214.07242961917839</v>
+      </c>
+      <c r="K9" s="261">
+        <v>213.89342223338801</v>
+      </c>
+      <c r="L9" s="262">
+        <v>213.9316175339855</v>
+      </c>
+      <c r="M9" s="262">
+        <v>214.14407657705891</v>
+      </c>
+      <c r="N9" s="262">
+        <v>209.05888564159869</v>
+      </c>
+      <c r="O9" s="262">
+        <v>195.6037582046165</v>
+      </c>
+      <c r="P9" s="263">
+        <v>186.1928012029376</v>
+      </c>
+      <c r="Q9" s="253"/>
+    </row>
+    <row r="10" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="222"/>
+      <c r="D10" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="234"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="227"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="256">
+        <v>1916.8598093155331</v>
+      </c>
+      <c r="F10" s="244">
+        <v>1943.146781210882</v>
+      </c>
+      <c r="G10" s="244">
+        <v>1990.35206723747</v>
+      </c>
+      <c r="H10" s="244">
+        <v>2046.4170151303199</v>
+      </c>
+      <c r="I10" s="244">
+        <v>2087.9710920069419</v>
+      </c>
+      <c r="J10" s="244">
+        <v>2127.069357177967</v>
+      </c>
+      <c r="K10" s="256">
+        <v>2162.37893981858</v>
+      </c>
+      <c r="L10" s="244">
+        <v>2156.7927922708609</v>
+      </c>
+      <c r="M10" s="244">
+        <v>2102.3116434855319</v>
+      </c>
+      <c r="N10" s="244">
+        <v>2037.239137040463</v>
+      </c>
+      <c r="O10" s="244">
+        <v>1976.908371400084</v>
+      </c>
+      <c r="P10" s="245">
+        <v>1932.0967690592699</v>
+      </c>
+      <c r="Q10" s="252"/>
+    </row>
+    <row r="11" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="220" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="254">
+        <v>25.65</v>
+      </c>
+      <c r="F11" s="232">
+        <v>28.3</v>
+      </c>
+      <c r="G11" s="232">
+        <v>35.75</v>
+      </c>
+      <c r="H11" s="232">
+        <v>42.8</v>
+      </c>
+      <c r="I11" s="232">
+        <v>52.6</v>
+      </c>
+      <c r="J11" s="232">
+        <v>62.2</v>
+      </c>
+      <c r="K11" s="254">
+        <v>71</v>
+      </c>
+      <c r="L11" s="232">
+        <v>69.449999999999989</v>
+      </c>
+      <c r="M11" s="232">
+        <v>58.8</v>
+      </c>
+      <c r="N11" s="232">
+        <v>45.85</v>
+      </c>
+      <c r="O11" s="232">
+        <v>34.25</v>
+      </c>
+      <c r="P11" s="233">
+        <v>25.75</v>
+      </c>
+      <c r="Q11" s="250"/>
+    </row>
+    <row r="12" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="221"/>
+      <c r="D12" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="255">
+        <v>55.906973360789763</v>
+      </c>
+      <c r="F12" s="235">
+        <v>57.909669785439263</v>
+      </c>
+      <c r="G12" s="235">
+        <v>63.080223914740692</v>
+      </c>
+      <c r="H12" s="235">
+        <v>67.145860231523287</v>
+      </c>
+      <c r="I12" s="235">
+        <v>72.364582537101867</v>
+      </c>
+      <c r="J12" s="235">
+        <v>77.869590129863226</v>
+      </c>
+      <c r="K12" s="255">
+        <v>82.626867374159275</v>
+      </c>
+      <c r="L12" s="235">
+        <v>81.124738202215596</v>
+      </c>
+      <c r="M12" s="235">
+        <v>75.093075506893868</v>
+      </c>
+      <c r="N12" s="235">
+        <v>67.633801854114566</v>
+      </c>
+      <c r="O12" s="235">
+        <v>60.359400615632119</v>
+      </c>
+      <c r="P12" s="236">
+        <v>55.737338323703533</v>
+      </c>
+      <c r="Q12" s="249">
+        <f t="shared" ref="Q12" si="1">K12/E12 - 1</f>
+        <v>0.47793490520288917</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="221"/>
+      <c r="D13" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="255">
+        <v>81.745562920657207</v>
+      </c>
+      <c r="F13" s="235">
+        <v>83.789250171657343</v>
+      </c>
+      <c r="G13" s="235">
+        <v>88.743250933773155</v>
+      </c>
+      <c r="H13" s="235">
+        <v>92.986284344893448</v>
+      </c>
+      <c r="I13" s="235">
+        <v>98.624154446049005</v>
+      </c>
+      <c r="J13" s="235">
+        <v>104.2540813629425</v>
+      </c>
+      <c r="K13" s="255">
+        <v>108.9175834676</v>
+      </c>
+      <c r="L13" s="235">
+        <v>107.4738376493581</v>
+      </c>
+      <c r="M13" s="235">
+        <v>101.45632673257769</v>
+      </c>
+      <c r="N13" s="235">
+        <v>93.561420578126473</v>
+      </c>
+      <c r="O13" s="235">
+        <v>86.270372098147334</v>
+      </c>
+      <c r="P13" s="236">
+        <v>81.581823727927642</v>
+      </c>
+      <c r="Q13" s="251"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="221"/>
+      <c r="D14" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="219"/>
-      <c r="R10" s="234"/>
-    </row>
-    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="228"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="220" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="226" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="180">
-        <v>20</v>
-      </c>
-      <c r="E12" s="216" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="216"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="216"/>
-      <c r="P12" s="216"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="234"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="227"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="218" t="s">
+      <c r="E14" s="275">
+        <v>6.5701724156555574</v>
+      </c>
+      <c r="F14" s="276">
+        <v>6.4820708797278161</v>
+      </c>
+      <c r="G14" s="276">
+        <v>6.2665185329119399</v>
+      </c>
+      <c r="H14" s="276">
+        <v>6.0996156614657693</v>
+      </c>
+      <c r="I14" s="276">
+        <v>5.8844155074358007</v>
+      </c>
+      <c r="J14" s="276">
+        <v>5.6654393776407366</v>
+      </c>
+      <c r="K14" s="275">
+        <v>5.4847600996751664</v>
+      </c>
+      <c r="L14" s="276">
+        <v>5.5415319784261401</v>
+      </c>
+      <c r="M14" s="276">
+        <v>5.7748647336806682</v>
+      </c>
+      <c r="N14" s="276">
+        <v>6.0807872057568142</v>
+      </c>
+      <c r="O14" s="276">
+        <v>6.3807245147087199</v>
+      </c>
+      <c r="P14" s="277">
+        <v>6.5781166276938317</v>
+      </c>
+      <c r="Q14" s="251"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="221"/>
+      <c r="D15" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="278">
+        <v>1.2423118187613551</v>
+      </c>
+      <c r="F15" s="279">
+        <v>1.2536998591119359</v>
+      </c>
+      <c r="G15" s="279">
+        <v>1.280497797032272</v>
+      </c>
+      <c r="H15" s="279">
+        <v>1.303731998655836</v>
+      </c>
+      <c r="I15" s="279">
+        <v>1.3359847517277199</v>
+      </c>
+      <c r="J15" s="279">
+        <v>1.3684455437911429</v>
+      </c>
+      <c r="K15" s="278">
+        <v>1.395190353753303</v>
+      </c>
+      <c r="L15" s="279">
+        <v>1.3869701853358309</v>
+      </c>
+      <c r="M15" s="279">
+        <v>1.3523572722578849</v>
+      </c>
+      <c r="N15" s="279">
+        <v>1.306888866728843</v>
+      </c>
+      <c r="O15" s="279">
+        <v>1.267073509123827</v>
+      </c>
+      <c r="P15" s="280">
+        <v>1.2413543912884371</v>
+      </c>
+      <c r="Q15" s="253"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="221"/>
+      <c r="D16" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="261">
+        <v>200.12690347301461</v>
+      </c>
+      <c r="F16" s="262">
+        <v>203.30574808669871</v>
+      </c>
+      <c r="G16" s="262">
+        <v>211.08790368918</v>
+      </c>
+      <c r="H16" s="262">
+        <v>213.82929645980931</v>
+      </c>
+      <c r="I16" s="262">
+        <v>213.92924241838159</v>
+      </c>
+      <c r="J16" s="262">
+        <v>213.4334875655064</v>
+      </c>
+      <c r="K16" s="261">
+        <v>212.87726870328771</v>
+      </c>
+      <c r="L16" s="262">
+        <v>213.05903272676261</v>
+      </c>
+      <c r="M16" s="262">
+        <v>213.7033478237108</v>
+      </c>
+      <c r="N16" s="262">
+        <v>213.98383853373721</v>
+      </c>
+      <c r="O16" s="262">
+        <v>207.2809671099559</v>
+      </c>
+      <c r="P16" s="263">
+        <v>199.88322199024941</v>
+      </c>
+      <c r="Q16" s="253"/>
+    </row>
+    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="222"/>
+      <c r="D17" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="218"/>
-      <c r="Q13" s="219"/>
-      <c r="R13" s="234"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="227"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="218" t="s">
+      <c r="E17" s="256">
+        <v>2029.918968712419</v>
+      </c>
+      <c r="F17" s="244">
+        <v>2044.5007772417989</v>
+      </c>
+      <c r="G17" s="244">
+        <v>2077.7629871709892</v>
+      </c>
+      <c r="H17" s="244">
+        <v>2110.7292714760601</v>
+      </c>
+      <c r="I17" s="244">
+        <v>2160.9125990265829</v>
+      </c>
+      <c r="J17" s="244">
+        <v>2212.133469272354</v>
+      </c>
+      <c r="K17" s="256">
+        <v>2254.4975999159328</v>
+      </c>
+      <c r="L17" s="244">
+        <v>2241.46531678153</v>
+      </c>
+      <c r="M17" s="244">
+        <v>2186.7201946003779</v>
+      </c>
+      <c r="N17" s="244">
+        <v>2115.4641906197921</v>
+      </c>
+      <c r="O17" s="244">
+        <v>2061.136946290841</v>
+      </c>
+      <c r="P17" s="245">
+        <v>2028.66251697284</v>
+      </c>
+      <c r="Q17" s="253"/>
+    </row>
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="217" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="254">
+        <v>47.7</v>
+      </c>
+      <c r="F18" s="232">
+        <v>51.349999999999987</v>
+      </c>
+      <c r="G18" s="232">
+        <v>58.15</v>
+      </c>
+      <c r="H18" s="232">
+        <v>65.5</v>
+      </c>
+      <c r="I18" s="232">
+        <v>73.8</v>
+      </c>
+      <c r="J18" s="232">
+        <v>80.25</v>
+      </c>
+      <c r="K18" s="254">
+        <v>83.45</v>
+      </c>
+      <c r="L18" s="232">
+        <v>83.35</v>
+      </c>
+      <c r="M18" s="232">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="N18" s="232">
+        <v>66.95</v>
+      </c>
+      <c r="O18" s="232">
+        <v>56.25</v>
+      </c>
+      <c r="P18" s="233">
+        <v>48.8</v>
+      </c>
+      <c r="Q18" s="250"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="218"/>
+      <c r="D19" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="255">
+        <v>56.486424983273693</v>
+      </c>
+      <c r="F19" s="235">
+        <v>58.760696026839533</v>
+      </c>
+      <c r="G19" s="235">
+        <v>61.582942533404008</v>
+      </c>
+      <c r="H19" s="235">
+        <v>64.775371248012476</v>
+      </c>
+      <c r="I19" s="235">
+        <v>67.817118264554111</v>
+      </c>
+      <c r="J19" s="235">
+        <v>70.239640373819583</v>
+      </c>
+      <c r="K19" s="255">
+        <v>71.664075744438605</v>
+      </c>
+      <c r="L19" s="235">
+        <v>71.695389691119942</v>
+      </c>
+      <c r="M19" s="235">
+        <v>68.947203727675387</v>
+      </c>
+      <c r="N19" s="235">
+        <v>64.953284534490265</v>
+      </c>
+      <c r="O19" s="235">
+        <v>60.335146679081099</v>
+      </c>
+      <c r="P19" s="236">
+        <v>56.978324422166537</v>
+      </c>
+      <c r="Q19" s="249">
+        <f t="shared" ref="Q19" si="2">K19/E19 - 1</f>
+        <v>0.2686955452687827</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="218"/>
+      <c r="D20" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="255">
+        <v>93.505907797453773</v>
+      </c>
+      <c r="F20" s="235">
+        <v>95.842900916747951</v>
+      </c>
+      <c r="G20" s="235">
+        <v>99.3872646570548</v>
+      </c>
+      <c r="H20" s="235">
+        <v>103.2122824958678</v>
+      </c>
+      <c r="I20" s="235">
+        <v>106.78677173346109</v>
+      </c>
+      <c r="J20" s="235">
+        <v>109.51000507492979</v>
+      </c>
+      <c r="K20" s="255">
+        <v>111.0379033625684</v>
+      </c>
+      <c r="L20" s="235">
+        <v>111.0508943538146</v>
+      </c>
+      <c r="M20" s="235">
+        <v>108.0447456214951</v>
+      </c>
+      <c r="N20" s="235">
+        <v>103.436508977548</v>
+      </c>
+      <c r="O20" s="235">
+        <v>97.869082911515989</v>
+      </c>
+      <c r="P20" s="236">
+        <v>94.023737677970132</v>
+      </c>
+      <c r="Q20" s="251"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="218"/>
+      <c r="D21" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="219"/>
-      <c r="R14" s="234"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="227"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="218" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="219"/>
-      <c r="R15" s="234"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="227"/>
-      <c r="D16" s="230">
-        <v>50</v>
-      </c>
-      <c r="E16" s="218" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="219"/>
-      <c r="R16" s="234"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="227"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="218" t="s">
+      <c r="E21" s="275">
+        <v>6.6008961612751378</v>
+      </c>
+      <c r="F21" s="276">
+        <v>6.504702795297356</v>
+      </c>
+      <c r="G21" s="276">
+        <v>6.3828316192048593</v>
+      </c>
+      <c r="H21" s="276">
+        <v>6.2441426688053969</v>
+      </c>
+      <c r="I21" s="276">
+        <v>6.1169141949632104</v>
+      </c>
+      <c r="J21" s="276">
+        <v>6.0172128052430054</v>
+      </c>
+      <c r="K21" s="275">
+        <v>5.9585595555541007</v>
+      </c>
+      <c r="L21" s="276">
+        <v>5.9567554508684299</v>
+      </c>
+      <c r="M21" s="276">
+        <v>6.06962700424452</v>
+      </c>
+      <c r="N21" s="276">
+        <v>6.2368613055682367</v>
+      </c>
+      <c r="O21" s="276">
+        <v>6.437152171974577</v>
+      </c>
+      <c r="P21" s="277">
+        <v>6.5802491390031568</v>
+      </c>
+      <c r="Q21" s="251"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="218"/>
+      <c r="D22" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="278">
+        <v>1.244008196063721</v>
+      </c>
+      <c r="F22" s="279">
+        <v>1.2563517449527819</v>
+      </c>
+      <c r="G22" s="279">
+        <v>1.275394511863748</v>
+      </c>
+      <c r="H22" s="279">
+        <v>1.296997401561125</v>
+      </c>
+      <c r="I22" s="279">
+        <v>1.317252193737749</v>
+      </c>
+      <c r="J22" s="279">
+        <v>1.3326884656323961</v>
+      </c>
+      <c r="K22" s="278">
+        <v>1.341354259402556</v>
+      </c>
+      <c r="L22" s="279">
+        <v>1.3414332088440319</v>
+      </c>
+      <c r="M22" s="279">
+        <v>1.3243958931817961</v>
+      </c>
+      <c r="N22" s="279">
+        <v>1.29826131805831</v>
+      </c>
+      <c r="O22" s="279">
+        <v>1.267173037391486</v>
+      </c>
+      <c r="P22" s="280">
+        <v>1.2467270724234221</v>
+      </c>
+      <c r="Q22" s="253"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="218"/>
+      <c r="D23" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="261">
+        <v>209.49596681802751</v>
+      </c>
+      <c r="F23" s="262">
+        <v>212.88502694736661</v>
+      </c>
+      <c r="G23" s="262">
+        <v>213.9656333674931</v>
+      </c>
+      <c r="H23" s="262">
+        <v>214.0911635869237</v>
+      </c>
+      <c r="I23" s="262">
+        <v>214.01123954661159</v>
+      </c>
+      <c r="J23" s="262">
+        <v>213.89870095057981</v>
+      </c>
+      <c r="K23" s="261">
+        <v>213.8226881549937</v>
+      </c>
+      <c r="L23" s="262">
+        <v>213.82640017706561</v>
+      </c>
+      <c r="M23" s="262">
+        <v>213.97002651529431</v>
+      </c>
+      <c r="N23" s="262">
+        <v>214.08629702558139</v>
+      </c>
+      <c r="O23" s="262">
+        <v>213.5480987397375</v>
+      </c>
+      <c r="P23" s="263">
+        <v>210.30006791735971</v>
+      </c>
+      <c r="Q23" s="253"/>
+    </row>
+    <row r="24" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="219"/>
+      <c r="D24" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="219"/>
-      <c r="R17" s="234"/>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="227"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="218" t="s">
+      <c r="E24" s="256">
+        <v>2022.5319244441721</v>
+      </c>
+      <c r="F24" s="244">
+        <v>2037.815165681196</v>
+      </c>
+      <c r="G24" s="244">
+        <v>2066.2138634911998</v>
+      </c>
+      <c r="H24" s="244">
+        <v>2099.7647027061239</v>
+      </c>
+      <c r="I24" s="244">
+        <v>2131.4592531833532</v>
+      </c>
+      <c r="J24" s="244">
+        <v>2155.6737306999389</v>
+      </c>
+      <c r="K24" s="256">
+        <v>2169.2821146338438</v>
+      </c>
+      <c r="L24" s="244">
+        <v>2169.400901269069</v>
+      </c>
+      <c r="M24" s="244">
+        <v>2142.652649449999</v>
+      </c>
+      <c r="N24" s="244">
+        <v>2101.742410638507</v>
+      </c>
+      <c r="O24" s="244">
+        <v>2053.8962559878992</v>
+      </c>
+      <c r="P24" s="245">
+        <v>2025.8504596629921</v>
+      </c>
+      <c r="Q24" s="253"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="220" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="254">
+        <v>46.400000000000013</v>
+      </c>
+      <c r="F25" s="232">
+        <v>51</v>
+      </c>
+      <c r="G25" s="232">
+        <v>57.3</v>
+      </c>
+      <c r="H25" s="232">
+        <v>65.45</v>
+      </c>
+      <c r="I25" s="232">
+        <v>75.25</v>
+      </c>
+      <c r="J25" s="232">
+        <v>82.6</v>
+      </c>
+      <c r="K25" s="254">
+        <v>83.300000000000011</v>
+      </c>
+      <c r="L25" s="232">
+        <v>81.5</v>
+      </c>
+      <c r="M25" s="232">
+        <v>75.95</v>
+      </c>
+      <c r="N25" s="232">
+        <v>65.8</v>
+      </c>
+      <c r="O25" s="232">
+        <v>53.45</v>
+      </c>
+      <c r="P25" s="233">
+        <v>45.599999999999987</v>
+      </c>
+      <c r="Q25" s="250"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="221"/>
+      <c r="D26" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="255">
+        <v>64.299662056157814</v>
+      </c>
+      <c r="F26" s="235">
+        <v>66.751656515590881</v>
+      </c>
+      <c r="G26" s="235">
+        <v>70.457804470288437</v>
+      </c>
+      <c r="H26" s="235">
+        <v>74.788893082661346</v>
+      </c>
+      <c r="I26" s="235">
+        <v>79.507023784784266</v>
+      </c>
+      <c r="J26" s="235">
+        <v>82.973349876052737</v>
+      </c>
+      <c r="K26" s="255">
+        <v>81.968132554857505</v>
+      </c>
+      <c r="L26" s="235">
+        <v>80.706426682991349</v>
+      </c>
+      <c r="M26" s="235">
+        <v>78.031092202830337</v>
+      </c>
+      <c r="N26" s="235">
+        <v>73.431583388348713</v>
+      </c>
+      <c r="O26" s="235">
+        <v>67.701629863231531</v>
+      </c>
+      <c r="P26" s="236">
+        <v>63.824384145838287</v>
+      </c>
+      <c r="Q26" s="249">
+        <f t="shared" ref="Q26" si="3">K26/E26 - 1</f>
+        <v>0.27478325598769815</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="221"/>
+      <c r="D27" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="255">
+        <v>93.326217181978691</v>
+      </c>
+      <c r="F27" s="235">
+        <v>96.118650986320645</v>
+      </c>
+      <c r="G27" s="235">
+        <v>100.17077668890209</v>
+      </c>
+      <c r="H27" s="235">
+        <v>104.74413133768159</v>
+      </c>
+      <c r="I27" s="235">
+        <v>109.53980756672129</v>
+      </c>
+      <c r="J27" s="235">
+        <v>112.94398032427461</v>
+      </c>
+      <c r="K27" s="255">
+        <v>112.0361962865225</v>
+      </c>
+      <c r="L27" s="235">
+        <v>110.821011424947</v>
+      </c>
+      <c r="M27" s="235">
+        <v>108.1480488265407</v>
+      </c>
+      <c r="N27" s="235">
+        <v>103.39073486952771</v>
+      </c>
+      <c r="O27" s="235">
+        <v>97.183937260536752</v>
+      </c>
+      <c r="P27" s="236">
+        <v>92.778513067684287</v>
+      </c>
+      <c r="Q27" s="251"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="221"/>
+      <c r="D28" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="234"/>
-    </row>
-    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="228"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="220" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="20"/>
+      <c r="E28" s="275">
+        <v>6.2333597593769561</v>
+      </c>
+      <c r="F28" s="276">
+        <v>6.1305075511390106</v>
+      </c>
+      <c r="G28" s="276">
+        <v>5.974494524878275</v>
+      </c>
+      <c r="H28" s="276">
+        <v>5.7993542665915658</v>
+      </c>
+      <c r="I28" s="276">
+        <v>5.6166406293386428</v>
+      </c>
+      <c r="J28" s="276">
+        <v>5.4870679419134234</v>
+      </c>
+      <c r="K28" s="275">
+        <v>5.5267325852515006</v>
+      </c>
+      <c r="L28" s="276">
+        <v>5.5745444383609746</v>
+      </c>
+      <c r="M28" s="276">
+        <v>5.6759274684993617</v>
+      </c>
+      <c r="N28" s="276">
+        <v>5.8554309169996266</v>
+      </c>
+      <c r="O28" s="276">
+        <v>6.0903457087023334</v>
+      </c>
+      <c r="P28" s="277">
+        <v>6.2536361985560314</v>
+      </c>
+      <c r="Q28" s="251"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="221"/>
+      <c r="D29" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="278">
+        <v>1.2879845560994949</v>
+      </c>
+      <c r="F29" s="279">
+        <v>1.303464761576677</v>
+      </c>
+      <c r="G29" s="279">
+        <v>1.32681573476142</v>
+      </c>
+      <c r="H29" s="279">
+        <v>1.3531107983753341</v>
+      </c>
+      <c r="I29" s="279">
+        <v>1.3805948949964559</v>
+      </c>
+      <c r="J29" s="279">
+        <v>1.400001783892113</v>
+      </c>
+      <c r="K29" s="278">
+        <v>1.3949046523544031</v>
+      </c>
+      <c r="L29" s="279">
+        <v>1.387984642730316</v>
+      </c>
+      <c r="M29" s="279">
+        <v>1.3727054652177799</v>
+      </c>
+      <c r="N29" s="279">
+        <v>1.345386362071362</v>
+      </c>
+      <c r="O29" s="279">
+        <v>1.3096123432746909</v>
+      </c>
+      <c r="P29" s="280">
+        <v>1.2849485354082539</v>
+      </c>
+      <c r="Q29" s="253"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="221"/>
+      <c r="D30" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="261">
+        <v>213.6165088323998</v>
+      </c>
+      <c r="F30" s="262">
+        <v>214.16055218940869</v>
+      </c>
+      <c r="G30" s="262">
+        <v>214.00573011300631</v>
+      </c>
+      <c r="H30" s="262">
+        <v>213.6856569998516</v>
+      </c>
+      <c r="I30" s="262">
+        <v>213.2045558122081</v>
+      </c>
+      <c r="J30" s="262">
+        <v>212.78593208384069</v>
+      </c>
+      <c r="K30" s="261">
+        <v>212.88759033256491</v>
+      </c>
+      <c r="L30" s="262">
+        <v>213.03342075538501</v>
+      </c>
+      <c r="M30" s="262">
+        <v>213.33805176063041</v>
+      </c>
+      <c r="N30" s="262">
+        <v>213.7807867288557</v>
+      </c>
+      <c r="O30" s="262">
+        <v>214.12901689700291</v>
+      </c>
+      <c r="P30" s="263">
+        <v>213.49785587121161</v>
+      </c>
+      <c r="Q30" s="253"/>
+    </row>
+    <row r="31" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="222"/>
+      <c r="D31" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="256">
+        <v>2086.385710785753</v>
+      </c>
+      <c r="F31" s="244">
+        <v>2109.8690818077098</v>
+      </c>
+      <c r="G31" s="244">
+        <v>2146.4826538137431</v>
+      </c>
+      <c r="H31" s="244">
+        <v>2187.881141979225</v>
+      </c>
+      <c r="I31" s="244">
+        <v>2231.3162609182018</v>
+      </c>
+      <c r="J31" s="244">
+        <v>2262.0716242635058</v>
+      </c>
+      <c r="K31" s="256">
+        <v>2254.00372013878</v>
+      </c>
+      <c r="L31" s="244">
+        <v>2243.0412254651469</v>
+      </c>
+      <c r="M31" s="244">
+        <v>2218.8540597895972</v>
+      </c>
+      <c r="N31" s="244">
+        <v>2175.7190750774298</v>
+      </c>
+      <c r="O31" s="244">
+        <v>2119.4975527683182</v>
+      </c>
+      <c r="P31" s="245">
+        <v>2081.7937648435882</v>
+      </c>
+      <c r="Q31" s="253"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="220" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="254">
+        <v>44.6</v>
+      </c>
+      <c r="F32" s="232">
+        <v>49.05</v>
+      </c>
+      <c r="G32" s="232">
+        <v>55.75</v>
+      </c>
+      <c r="H32" s="232">
+        <v>64.25</v>
+      </c>
+      <c r="I32" s="232">
+        <v>74</v>
+      </c>
+      <c r="J32" s="232">
+        <v>80.75</v>
+      </c>
+      <c r="K32" s="254">
+        <v>82.4</v>
+      </c>
+      <c r="L32" s="232">
+        <v>81.050000000000011</v>
+      </c>
+      <c r="M32" s="232">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="N32" s="232">
+        <v>64.95</v>
+      </c>
+      <c r="O32" s="232">
+        <v>52.7</v>
+      </c>
+      <c r="P32" s="233">
+        <v>45.1</v>
+      </c>
+      <c r="Q32" s="250"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="221"/>
+      <c r="D33" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="255">
+        <v>61.598829169916527</v>
+      </c>
+      <c r="F33" s="235">
+        <v>63.887638117322432</v>
+      </c>
+      <c r="G33" s="235">
+        <v>67.391047390751524</v>
+      </c>
+      <c r="H33" s="235">
+        <v>71.806267405662084</v>
+      </c>
+      <c r="I33" s="235">
+        <v>75.821880218673968</v>
+      </c>
+      <c r="J33" s="235">
+        <v>78.711136741070419</v>
+      </c>
+      <c r="K33" s="255">
+        <v>78.887276184089075</v>
+      </c>
+      <c r="L33" s="235">
+        <v>77.892658685118107</v>
+      </c>
+      <c r="M33" s="235">
+        <v>74.516864737068488</v>
+      </c>
+      <c r="N33" s="235">
+        <v>70.346246485298821</v>
+      </c>
+      <c r="O33" s="235">
+        <v>64.979684204946764</v>
+      </c>
+      <c r="P33" s="236">
+        <v>61.83217950092601</v>
+      </c>
+      <c r="Q33" s="249">
+        <f t="shared" ref="Q33" si="4">K33/E33 - 1</f>
+        <v>0.28066194190937366</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="221"/>
+      <c r="D34" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="255">
+        <v>92.768617147035243</v>
+      </c>
+      <c r="F34" s="235">
+        <v>95.465128286700761</v>
+      </c>
+      <c r="G34" s="235">
+        <v>99.479976012831486</v>
+      </c>
+      <c r="H34" s="235">
+        <v>104.31553773621179</v>
+      </c>
+      <c r="I34" s="235">
+        <v>108.57395492294469</v>
+      </c>
+      <c r="J34" s="235">
+        <v>111.5404558232912</v>
+      </c>
+      <c r="K34" s="255">
+        <v>111.75192305379259</v>
+      </c>
+      <c r="L34" s="235">
+        <v>110.76484828609</v>
+      </c>
+      <c r="M34" s="235">
+        <v>107.2975505678688</v>
+      </c>
+      <c r="N34" s="235">
+        <v>102.8229362596034</v>
+      </c>
+      <c r="O34" s="235">
+        <v>96.775399809670773</v>
+      </c>
+      <c r="P34" s="236">
+        <v>93.020820507334548</v>
+      </c>
+      <c r="Q34" s="251"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="221"/>
+      <c r="D35" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="275">
+        <v>6.3555235747780952</v>
+      </c>
+      <c r="F35" s="276">
+        <v>6.2579529650559911</v>
+      </c>
+      <c r="G35" s="276">
+        <v>6.1098528490068631</v>
+      </c>
+      <c r="H35" s="276">
+        <v>5.9267443339108192</v>
+      </c>
+      <c r="I35" s="276">
+        <v>5.7679538498578289</v>
+      </c>
+      <c r="J35" s="276">
+        <v>5.6570608573379682</v>
+      </c>
+      <c r="K35" s="275">
+        <v>5.6515139170991748</v>
+      </c>
+      <c r="L35" s="276">
+        <v>5.6900780579141124</v>
+      </c>
+      <c r="M35" s="276">
+        <v>5.8218389916262403</v>
+      </c>
+      <c r="N35" s="276">
+        <v>5.98908298320569</v>
+      </c>
+      <c r="O35" s="276">
+        <v>6.2134265919779716</v>
+      </c>
+      <c r="P35" s="277">
+        <v>6.345705223536557</v>
+      </c>
+      <c r="Q35" s="251"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="221"/>
+      <c r="D36" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="278">
+        <v>1.271792638435894</v>
+      </c>
+      <c r="F36" s="279">
+        <v>1.2865485222656139</v>
+      </c>
+      <c r="G36" s="279">
+        <v>1.3090290732599781</v>
+      </c>
+      <c r="H36" s="279">
+        <v>1.336726031364933</v>
+      </c>
+      <c r="I36" s="279">
+        <v>1.3611300332103391</v>
+      </c>
+      <c r="J36" s="279">
+        <v>1.378064114167378</v>
+      </c>
+      <c r="K36" s="278">
+        <v>1.379298381765204</v>
+      </c>
+      <c r="L36" s="279">
+        <v>1.3736853134819369</v>
+      </c>
+      <c r="M36" s="279">
+        <v>1.353896604921655</v>
+      </c>
+      <c r="N36" s="279">
+        <v>1.3282597916592851</v>
+      </c>
+      <c r="O36" s="279">
+        <v>1.29367272538693</v>
+      </c>
+      <c r="P36" s="280">
+        <v>1.273150739603583</v>
+      </c>
+      <c r="Q36" s="253"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="221"/>
+      <c r="D37" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="261">
+        <v>212.88674392031609</v>
+      </c>
+      <c r="F37" s="262">
+        <v>213.68540752724351</v>
+      </c>
+      <c r="G37" s="262">
+        <v>214.1262848573605</v>
+      </c>
+      <c r="H37" s="262">
+        <v>213.90351946288109</v>
+      </c>
+      <c r="I37" s="262">
+        <v>213.5662060724668</v>
+      </c>
+      <c r="J37" s="262">
+        <v>213.26730146623561</v>
+      </c>
+      <c r="K37" s="261">
+        <v>213.23661537258161</v>
+      </c>
+      <c r="L37" s="262">
+        <v>213.33738882660089</v>
+      </c>
+      <c r="M37" s="262">
+        <v>213.65833876340079</v>
+      </c>
+      <c r="N37" s="262">
+        <v>213.96969825634969</v>
+      </c>
+      <c r="O37" s="262">
+        <v>214.04543024454051</v>
+      </c>
+      <c r="P37" s="263">
+        <v>213.07930354915149</v>
+      </c>
+      <c r="Q37" s="253"/>
+    </row>
+    <row r="38" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="222"/>
+      <c r="D38" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="256">
+        <v>2061.979783713301</v>
+      </c>
+      <c r="F38" s="244">
+        <v>2084.0327178614461</v>
+      </c>
+      <c r="G38" s="244">
+        <v>2118.5631924533968</v>
+      </c>
+      <c r="H38" s="244">
+        <v>2162.036631050813</v>
+      </c>
+      <c r="I38" s="244">
+        <v>2200.503302638499</v>
+      </c>
+      <c r="J38" s="244">
+        <v>2227.2677223074438</v>
+      </c>
+      <c r="K38" s="256">
+        <v>2229.2285667263491</v>
+      </c>
+      <c r="L38" s="244">
+        <v>2220.355558788217</v>
+      </c>
+      <c r="M38" s="244">
+        <v>2189.111245195616</v>
+      </c>
+      <c r="N38" s="244">
+        <v>2148.7505487411381</v>
+      </c>
+      <c r="O38" s="244">
+        <v>2094.7062144147062</v>
+      </c>
+      <c r="P38" s="245">
+        <v>2063.8662867830672</v>
+      </c>
+      <c r="Q38" s="253"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C39" s="220" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="254">
+        <v>46.6</v>
+      </c>
+      <c r="F39" s="232">
+        <v>50.75</v>
+      </c>
+      <c r="G39" s="232">
+        <v>57.8</v>
+      </c>
+      <c r="H39" s="232">
+        <v>65.75</v>
+      </c>
+      <c r="I39" s="232">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J39" s="232">
+        <v>81.8</v>
+      </c>
+      <c r="K39" s="254">
+        <v>85.8</v>
+      </c>
+      <c r="L39" s="232">
+        <v>85.699999999999989</v>
+      </c>
+      <c r="M39" s="232">
+        <v>78.199999999999989</v>
+      </c>
+      <c r="N39" s="232">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="O39" s="232">
+        <v>56.650000000000013</v>
+      </c>
+      <c r="P39" s="233">
+        <v>48.25</v>
+      </c>
+      <c r="Q39" s="250"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" s="221"/>
+      <c r="D40" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="255">
+        <v>55.568341974302108</v>
+      </c>
+      <c r="F40" s="235">
+        <v>57.991378412405332</v>
+      </c>
+      <c r="G40" s="235">
+        <v>61.191152866117093</v>
+      </c>
+      <c r="H40" s="235">
+        <v>64.735611670816283</v>
+      </c>
+      <c r="I40" s="235">
+        <v>67.937862003301618</v>
+      </c>
+      <c r="J40" s="235">
+        <v>71.486812097038268</v>
+      </c>
+      <c r="K40" s="255">
+        <v>73.48891288668726</v>
+      </c>
+      <c r="L40" s="235">
+        <v>73.171542711656755</v>
+      </c>
+      <c r="M40" s="235">
+        <v>69.398691519877403</v>
+      </c>
+      <c r="N40" s="235">
+        <v>64.894405613490576</v>
+      </c>
+      <c r="O40" s="235">
+        <v>59.908265321707063</v>
+      </c>
+      <c r="P40" s="236">
+        <v>56.126210383258439</v>
+      </c>
+      <c r="Q40" s="249">
+        <f t="shared" ref="Q40" si="5">K40/E40 - 1</f>
+        <v>0.32249605217072386</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41" s="221"/>
+      <c r="D41" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="255">
+        <v>91.910347068917716</v>
+      </c>
+      <c r="F41" s="235">
+        <v>94.421943813856259</v>
+      </c>
+      <c r="G41" s="235">
+        <v>98.216583215315637</v>
+      </c>
+      <c r="H41" s="235">
+        <v>102.4784428443751</v>
+      </c>
+      <c r="I41" s="235">
+        <v>106.2384031594826</v>
+      </c>
+      <c r="J41" s="235">
+        <v>110.141413975944</v>
+      </c>
+      <c r="K41" s="255">
+        <v>112.2739072395664</v>
+      </c>
+      <c r="L41" s="235">
+        <v>111.94984636959281</v>
+      </c>
+      <c r="M41" s="235">
+        <v>107.8696681828618</v>
+      </c>
+      <c r="N41" s="235">
+        <v>102.7220631192867</v>
+      </c>
+      <c r="O41" s="235">
+        <v>96.700322214009972</v>
+      </c>
+      <c r="P41" s="236">
+        <v>92.532646225603898</v>
+      </c>
+      <c r="Q41" s="251"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="221"/>
+      <c r="D42" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="275">
+        <v>6.6375065572013412</v>
+      </c>
+      <c r="F42" s="276">
+        <v>6.5345407274853882</v>
+      </c>
+      <c r="G42" s="276">
+        <v>6.3983406186235632</v>
+      </c>
+      <c r="H42" s="276">
+        <v>6.2449345423046481</v>
+      </c>
+      <c r="I42" s="276">
+        <v>6.1110897502962551</v>
+      </c>
+      <c r="J42" s="276">
+        <v>5.9646745200930926</v>
+      </c>
+      <c r="K42" s="275">
+        <v>5.8838336180720949</v>
+      </c>
+      <c r="L42" s="276">
+        <v>5.8968400655383544</v>
+      </c>
+      <c r="M42" s="276">
+        <v>6.0504365463421639</v>
+      </c>
+      <c r="N42" s="276">
+        <v>6.2393519580446064</v>
+      </c>
+      <c r="O42" s="276">
+        <v>6.4556404475523914</v>
+      </c>
+      <c r="P42" s="277">
+        <v>6.6144698315923316</v>
+      </c>
+      <c r="Q42" s="251"/>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C43" s="221"/>
+      <c r="D43" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="278">
+        <v>1.2390139285699939</v>
+      </c>
+      <c r="F43" s="279">
+        <v>1.252336786906356</v>
+      </c>
+      <c r="G43" s="279">
+        <v>1.2725894921295871</v>
+      </c>
+      <c r="H43" s="279">
+        <v>1.2965266367322279</v>
+      </c>
+      <c r="I43" s="279">
+        <v>1.317855675767386</v>
+      </c>
+      <c r="J43" s="279">
+        <v>1.3400391538002021</v>
+      </c>
+      <c r="K43" s="278">
+        <v>1.3521297582766769</v>
+      </c>
+      <c r="L43" s="279">
+        <v>1.3502895001024899</v>
+      </c>
+      <c r="M43" s="279">
+        <v>1.3271307267186221</v>
+      </c>
+      <c r="N43" s="279">
+        <v>1.2978643281467861</v>
+      </c>
+      <c r="O43" s="279">
+        <v>1.2642448394161649</v>
+      </c>
+      <c r="P43" s="280">
+        <v>1.242244563180718</v>
+      </c>
+      <c r="Q43" s="253"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C44" s="221"/>
+      <c r="D44" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="261">
+        <v>207.56860223663119</v>
+      </c>
+      <c r="F44" s="262">
+        <v>211.4365352057961</v>
+      </c>
+      <c r="G44" s="262">
+        <v>213.78606788184001</v>
+      </c>
+      <c r="H44" s="262">
+        <v>214.08339835004369</v>
+      </c>
+      <c r="I44" s="262">
+        <v>213.99508773643089</v>
+      </c>
+      <c r="J44" s="262">
+        <v>213.8226655122362</v>
+      </c>
+      <c r="K44" s="261">
+        <v>213.68813939655419</v>
+      </c>
+      <c r="L44" s="262">
+        <v>213.70808773936619</v>
+      </c>
+      <c r="M44" s="262">
+        <v>213.9340553134831</v>
+      </c>
+      <c r="N44" s="262">
+        <v>214.06915006610851</v>
+      </c>
+      <c r="O44" s="262">
+        <v>213.40153344136979</v>
+      </c>
+      <c r="P44" s="263">
+        <v>208.5554661399398</v>
+      </c>
+      <c r="Q44" s="253"/>
+    </row>
+    <row r="45" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="222"/>
+      <c r="D45" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="256">
+        <v>2016.912911609006</v>
+      </c>
+      <c r="F45" s="244">
+        <v>2033.285439613569</v>
+      </c>
+      <c r="G45" s="244">
+        <v>2062.0653335597572</v>
+      </c>
+      <c r="H45" s="244">
+        <v>2099.0476612326979</v>
+      </c>
+      <c r="I45" s="244">
+        <v>2132.4279977218089</v>
+      </c>
+      <c r="J45" s="244">
+        <v>2167.2386329336618</v>
+      </c>
+      <c r="K45" s="256">
+        <v>2186.2579758371262</v>
+      </c>
+      <c r="L45" s="244">
+        <v>2183.3638091725229</v>
+      </c>
+      <c r="M45" s="244">
+        <v>2146.969777958142</v>
+      </c>
+      <c r="N45" s="244">
+        <v>2101.1517731420831</v>
+      </c>
+      <c r="O45" s="244">
+        <v>2049.513822665343</v>
+      </c>
+      <c r="P45" s="245">
+        <v>2020.8536702584549</v>
+      </c>
+      <c r="Q45" s="253"/>
+    </row>
+    <row r="46" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="217" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="254">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F46" s="232">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="G46" s="232">
+        <v>45.3</v>
+      </c>
+      <c r="H46" s="232">
+        <v>56.5</v>
+      </c>
+      <c r="I46" s="232">
+        <v>63.55</v>
+      </c>
+      <c r="J46" s="232">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="K46" s="254">
+        <v>74.800000000000011</v>
+      </c>
+      <c r="L46" s="232">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="M46" s="232">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="N46" s="232">
+        <v>56.3</v>
+      </c>
+      <c r="O46" s="232">
+        <v>46.349999999999987</v>
+      </c>
+      <c r="P46" s="233">
+        <v>37.35</v>
+      </c>
+      <c r="Q46" s="250"/>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="218"/>
+      <c r="D47" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="255">
+        <v>50.724865519232416</v>
+      </c>
+      <c r="F47" s="235">
+        <v>52.371874522156887</v>
+      </c>
+      <c r="G47" s="235">
+        <v>56.768972734930529</v>
+      </c>
+      <c r="H47" s="235">
+        <v>62.562864442347212</v>
+      </c>
+      <c r="I47" s="235">
+        <v>65.336373888337675</v>
+      </c>
+      <c r="J47" s="235">
+        <v>68.429302072203086</v>
+      </c>
+      <c r="K47" s="255">
+        <v>69.444154781223546</v>
+      </c>
+      <c r="L47" s="235">
+        <v>69.048645703362212</v>
+      </c>
+      <c r="M47" s="235">
+        <v>66.020357245929816</v>
+      </c>
+      <c r="N47" s="235">
+        <v>61.623884320732543</v>
+      </c>
+      <c r="O47" s="235">
+        <v>56.312675056701117</v>
+      </c>
+      <c r="P47" s="236">
+        <v>51.525901860508348</v>
+      </c>
+      <c r="Q47" s="249">
+        <f t="shared" ref="Q47" si="6">K47/E47 - 1</f>
+        <v>0.36903575929429877</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="218"/>
+      <c r="D48" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="255">
+        <v>85.399559033586812</v>
+      </c>
+      <c r="F48" s="235">
+        <v>87.291074014525122</v>
+      </c>
+      <c r="G48" s="235">
+        <v>92.079313645571133</v>
+      </c>
+      <c r="H48" s="235">
+        <v>98.587235888794254</v>
+      </c>
+      <c r="I48" s="235">
+        <v>101.91127115196851</v>
+      </c>
+      <c r="J48" s="235">
+        <v>105.5011240883958</v>
+      </c>
+      <c r="K48" s="255">
+        <v>106.6719303143045</v>
+      </c>
+      <c r="L48" s="235">
+        <v>106.2325421457934</v>
+      </c>
+      <c r="M48" s="235">
+        <v>102.7793253307437</v>
+      </c>
+      <c r="N48" s="235">
+        <v>97.503106659695931</v>
+      </c>
+      <c r="O48" s="235">
+        <v>91.666545949110727</v>
+      </c>
+      <c r="P48" s="236">
+        <v>86.395515646259994</v>
+      </c>
+      <c r="Q48" s="251"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="218"/>
+      <c r="D49" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="275">
+        <v>6.8492399623226383</v>
+      </c>
+      <c r="F49" s="276">
+        <v>6.7726909710616434</v>
+      </c>
+      <c r="G49" s="276">
+        <v>6.5790296909032246</v>
+      </c>
+      <c r="H49" s="276">
+        <v>6.3325615015786809</v>
+      </c>
+      <c r="I49" s="276">
+        <v>6.2141678632373738</v>
+      </c>
+      <c r="J49" s="276">
+        <v>6.0851575217136906</v>
+      </c>
+      <c r="K49" s="275">
+        <v>6.0440948304032753</v>
+      </c>
+      <c r="L49" s="276">
+        <v>6.0604160356062966</v>
+      </c>
+      <c r="M49" s="276">
+        <v>6.1867507113221736</v>
+      </c>
+      <c r="N49" s="276">
+        <v>6.374284112307036</v>
+      </c>
+      <c r="O49" s="276">
+        <v>6.600562808493061</v>
+      </c>
+      <c r="P49" s="277">
+        <v>6.8134992701062522</v>
+      </c>
+      <c r="Q49" s="251"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" s="218"/>
+      <c r="D50" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="278">
+        <v>1.209375085667713</v>
+      </c>
+      <c r="F50" s="279">
+        <v>1.219892700781718</v>
+      </c>
+      <c r="G50" s="279">
+        <v>1.245805891391224</v>
+      </c>
+      <c r="H50" s="279">
+        <v>1.280638158339336</v>
+      </c>
+      <c r="I50" s="279">
+        <v>1.299386338471477</v>
+      </c>
+      <c r="J50" s="279">
+        <v>1.319805973780938</v>
+      </c>
+      <c r="K50" s="278">
+        <v>1.326451037048042</v>
+      </c>
+      <c r="L50" s="279">
+        <v>1.3239492681724061</v>
+      </c>
+      <c r="M50" s="279">
+        <v>1.3042860504366349</v>
+      </c>
+      <c r="N50" s="279">
+        <v>1.2746694798080671</v>
+      </c>
+      <c r="O50" s="279">
+        <v>1.2434302840577529</v>
+      </c>
+      <c r="P50" s="280">
+        <v>1.214727738131876</v>
+      </c>
+      <c r="Q50" s="253"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C51" s="218"/>
+      <c r="D51" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="261">
+        <v>198.4214530760124</v>
+      </c>
+      <c r="F51" s="262">
+        <v>201.26233158852691</v>
+      </c>
+      <c r="G51" s="262">
+        <v>208.5979045221066</v>
+      </c>
+      <c r="H51" s="262">
+        <v>213.95278128359851</v>
+      </c>
+      <c r="I51" s="262">
+        <v>214.1018997260376</v>
+      </c>
+      <c r="J51" s="262">
+        <v>214.0027174373765</v>
+      </c>
+      <c r="K51" s="261">
+        <v>213.94667962156089</v>
+      </c>
+      <c r="L51" s="262">
+        <v>213.96561566770569</v>
+      </c>
+      <c r="M51" s="262">
+        <v>214.07269545621139</v>
+      </c>
+      <c r="N51" s="262">
+        <v>213.72153563696909</v>
+      </c>
+      <c r="O51" s="262">
+        <v>208.0285144195033</v>
+      </c>
+      <c r="P51" s="263">
+        <v>199.9742940198602</v>
+      </c>
+      <c r="Q51" s="253"/>
+    </row>
+    <row r="52" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="219"/>
+      <c r="D52" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="256">
+        <v>1980.061693974159</v>
+      </c>
+      <c r="F52" s="244">
+        <v>1993.710886323147</v>
+      </c>
+      <c r="G52" s="244">
+        <v>2026.3760731895641</v>
+      </c>
+      <c r="H52" s="244">
+        <v>2074.4330314729309</v>
+      </c>
+      <c r="I52" s="244">
+        <v>2103.4997546930658</v>
+      </c>
+      <c r="J52" s="244">
+        <v>2135.4742489828191</v>
+      </c>
+      <c r="K52" s="256">
+        <v>2145.907322642367</v>
+      </c>
+      <c r="L52" s="244">
+        <v>2141.9820368290561</v>
+      </c>
+      <c r="M52" s="244">
+        <v>2111.1788271964679</v>
+      </c>
+      <c r="N52" s="244">
+        <v>2065.4032034692818</v>
+      </c>
+      <c r="O52" s="244">
+        <v>2023.3067113464331</v>
+      </c>
+      <c r="P52" s="245">
+        <v>1986.9210679596431</v>
+      </c>
+      <c r="Q52" s="253"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C53" s="220" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="254">
+        <v>37.5</v>
+      </c>
+      <c r="F53" s="232">
+        <v>41.2</v>
+      </c>
+      <c r="G53" s="232">
+        <v>48</v>
+      </c>
+      <c r="H53" s="232">
+        <v>56.2</v>
+      </c>
+      <c r="I53" s="232">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="J53" s="232">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K53" s="254">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="L53" s="232">
+        <v>76.55</v>
+      </c>
+      <c r="M53" s="232">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="N53" s="232">
+        <v>58.3</v>
+      </c>
+      <c r="O53" s="232">
+        <v>46.1</v>
+      </c>
+      <c r="P53" s="233">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="Q53" s="250"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C54" s="221"/>
+      <c r="D54" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="255">
+        <v>59.379363770307798</v>
+      </c>
+      <c r="F54" s="235">
+        <v>62.077016971064907</v>
+      </c>
+      <c r="G54" s="235">
+        <v>65.686005231383731</v>
+      </c>
+      <c r="H54" s="235">
+        <v>69.58322569655526</v>
+      </c>
+      <c r="I54" s="235">
+        <v>73.692493143839485</v>
+      </c>
+      <c r="J54" s="235">
+        <v>77.698089428574718</v>
+      </c>
+      <c r="K54" s="255">
+        <v>79.173514401463933</v>
+      </c>
+      <c r="L54" s="235">
+        <v>77.628968095354963</v>
+      </c>
+      <c r="M54" s="235">
+        <v>74.265027450815111</v>
+      </c>
+      <c r="N54" s="235">
+        <v>69.170682081884863</v>
+      </c>
+      <c r="O54" s="235">
+        <v>63.678998470479137</v>
+      </c>
+      <c r="P54" s="236">
+        <v>59.351749848004033</v>
+      </c>
+      <c r="Q54" s="249">
+        <f t="shared" ref="Q54" si="7">K54/E54 - 1</f>
+        <v>0.33335066889103393</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C55" s="221"/>
+      <c r="D55" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="255">
+        <v>89.164495890982735</v>
+      </c>
+      <c r="F55" s="235">
+        <v>91.750762359800646</v>
+      </c>
+      <c r="G55" s="235">
+        <v>95.860118835447324</v>
+      </c>
+      <c r="H55" s="235">
+        <v>100.2299031584154</v>
+      </c>
+      <c r="I55" s="235">
+        <v>104.66102685915391</v>
+      </c>
+      <c r="J55" s="235">
+        <v>108.7973064149638</v>
+      </c>
+      <c r="K55" s="255">
+        <v>110.29515098160761</v>
+      </c>
+      <c r="L55" s="235">
+        <v>108.7793573474486</v>
+      </c>
+      <c r="M55" s="235">
+        <v>105.30672278928751</v>
+      </c>
+      <c r="N55" s="235">
+        <v>99.835222075253483</v>
+      </c>
+      <c r="O55" s="235">
+        <v>93.580381978743532</v>
+      </c>
+      <c r="P55" s="236">
+        <v>89.155970991144812</v>
+      </c>
+      <c r="Q55" s="251"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C56" s="221"/>
+      <c r="D56" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="275">
+        <v>6.4378825931856731</v>
+      </c>
+      <c r="F56" s="276">
+        <v>6.3271547854912953</v>
+      </c>
+      <c r="G56" s="276">
+        <v>6.1752741534487887</v>
+      </c>
+      <c r="H56" s="276">
+        <v>6.0127403103264569</v>
+      </c>
+      <c r="I56" s="276">
+        <v>5.8466201469621186</v>
+      </c>
+      <c r="J56" s="276">
+        <v>5.6897856771153652</v>
+      </c>
+      <c r="K56" s="275">
+        <v>5.6337883421056301</v>
+      </c>
+      <c r="L56" s="276">
+        <v>5.6942097971547021</v>
+      </c>
+      <c r="M56" s="276">
+        <v>5.8253562674103403</v>
+      </c>
+      <c r="N56" s="276">
+        <v>6.0317191821627381</v>
+      </c>
+      <c r="O56" s="276">
+        <v>6.2615468499888403</v>
+      </c>
+      <c r="P56" s="277">
+        <v>6.4398039290946238</v>
+      </c>
+      <c r="Q56" s="251"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="221"/>
+      <c r="D57" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="278">
+        <v>1.260778277381154</v>
+      </c>
+      <c r="F57" s="279">
+        <v>1.274454292905242</v>
+      </c>
+      <c r="G57" s="279">
+        <v>1.296972565244481</v>
+      </c>
+      <c r="H57" s="279">
+        <v>1.3218064607743769</v>
+      </c>
+      <c r="I57" s="279">
+        <v>1.3473073011219041</v>
+      </c>
+      <c r="J57" s="279">
+        <v>1.3710071657437819</v>
+      </c>
+      <c r="K57" s="278">
+        <v>1.3795786338532059</v>
+      </c>
+      <c r="L57" s="279">
+        <v>1.3709511177198279</v>
+      </c>
+      <c r="M57" s="279">
+        <v>1.3510556737610779</v>
+      </c>
+      <c r="N57" s="279">
+        <v>1.3195992202319691</v>
+      </c>
+      <c r="O57" s="279">
+        <v>1.28436280501692</v>
+      </c>
+      <c r="P57" s="280">
+        <v>1.260691477574621</v>
+      </c>
+      <c r="Q57" s="253"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="221"/>
+      <c r="D58" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="261">
+        <v>208.40347304884489</v>
+      </c>
+      <c r="F58" s="262">
+        <v>212.44197750030591</v>
+      </c>
+      <c r="G58" s="262">
+        <v>213.90255616013329</v>
+      </c>
+      <c r="H58" s="262">
+        <v>214.05313222851001</v>
+      </c>
+      <c r="I58" s="262">
+        <v>213.76667109588169</v>
+      </c>
+      <c r="J58" s="262">
+        <v>213.38998014292079</v>
+      </c>
+      <c r="K58" s="261">
+        <v>213.2261871748926</v>
+      </c>
+      <c r="L58" s="262">
+        <v>213.37980608728611</v>
+      </c>
+      <c r="M58" s="262">
+        <v>213.70406129026679</v>
+      </c>
+      <c r="N58" s="262">
+        <v>214.05693368147209</v>
+      </c>
+      <c r="O58" s="262">
+        <v>213.47985273709509</v>
+      </c>
+      <c r="P58" s="263">
+        <v>208.42039340577409</v>
+      </c>
+      <c r="Q58" s="253"/>
+    </row>
+    <row r="59" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="222"/>
+      <c r="D59" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="257">
+        <v>2050.0234129885489</v>
+      </c>
+      <c r="F59" s="247">
+        <v>2066.6848060778279</v>
+      </c>
+      <c r="G59" s="247">
+        <v>2100.0475902456942</v>
+      </c>
+      <c r="H59" s="247">
+        <v>2138.6011464890848</v>
+      </c>
+      <c r="I59" s="247">
+        <v>2178.7219323619479</v>
+      </c>
+      <c r="J59" s="247">
+        <v>2216.1339926627461</v>
+      </c>
+      <c r="K59" s="257">
+        <v>2229.695180160913</v>
+      </c>
+      <c r="L59" s="247">
+        <v>2216.0582570027991</v>
+      </c>
+      <c r="M59" s="247">
+        <v>2184.6428958431939</v>
+      </c>
+      <c r="N59" s="247">
+        <v>2135.1531233518308</v>
+      </c>
+      <c r="O59" s="247">
+        <v>2080.8910734369861</v>
+      </c>
+      <c r="P59" s="248">
+        <v>2049.8689841733408</v>
+      </c>
+      <c r="Q59" s="253"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C60" s="220" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="254">
+        <v>31.05</v>
+      </c>
+      <c r="F60" s="232">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G60" s="232">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="H60" s="232">
+        <v>47.45</v>
+      </c>
+      <c r="I60" s="232">
+        <v>57.65</v>
+      </c>
+      <c r="J60" s="232">
+        <v>67.050000000000011</v>
+      </c>
+      <c r="K60" s="254">
+        <v>74.2</v>
+      </c>
+      <c r="L60" s="232">
+        <v>71.95</v>
+      </c>
+      <c r="M60" s="232">
+        <v>63.45</v>
+      </c>
+      <c r="N60" s="232">
+        <v>50.85</v>
+      </c>
+      <c r="O60" s="232">
+        <v>38.9</v>
+      </c>
+      <c r="P60" s="233">
+        <v>31.3</v>
+      </c>
+      <c r="Q60" s="250"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C61" s="221"/>
+      <c r="D61" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="255">
+        <v>60.048267432597619</v>
+      </c>
+      <c r="F61" s="235">
+        <v>61.91904916980279</v>
+      </c>
+      <c r="G61" s="235">
+        <v>66.357383976580152</v>
+      </c>
+      <c r="H61" s="235">
+        <v>69.514272979962584</v>
+      </c>
+      <c r="I61" s="235">
+        <v>74.545433360775519</v>
+      </c>
+      <c r="J61" s="235">
+        <v>79.674570599463479</v>
+      </c>
+      <c r="K61" s="255">
+        <v>82.933403639766183</v>
+      </c>
+      <c r="L61" s="235">
+        <v>81.091193349257935</v>
+      </c>
+      <c r="M61" s="235">
+        <v>76.92881666052601</v>
+      </c>
+      <c r="N61" s="235">
+        <v>70.271911398475311</v>
+      </c>
+      <c r="O61" s="235">
+        <v>64.169651229458267</v>
+      </c>
+      <c r="P61" s="236">
+        <v>59.907487068593838</v>
+      </c>
+      <c r="Q61" s="249">
+        <f t="shared" ref="Q61" si="8">K61/E61 - 1</f>
+        <v>0.38111234820982043</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C62" s="221"/>
+      <c r="D62" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="255">
+        <v>85.632057791601781</v>
+      </c>
+      <c r="F62" s="235">
+        <v>87.418647071953785</v>
+      </c>
+      <c r="G62" s="235">
+        <v>91.820721925170687</v>
+      </c>
+      <c r="H62" s="235">
+        <v>95.320532143922364</v>
+      </c>
+      <c r="I62" s="235">
+        <v>100.6385703723554</v>
+      </c>
+      <c r="J62" s="235">
+        <v>105.78902517825919</v>
+      </c>
+      <c r="K62" s="255">
+        <v>108.96786747584039</v>
+      </c>
+      <c r="L62" s="235">
+        <v>107.2086062118475</v>
+      </c>
+      <c r="M62" s="235">
+        <v>103.07122689747111</v>
+      </c>
+      <c r="N62" s="235">
+        <v>96.164487287704659</v>
+      </c>
+      <c r="O62" s="235">
+        <v>89.516021880933792</v>
+      </c>
+      <c r="P62" s="236">
+        <v>85.507757423260202</v>
+      </c>
+      <c r="Q62" s="251"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C63" s="221"/>
+      <c r="D63" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="275">
+        <v>6.3890851737755874</v>
+      </c>
+      <c r="F63" s="276">
+        <v>6.3120165335872009</v>
+      </c>
+      <c r="G63" s="276">
+        <v>6.1313942368652237</v>
+      </c>
+      <c r="H63" s="276">
+        <v>6.0015896804316391</v>
+      </c>
+      <c r="I63" s="276">
+        <v>5.7970085149401562</v>
+      </c>
+      <c r="J63" s="276">
+        <v>5.5967733643661806</v>
+      </c>
+      <c r="K63" s="275">
+        <v>5.4748597758771744</v>
+      </c>
+      <c r="L63" s="276">
+        <v>5.5444664777323327</v>
+      </c>
+      <c r="M63" s="276">
+        <v>5.7032858012735446</v>
+      </c>
+      <c r="N63" s="276">
+        <v>5.9709557272409457</v>
+      </c>
+      <c r="O63" s="276">
+        <v>6.2234571653726034</v>
+      </c>
+      <c r="P63" s="277">
+        <v>6.395460332943717</v>
+      </c>
+      <c r="Q63" s="251"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C64" s="221"/>
+      <c r="D64" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="278">
+        <v>1.265229919927767</v>
+      </c>
+      <c r="F64" s="279">
+        <v>1.2748389645811671</v>
+      </c>
+      <c r="G64" s="279">
+        <v>1.298662567803069</v>
+      </c>
+      <c r="H64" s="279">
+        <v>1.31834018038929</v>
+      </c>
+      <c r="I64" s="279">
+        <v>1.3491737328471789</v>
+      </c>
+      <c r="J64" s="279">
+        <v>1.3788683447337431</v>
+      </c>
+      <c r="K64" s="278">
+        <v>1.3971362906982561</v>
+      </c>
+      <c r="L64" s="279">
+        <v>1.387086096169633</v>
+      </c>
+      <c r="M64" s="279">
+        <v>1.3632421411656901</v>
+      </c>
+      <c r="N64" s="279">
+        <v>1.323249914368765</v>
+      </c>
+      <c r="O64" s="279">
+        <v>1.285882404653609</v>
+      </c>
+      <c r="P64" s="280">
+        <v>1.264526987510675</v>
+      </c>
+      <c r="Q64" s="253"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="221"/>
+      <c r="D65" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="261">
+        <v>206.37246466139689</v>
+      </c>
+      <c r="F65" s="262">
+        <v>209.19763558313699</v>
+      </c>
+      <c r="G65" s="262">
+        <v>213.6424255391486</v>
+      </c>
+      <c r="H65" s="262">
+        <v>214.1071069795683</v>
+      </c>
+      <c r="I65" s="262">
+        <v>213.74401908104741</v>
+      </c>
+      <c r="J65" s="262">
+        <v>213.2218849752451</v>
+      </c>
+      <c r="K65" s="261">
+        <v>212.81891668742031</v>
+      </c>
+      <c r="L65" s="262">
+        <v>213.04164943808189</v>
+      </c>
+      <c r="M65" s="262">
+        <v>213.51468747132569</v>
+      </c>
+      <c r="N65" s="262">
+        <v>214.05679530410279</v>
+      </c>
+      <c r="O65" s="262">
+        <v>212.58469903562141</v>
+      </c>
+      <c r="P65" s="263">
+        <v>206.19373307824131</v>
+      </c>
+      <c r="Q65" s="253"/>
+    </row>
+    <row r="66" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="222"/>
+      <c r="D66" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="256">
+        <v>2059.2547465342141</v>
+      </c>
+      <c r="F66" s="244">
+        <v>2071.1149144185601</v>
+      </c>
+      <c r="G66" s="244">
+        <v>2103.0524876462291</v>
+      </c>
+      <c r="H66" s="244">
+        <v>2133.1779976201092</v>
+      </c>
+      <c r="I66" s="244">
+        <v>2181.7087818703521</v>
+      </c>
+      <c r="J66" s="244">
+        <v>2228.6412029058961</v>
+      </c>
+      <c r="K66" s="256">
+        <v>2257.6025887979081</v>
+      </c>
+      <c r="L66" s="244">
+        <v>2241.668695175611</v>
+      </c>
+      <c r="M66" s="244">
+        <v>2203.9241139804758</v>
+      </c>
+      <c r="N66" s="244">
+        <v>2140.897297938141</v>
+      </c>
+      <c r="O66" s="244">
+        <v>2084.3938308683628</v>
+      </c>
+      <c r="P66" s="245">
+        <v>2058.351292060408</v>
+      </c>
+      <c r="Q66" s="253"/>
+    </row>
+    <row r="67" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="217" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="254">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F67" s="232">
+        <v>43.45</v>
+      </c>
+      <c r="G67" s="232">
+        <v>51.3</v>
+      </c>
+      <c r="H67" s="232">
+        <v>59.95</v>
+      </c>
+      <c r="I67" s="232">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J67" s="232">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="K67" s="254">
+        <v>82.15</v>
+      </c>
+      <c r="L67" s="232">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="M67" s="232">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="N67" s="232">
+        <v>61.8</v>
+      </c>
+      <c r="O67" s="232">
+        <v>49.9</v>
+      </c>
+      <c r="P67" s="233">
+        <v>40.65</v>
+      </c>
+      <c r="Q67" s="250"/>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="218"/>
+      <c r="D68" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="255">
+        <v>54.005917396152242</v>
+      </c>
+      <c r="F68" s="235">
+        <v>56.745214263259342</v>
+      </c>
+      <c r="G68" s="235">
+        <v>60.702250811733101</v>
+      </c>
+      <c r="H68" s="235">
+        <v>64.556256128402978</v>
+      </c>
+      <c r="I68" s="235">
+        <v>67.962384983999499</v>
+      </c>
+      <c r="J68" s="235">
+        <v>71.652472262481353</v>
+      </c>
+      <c r="K68" s="255">
+        <v>74.424824139666683</v>
+      </c>
+      <c r="L68" s="235">
+        <v>73.727798738060969</v>
+      </c>
+      <c r="M68" s="235">
+        <v>69.282708887140231</v>
+      </c>
+      <c r="N68" s="235">
+        <v>64.450910491775645</v>
+      </c>
+      <c r="O68" s="235">
+        <v>59.156477139640508</v>
+      </c>
+      <c r="P68" s="236">
+        <v>54.554670151192212</v>
+      </c>
+      <c r="Q68" s="249">
+        <f t="shared" ref="Q68" si="9">K68/E68 - 1</f>
+        <v>0.37808647140895024</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="218"/>
+      <c r="D69" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="255">
+        <v>88.430268849902319</v>
+      </c>
+      <c r="F69" s="235">
+        <v>91.370171839835947</v>
+      </c>
+      <c r="G69" s="235">
+        <v>95.581151401900101</v>
+      </c>
+      <c r="H69" s="235">
+        <v>100.23365198818939</v>
+      </c>
+      <c r="I69" s="235">
+        <v>104.22131328152589</v>
+      </c>
+      <c r="J69" s="235">
+        <v>108.2855075372339</v>
+      </c>
+      <c r="K69" s="255">
+        <v>111.1923016710581</v>
+      </c>
+      <c r="L69" s="235">
+        <v>110.4710705614005</v>
+      </c>
+      <c r="M69" s="235">
+        <v>105.70228279228481</v>
+      </c>
+      <c r="N69" s="235">
+        <v>100.1760354894578</v>
+      </c>
+      <c r="O69" s="235">
+        <v>93.895609352498468</v>
+      </c>
+      <c r="P69" s="236">
+        <v>89.08028365798684</v>
+      </c>
+      <c r="Q69" s="251"/>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C70" s="218"/>
+      <c r="D70" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="275">
+        <v>6.6950938273447518</v>
+      </c>
+      <c r="F70" s="276">
+        <v>6.5757940902735124</v>
+      </c>
+      <c r="G70" s="276">
+        <v>6.4102866809650969</v>
+      </c>
+      <c r="H70" s="276">
+        <v>6.2452522133824298</v>
+      </c>
+      <c r="I70" s="276">
+        <v>6.1025328234071576</v>
+      </c>
+      <c r="J70" s="276">
+        <v>5.9507340860958706</v>
+      </c>
+      <c r="K70" s="275">
+        <v>5.8385671638942744</v>
+      </c>
+      <c r="L70" s="276">
+        <v>5.8665934587882402</v>
+      </c>
+      <c r="M70" s="276">
+        <v>6.0478551480615872</v>
+      </c>
+      <c r="N70" s="276">
+        <v>6.2512689365091871</v>
+      </c>
+      <c r="O70" s="276">
+        <v>6.4774972395380894</v>
+      </c>
+      <c r="P70" s="277">
+        <v>6.6721968213145866</v>
+      </c>
+      <c r="Q70" s="251"/>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C71" s="218"/>
+      <c r="D71" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="278">
+        <v>1.2298996255208501</v>
+      </c>
+      <c r="F71" s="279">
+        <v>1.2457274834265919</v>
+      </c>
+      <c r="G71" s="279">
+        <v>1.268014997047564</v>
+      </c>
+      <c r="H71" s="279">
+        <v>1.2936538254556409</v>
+      </c>
+      <c r="I71" s="279">
+        <v>1.3163607873588721</v>
+      </c>
+      <c r="J71" s="279">
+        <v>1.339525137453266</v>
+      </c>
+      <c r="K71" s="278">
+        <v>1.356054037957273</v>
+      </c>
+      <c r="L71" s="279">
+        <v>1.35195917195182</v>
+      </c>
+      <c r="M71" s="279">
+        <v>1.324804313182109</v>
+      </c>
+      <c r="N71" s="279">
+        <v>1.2932842329399741</v>
+      </c>
+      <c r="O71" s="279">
+        <v>1.258874503346741</v>
+      </c>
+      <c r="P71" s="280">
+        <v>1.2332940723159911</v>
+      </c>
+      <c r="Q71" s="253"/>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C72" s="218"/>
+      <c r="D72" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="261">
+        <v>203.4759285926512</v>
+      </c>
+      <c r="F72" s="262">
+        <v>207.99676538048419</v>
+      </c>
+      <c r="G72" s="262">
+        <v>213.26014832567839</v>
+      </c>
+      <c r="H72" s="262">
+        <v>214.11682284927801</v>
+      </c>
+      <c r="I72" s="262">
+        <v>214.02378516129599</v>
+      </c>
+      <c r="J72" s="262">
+        <v>213.83255339091511</v>
+      </c>
+      <c r="K72" s="261">
+        <v>213.6396439228856</v>
+      </c>
+      <c r="L72" s="262">
+        <v>213.69190945554669</v>
+      </c>
+      <c r="M72" s="262">
+        <v>213.96533591103841</v>
+      </c>
+      <c r="N72" s="262">
+        <v>214.1021287911116</v>
+      </c>
+      <c r="O72" s="262">
+        <v>212.00737181464859</v>
+      </c>
+      <c r="P72" s="263">
+        <v>204.5198149314964</v>
+      </c>
+      <c r="Q72" s="253"/>
+    </row>
+    <row r="73" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="219"/>
+      <c r="D73" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="256">
+        <v>2007.087865288272</v>
+      </c>
+      <c r="F73" s="244">
+        <v>2026.9346834511159</v>
+      </c>
+      <c r="G73" s="244">
+        <v>2055.5906887595029</v>
+      </c>
+      <c r="H73" s="244">
+        <v>2094.5465398910492</v>
+      </c>
+      <c r="I73" s="244">
+        <v>2130.0826201222731</v>
+      </c>
+      <c r="J73" s="244">
+        <v>2166.4460868283531</v>
+      </c>
+      <c r="K73" s="256">
+        <v>2192.457730390182</v>
+      </c>
+      <c r="L73" s="244">
+        <v>2186.008539789696</v>
+      </c>
+      <c r="M73" s="244">
+        <v>2143.324318364836</v>
+      </c>
+      <c r="N73" s="244">
+        <v>2093.9876581383828</v>
+      </c>
+      <c r="O73" s="244">
+        <v>2042.8329614221959</v>
+      </c>
+      <c r="P73" s="245">
+        <v>2011.296749134721</v>
+      </c>
+      <c r="Q73" s="253"/>
+    </row>
+    <row r="74" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="217" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="254">
+        <v>29.2</v>
+      </c>
+      <c r="F74" s="232">
+        <v>31.2</v>
+      </c>
+      <c r="G74" s="232">
+        <v>39.75</v>
+      </c>
+      <c r="H74" s="232">
+        <v>51.65</v>
+      </c>
+      <c r="I74" s="232">
+        <v>60.4</v>
+      </c>
+      <c r="J74" s="232">
+        <v>69.25</v>
+      </c>
+      <c r="K74" s="254">
+        <v>72.7</v>
+      </c>
+      <c r="L74" s="232">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="M74" s="232">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="N74" s="232">
+        <v>52.9</v>
+      </c>
+      <c r="O74" s="232">
+        <v>43</v>
+      </c>
+      <c r="P74" s="233">
+        <v>32.85</v>
+      </c>
+      <c r="Q74" s="250"/>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C75" s="218"/>
+      <c r="D75" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="255">
+        <v>48.23857349678115</v>
+      </c>
+      <c r="F75" s="235">
+        <v>49.626827043329051</v>
+      </c>
+      <c r="G75" s="235">
+        <v>53.989227888876407</v>
+      </c>
+      <c r="H75" s="235">
+        <v>60.35402341419784</v>
+      </c>
+      <c r="I75" s="235">
+        <v>63.955269654496938</v>
+      </c>
+      <c r="J75" s="235">
+        <v>67.463150738434237</v>
+      </c>
+      <c r="K75" s="255">
+        <v>68.626345264170766</v>
+      </c>
+      <c r="L75" s="235">
+        <v>68.042802012930409</v>
+      </c>
+      <c r="M75" s="235">
+        <v>64.601090375396424</v>
+      </c>
+      <c r="N75" s="235">
+        <v>59.689772289627747</v>
+      </c>
+      <c r="O75" s="235">
+        <v>53.845955400447359</v>
+      </c>
+      <c r="P75" s="236">
+        <v>49.272310126565287</v>
+      </c>
+      <c r="Q75" s="249">
+        <f t="shared" ref="Q75" si="10">K75/E75 - 1</f>
+        <v>0.42264458273729932</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C76" s="218"/>
+      <c r="D76" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="255">
+        <v>82.106330171514571</v>
+      </c>
+      <c r="F76" s="235">
+        <v>83.764651318678744</v>
+      </c>
+      <c r="G76" s="235">
+        <v>88.855021413497312</v>
+      </c>
+      <c r="H76" s="235">
+        <v>95.621911329838426</v>
+      </c>
+      <c r="I76" s="235">
+        <v>100.02859562545039</v>
+      </c>
+      <c r="J76" s="235">
+        <v>104.13265576945381</v>
+      </c>
+      <c r="K76" s="255">
+        <v>105.4812657670234</v>
+      </c>
+      <c r="L76" s="235">
+        <v>104.838491248827</v>
+      </c>
+      <c r="M76" s="235">
+        <v>100.89856906890449</v>
+      </c>
+      <c r="N76" s="235">
+        <v>94.918336789745652</v>
+      </c>
+      <c r="O76" s="235">
+        <v>88.892391618891651</v>
+      </c>
+      <c r="P76" s="236">
+        <v>83.528827776820151</v>
+      </c>
+      <c r="Q76" s="251"/>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C77" s="218"/>
+      <c r="D77" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="275">
+        <v>6.9658297332213781</v>
+      </c>
+      <c r="F77" s="276">
+        <v>6.898399182232219</v>
+      </c>
+      <c r="G77" s="276">
+        <v>6.6990918570342366</v>
+      </c>
+      <c r="H77" s="276">
+        <v>6.4274860681579256</v>
+      </c>
+      <c r="I77" s="276">
+        <v>6.2735896386875014</v>
+      </c>
+      <c r="J77" s="276">
+        <v>6.125172080264929</v>
+      </c>
+      <c r="K77" s="275">
+        <v>6.0775695303914334</v>
+      </c>
+      <c r="L77" s="276">
+        <v>6.1021043728945408</v>
+      </c>
+      <c r="M77" s="276">
+        <v>6.2480562865957943</v>
+      </c>
+      <c r="N77" s="276">
+        <v>6.4596121390124503</v>
+      </c>
+      <c r="O77" s="276">
+        <v>6.7108319571725934</v>
+      </c>
+      <c r="P77" s="277">
+        <v>6.9191693964726442</v>
+      </c>
+      <c r="Q77" s="251"/>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C78" s="218"/>
+      <c r="D78" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="278">
+        <v>1.1923357708059901</v>
+      </c>
+      <c r="F78" s="279">
+        <v>1.201887668603788</v>
+      </c>
+      <c r="G78" s="279">
+        <v>1.2298743742351621</v>
+      </c>
+      <c r="H78" s="279">
+        <v>1.265987768174168</v>
+      </c>
+      <c r="I78" s="279">
+        <v>1.290162007112849</v>
+      </c>
+      <c r="J78" s="279">
+        <v>1.313530118064955</v>
+      </c>
+      <c r="K78" s="278">
+        <v>1.321191776484578</v>
+      </c>
+      <c r="L78" s="279">
+        <v>1.317518168121488</v>
+      </c>
+      <c r="M78" s="279">
+        <v>1.295028003133905</v>
+      </c>
+      <c r="N78" s="279">
+        <v>1.2619157564529391</v>
+      </c>
+      <c r="O78" s="279">
+        <v>1.229508643901966</v>
+      </c>
+      <c r="P78" s="280">
+        <v>1.1999002318752601</v>
+      </c>
+      <c r="Q78" s="253"/>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C79" s="218"/>
+      <c r="D79" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="261">
+        <v>193.6145649176172</v>
+      </c>
+      <c r="F79" s="262">
+        <v>196.10180567459179</v>
+      </c>
+      <c r="G79" s="262">
+        <v>203.8646156952139</v>
+      </c>
+      <c r="H79" s="262">
+        <v>213.21638226355381</v>
+      </c>
+      <c r="I79" s="262">
+        <v>214.10341035571059</v>
+      </c>
+      <c r="J79" s="262">
+        <v>214.0343165125968</v>
+      </c>
+      <c r="K79" s="261">
+        <v>213.97998060402739</v>
+      </c>
+      <c r="L79" s="262">
+        <v>214.0009096625873</v>
+      </c>
+      <c r="M79" s="262">
+        <v>214.0770739674573</v>
+      </c>
+      <c r="N79" s="262">
+        <v>213.11602938091789</v>
+      </c>
+      <c r="O79" s="262">
+        <v>204.08716658435361</v>
+      </c>
+      <c r="P79" s="263">
+        <v>195.83963990621319</v>
+      </c>
+      <c r="Q79" s="253"/>
+    </row>
+    <row r="80" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="219"/>
+      <c r="D80" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="257">
+        <v>1957.8570386708809</v>
+      </c>
+      <c r="F80" s="247">
+        <v>1970.539495160408</v>
+      </c>
+      <c r="G80" s="247">
+        <v>2006.6410099383941</v>
+      </c>
+      <c r="H80" s="247">
+        <v>2052.4754889948231</v>
+      </c>
+      <c r="I80" s="247">
+        <v>2089.1101182072298</v>
+      </c>
+      <c r="J80" s="247">
+        <v>2125.6492526438778</v>
+      </c>
+      <c r="K80" s="257">
+        <v>2137.666460926333</v>
+      </c>
+      <c r="L80" s="247">
+        <v>2131.9106338010579</v>
+      </c>
+      <c r="M80" s="247">
+        <v>2096.7334911723219</v>
+      </c>
+      <c r="N80" s="247">
+        <v>2046.2430440713899</v>
+      </c>
+      <c r="O80" s="247">
+        <v>2005.839611273052</v>
+      </c>
+      <c r="P80" s="248">
+        <v>1967.679424920681</v>
+      </c>
+      <c r="Q80" s="253"/>
+    </row>
+    <row r="81" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="217" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="254">
+        <v>38.15</v>
+      </c>
+      <c r="F81" s="232">
+        <v>43.15</v>
+      </c>
+      <c r="G81" s="232">
+        <v>51.3</v>
+      </c>
+      <c r="H81" s="232">
+        <v>60.55</v>
+      </c>
+      <c r="I81" s="232">
+        <v>69.45</v>
+      </c>
+      <c r="J81" s="232">
+        <v>77.55</v>
+      </c>
+      <c r="K81" s="254">
+        <v>82.85</v>
+      </c>
+      <c r="L81" s="232">
+        <v>82.300000000000011</v>
+      </c>
+      <c r="M81" s="232">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N81" s="232">
+        <v>61.95</v>
+      </c>
+      <c r="O81" s="232">
+        <v>50.3</v>
+      </c>
+      <c r="P81" s="233">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="Q81" s="250"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C82" s="218"/>
+      <c r="D82" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="255">
+        <v>51.992549949815931</v>
+      </c>
+      <c r="F82" s="235">
+        <v>54.902548848966283</v>
+      </c>
+      <c r="G82" s="235">
+        <v>59.056442031290757</v>
+      </c>
+      <c r="H82" s="235">
+        <v>63.004011544550387</v>
+      </c>
+      <c r="I82" s="235">
+        <v>66.171624340612667</v>
+      </c>
+      <c r="J82" s="235">
+        <v>69.665167354741669</v>
+      </c>
+      <c r="K82" s="255">
+        <v>72.352001990310455</v>
+      </c>
+      <c r="L82" s="235">
+        <v>72.07208288900847</v>
+      </c>
+      <c r="M82" s="235">
+        <v>67.570925914699231</v>
+      </c>
+      <c r="N82" s="235">
+        <v>62.860193242988139</v>
+      </c>
+      <c r="O82" s="235">
+        <v>57.449913767711692</v>
+      </c>
+      <c r="P82" s="236">
+        <v>52.737814265856812</v>
+      </c>
+      <c r="Q82" s="249">
+        <f t="shared" ref="Q82" si="11">K82/E82 - 1</f>
+        <v>0.39158402617578481</v>
+      </c>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C83" s="218"/>
+      <c r="D83" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="255">
+        <v>87.687477403266257</v>
+      </c>
+      <c r="F83" s="235">
+        <v>90.932218931226558</v>
+      </c>
+      <c r="G83" s="235">
+        <v>95.260328579170135</v>
+      </c>
+      <c r="H83" s="235">
+        <v>100.17963721228421</v>
+      </c>
+      <c r="I83" s="235">
+        <v>103.99929994320991</v>
+      </c>
+      <c r="J83" s="235">
+        <v>107.9573158490735</v>
+      </c>
+      <c r="K83" s="255">
+        <v>110.8536568799497</v>
+      </c>
+      <c r="L83" s="235">
+        <v>110.53492316373671</v>
+      </c>
+      <c r="M83" s="235">
+        <v>105.5710818825669</v>
+      </c>
+      <c r="N83" s="235">
+        <v>100.0584941717425</v>
+      </c>
+      <c r="O83" s="235">
+        <v>93.724989940279926</v>
+      </c>
+      <c r="P83" s="236">
+        <v>88.592676648097921</v>
+      </c>
+      <c r="Q83" s="251"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C84" s="218"/>
+      <c r="D84" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="275">
+        <v>6.7930674083430969</v>
+      </c>
+      <c r="F84" s="276">
+        <v>6.6628189146612362</v>
+      </c>
+      <c r="G84" s="276">
+        <v>6.4882900606976728</v>
+      </c>
+      <c r="H84" s="276">
+        <v>6.318318252959247</v>
+      </c>
+      <c r="I84" s="276">
+        <v>6.1842047311116977</v>
+      </c>
+      <c r="J84" s="276">
+        <v>6.0387127653250836</v>
+      </c>
+      <c r="K84" s="275">
+        <v>5.9286514562687067</v>
+      </c>
+      <c r="L84" s="276">
+        <v>5.9394842955629352</v>
+      </c>
+      <c r="M84" s="276">
+        <v>6.1246538866373772</v>
+      </c>
+      <c r="N84" s="276">
+        <v>6.3256867651029394</v>
+      </c>
+      <c r="O84" s="276">
+        <v>6.5571785470741561</v>
+      </c>
+      <c r="P84" s="277">
+        <v>6.760623769463864</v>
+      </c>
+      <c r="Q84" s="251"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C85" s="218"/>
+      <c r="D85" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="278">
+        <v>1.217336958354754</v>
+      </c>
+      <c r="F85" s="279">
+        <v>1.2349776343299139</v>
+      </c>
+      <c r="G85" s="279">
+        <v>1.2578524384129059</v>
+      </c>
+      <c r="H85" s="279">
+        <v>1.2844893937379629</v>
+      </c>
+      <c r="I85" s="279">
+        <v>1.306143539412852</v>
+      </c>
+      <c r="J85" s="279">
+        <v>1.3286454803752259</v>
+      </c>
+      <c r="K85" s="278">
+        <v>1.3451033594941439</v>
+      </c>
+      <c r="L85" s="279">
+        <v>1.3433033345091161</v>
+      </c>
+      <c r="M85" s="279">
+        <v>1.3151060399340579</v>
+      </c>
+      <c r="N85" s="279">
+        <v>1.2837605882011971</v>
+      </c>
+      <c r="O85" s="279">
+        <v>1.2495413526073189</v>
+      </c>
+      <c r="P85" s="280">
+        <v>1.2221348442942079</v>
+      </c>
+      <c r="Q85" s="253"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C86" s="218"/>
+      <c r="D86" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="261">
+        <v>201.1734361229752</v>
+      </c>
+      <c r="F86" s="262">
+        <v>206.11001818647011</v>
+      </c>
+      <c r="G86" s="262">
+        <v>212.8729026757529</v>
+      </c>
+      <c r="H86" s="262">
+        <v>214.09042056182591</v>
+      </c>
+      <c r="I86" s="262">
+        <v>214.05315867784171</v>
+      </c>
+      <c r="J86" s="262">
+        <v>213.92346096687709</v>
+      </c>
+      <c r="K86" s="261">
+        <v>213.77152223580441</v>
+      </c>
+      <c r="L86" s="262">
+        <v>213.79525488187991</v>
+      </c>
+      <c r="M86" s="262">
+        <v>214.02168945667071</v>
+      </c>
+      <c r="N86" s="262">
+        <v>214.07735824855891</v>
+      </c>
+      <c r="O86" s="262">
+        <v>210.52540545414899</v>
+      </c>
+      <c r="P86" s="263">
+        <v>202.59479333074759</v>
+      </c>
+      <c r="Q86" s="253"/>
+    </row>
+    <row r="87" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="219"/>
+      <c r="D87" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="256">
+        <v>1989.800611607335</v>
+      </c>
+      <c r="F87" s="244">
+        <v>2012.210452550336</v>
+      </c>
+      <c r="G87" s="244">
+        <v>2040.1821891110581</v>
+      </c>
+      <c r="H87" s="244">
+        <v>2080.2614891956928</v>
+      </c>
+      <c r="I87" s="244">
+        <v>2114.0893222439349</v>
+      </c>
+      <c r="J87" s="244">
+        <v>2149.3475045935379</v>
+      </c>
+      <c r="K87" s="256">
+        <v>2175.2011245291128</v>
+      </c>
+      <c r="L87" s="244">
+        <v>2172.3651677403418</v>
+      </c>
+      <c r="M87" s="244">
+        <v>2128.108866650934</v>
+      </c>
+      <c r="N87" s="244">
+        <v>2079.1402361741102</v>
+      </c>
+      <c r="O87" s="244">
+        <v>2029.9912555346059</v>
+      </c>
+      <c r="P87" s="245">
+        <v>1995.8573680035761</v>
+      </c>
+      <c r="Q87" s="253"/>
+    </row>
+    <row r="88" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="254">
+        <v>29.75</v>
+      </c>
+      <c r="F88" s="232">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="G88" s="232">
+        <v>41.5</v>
+      </c>
+      <c r="H88" s="232">
+        <v>53.25</v>
+      </c>
+      <c r="I88" s="232">
+        <v>62.45</v>
+      </c>
+      <c r="J88" s="232">
+        <v>71.699999999999989</v>
+      </c>
+      <c r="K88" s="254">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L88" s="232">
+        <v>73.949999999999989</v>
+      </c>
+      <c r="M88" s="232">
+        <v>66.75</v>
+      </c>
+      <c r="N88" s="232">
+        <v>54.95</v>
+      </c>
+      <c r="O88" s="232">
+        <v>44.05</v>
+      </c>
+      <c r="P88" s="233">
+        <v>33.65</v>
+      </c>
+      <c r="Q88" s="250"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C89" s="218"/>
+      <c r="D89" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="255">
+        <v>47.764663415843273</v>
+      </c>
+      <c r="F89" s="235">
+        <v>49.355023251880993</v>
+      </c>
+      <c r="G89" s="235">
+        <v>53.973121342358908</v>
+      </c>
+      <c r="H89" s="235">
+        <v>60.225997323539737</v>
+      </c>
+      <c r="I89" s="235">
+        <v>64.001750160767031</v>
+      </c>
+      <c r="J89" s="235">
+        <v>67.651702401903137</v>
+      </c>
+      <c r="K89" s="255">
+        <v>68.830844364298841</v>
+      </c>
+      <c r="L89" s="235">
+        <v>68.227184677787434</v>
+      </c>
+      <c r="M89" s="235">
+        <v>65.12513887745574</v>
+      </c>
+      <c r="N89" s="235">
+        <v>59.944548340364989</v>
+      </c>
+      <c r="O89" s="235">
+        <v>53.750259155950772</v>
+      </c>
+      <c r="P89" s="236">
+        <v>48.878090524663023</v>
+      </c>
+      <c r="Q89" s="249">
+        <f t="shared" ref="Q89" si="12">K89/E89 - 1</f>
+        <v>0.44104112626214032</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C90" s="218"/>
+      <c r="D90" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="255">
+        <v>82.259075318303772</v>
+      </c>
+      <c r="F90" s="235">
+        <v>84.200291199678404</v>
+      </c>
+      <c r="G90" s="235">
+        <v>89.595297212943294</v>
+      </c>
+      <c r="H90" s="235">
+        <v>96.324237489635067</v>
+      </c>
+      <c r="I90" s="235">
+        <v>100.9502712672862</v>
+      </c>
+      <c r="J90" s="235">
+        <v>105.22380816188731</v>
+      </c>
+      <c r="K90" s="255">
+        <v>106.572415565711</v>
+      </c>
+      <c r="L90" s="235">
+        <v>105.9055536867741</v>
+      </c>
+      <c r="M90" s="235">
+        <v>102.3338125436449</v>
+      </c>
+      <c r="N90" s="235">
+        <v>96.071139439545149</v>
+      </c>
+      <c r="O90" s="235">
+        <v>89.508889199081793</v>
+      </c>
+      <c r="P90" s="236">
+        <v>83.803313172430634</v>
+      </c>
+      <c r="Q90" s="251"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C91" s="218"/>
+      <c r="D91" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="275">
+        <v>6.99201251587494</v>
+      </c>
+      <c r="F91" s="276">
+        <v>6.9150189480165842</v>
+      </c>
+      <c r="G91" s="276">
+        <v>6.7038438325646474</v>
+      </c>
+      <c r="H91" s="276">
+        <v>6.4363402130859999</v>
+      </c>
+      <c r="I91" s="276">
+        <v>6.2743427462139669</v>
+      </c>
+      <c r="J91" s="276">
+        <v>6.1202378363276386</v>
+      </c>
+      <c r="K91" s="275">
+        <v>6.0716891478276427</v>
+      </c>
+      <c r="L91" s="276">
+        <v>6.0969634431919033</v>
+      </c>
+      <c r="M91" s="276">
+        <v>6.2273901195482386</v>
+      </c>
+      <c r="N91" s="276">
+        <v>6.4510917480885208</v>
+      </c>
+      <c r="O91" s="276">
+        <v>6.7181356555424596</v>
+      </c>
+      <c r="P91" s="277">
+        <v>6.9413988059292384</v>
+      </c>
+      <c r="Q91" s="251"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C92" s="218"/>
+      <c r="D92" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="278">
+        <v>1.1889690874126999</v>
+      </c>
+      <c r="F92" s="279">
+        <v>1.2000704149817421</v>
+      </c>
+      <c r="G92" s="279">
+        <v>1.22972594956208</v>
+      </c>
+      <c r="H92" s="279">
+        <v>1.265622653296109</v>
+      </c>
+      <c r="I92" s="279">
+        <v>1.2911050245866249</v>
+      </c>
+      <c r="J92" s="279">
+        <v>1.3153988023638861</v>
+      </c>
+      <c r="K92" s="278">
+        <v>1.3230584231893261</v>
+      </c>
+      <c r="L92" s="279">
+        <v>1.319256137273696</v>
+      </c>
+      <c r="M92" s="279">
+        <v>1.2989290826327891</v>
+      </c>
+      <c r="N92" s="279">
+        <v>1.264049591062582</v>
+      </c>
+      <c r="O92" s="279">
+        <v>1.2287910513490019</v>
+      </c>
+      <c r="P92" s="280">
+        <v>1.1971919228754919</v>
+      </c>
+      <c r="Q92" s="253"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C93" s="218"/>
+      <c r="D93" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="261">
+        <v>193.29899974924899</v>
+      </c>
+      <c r="F93" s="262">
+        <v>196.22079843698239</v>
+      </c>
+      <c r="G93" s="262">
+        <v>204.4364782892016</v>
+      </c>
+      <c r="H93" s="262">
+        <v>213.29283071889449</v>
+      </c>
+      <c r="I93" s="262">
+        <v>214.09364710490601</v>
+      </c>
+      <c r="J93" s="262">
+        <v>214.01821963816479</v>
+      </c>
+      <c r="K93" s="261">
+        <v>213.96605186083451</v>
+      </c>
+      <c r="L93" s="262">
+        <v>213.98896214731479</v>
+      </c>
+      <c r="M93" s="262">
+        <v>214.07343742229949</v>
+      </c>
+      <c r="N93" s="262">
+        <v>213.30115279579971</v>
+      </c>
+      <c r="O93" s="262">
+        <v>204.4409319613705</v>
+      </c>
+      <c r="P93" s="263">
+        <v>195.70444616681371</v>
+      </c>
+      <c r="Q93" s="253"/>
+    </row>
+    <row r="94" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="219"/>
+      <c r="D94" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="256">
+        <v>1952.8706646224659</v>
+      </c>
+      <c r="F94" s="244">
+        <v>1967.586957804951</v>
+      </c>
+      <c r="G94" s="244">
+        <v>2005.8028102280441</v>
+      </c>
+      <c r="H94" s="244">
+        <v>2051.8034041183978</v>
+      </c>
+      <c r="I94" s="244">
+        <v>2090.5839248345942</v>
+      </c>
+      <c r="J94" s="244">
+        <v>2128.5745571443531</v>
+      </c>
+      <c r="K94" s="256">
+        <v>2140.585895371365</v>
+      </c>
+      <c r="L94" s="244">
+        <v>2134.627005274619</v>
+      </c>
+      <c r="M94" s="244">
+        <v>2102.814723065524</v>
+      </c>
+      <c r="N94" s="244">
+        <v>2049.338523767442</v>
+      </c>
+      <c r="O94" s="244">
+        <v>2004.340272766701</v>
+      </c>
+      <c r="P94" s="245">
+        <v>1963.567835161128</v>
+      </c>
+      <c r="Q94" s="253"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C95" s="217" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" s="254">
+        <v>49.55</v>
+      </c>
+      <c r="F95" s="232">
+        <v>53.2</v>
+      </c>
+      <c r="G95" s="232">
+        <v>59.55</v>
+      </c>
+      <c r="H95" s="232">
+        <v>66.55</v>
+      </c>
+      <c r="I95" s="232">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="J95" s="232">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="K95" s="254">
+        <v>82.949999999999989</v>
+      </c>
+      <c r="L95" s="232">
+        <v>82.85</v>
+      </c>
+      <c r="M95" s="232">
+        <v>77.55</v>
+      </c>
+      <c r="N95" s="232">
+        <v>68</v>
+      </c>
+      <c r="O95" s="232">
+        <v>57.8</v>
+      </c>
+      <c r="P95" s="233">
+        <v>50.7</v>
+      </c>
+      <c r="Q95" s="250"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C96" s="218"/>
+      <c r="D96" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="255">
+        <v>56.486424983273693</v>
+      </c>
+      <c r="F96" s="235">
+        <v>58.760696026839533</v>
+      </c>
+      <c r="G96" s="235">
+        <v>61.582942533404008</v>
+      </c>
+      <c r="H96" s="235">
+        <v>64.775371248012476</v>
+      </c>
+      <c r="I96" s="235">
+        <v>67.817118264554111</v>
+      </c>
+      <c r="J96" s="235">
+        <v>70.239640373819583</v>
+      </c>
+      <c r="K96" s="255">
+        <v>71.664075744438605</v>
+      </c>
+      <c r="L96" s="235">
+        <v>71.695389691119942</v>
+      </c>
+      <c r="M96" s="235">
+        <v>68.947203727675387</v>
+      </c>
+      <c r="N96" s="235">
+        <v>64.953284534490265</v>
+      </c>
+      <c r="O96" s="235">
+        <v>60.335146679081099</v>
+      </c>
+      <c r="P96" s="236">
+        <v>56.978324422166537</v>
+      </c>
+      <c r="Q96" s="249">
+        <f t="shared" ref="Q96" si="13">K96/E96 - 1</f>
+        <v>0.2686955452687827</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C97" s="218"/>
+      <c r="D97" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="255">
+        <v>93.505907797453773</v>
+      </c>
+      <c r="F97" s="235">
+        <v>95.842900916747951</v>
+      </c>
+      <c r="G97" s="235">
+        <v>99.3872646570548</v>
+      </c>
+      <c r="H97" s="235">
+        <v>103.2122824958678</v>
+      </c>
+      <c r="I97" s="235">
+        <v>106.78677173346109</v>
+      </c>
+      <c r="J97" s="235">
+        <v>109.51000507492979</v>
+      </c>
+      <c r="K97" s="255">
+        <v>111.0379033625684</v>
+      </c>
+      <c r="L97" s="235">
+        <v>111.0508943538146</v>
+      </c>
+      <c r="M97" s="235">
+        <v>108.0447456214951</v>
+      </c>
+      <c r="N97" s="235">
+        <v>103.436508977548</v>
+      </c>
+      <c r="O97" s="235">
+        <v>97.869082911515989</v>
+      </c>
+      <c r="P97" s="236">
+        <v>94.023737677970132</v>
+      </c>
+      <c r="Q97" s="251"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C98" s="218"/>
+      <c r="D98" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="275">
+        <v>6.6008961612751378</v>
+      </c>
+      <c r="F98" s="276">
+        <v>6.504702795297356</v>
+      </c>
+      <c r="G98" s="276">
+        <v>6.3828316192048593</v>
+      </c>
+      <c r="H98" s="276">
+        <v>6.2441426688053969</v>
+      </c>
+      <c r="I98" s="276">
+        <v>6.1169141949632104</v>
+      </c>
+      <c r="J98" s="276">
+        <v>6.0172128052430054</v>
+      </c>
+      <c r="K98" s="275">
+        <v>5.9585595555541007</v>
+      </c>
+      <c r="L98" s="276">
+        <v>5.9567554508684299</v>
+      </c>
+      <c r="M98" s="276">
+        <v>6.06962700424452</v>
+      </c>
+      <c r="N98" s="276">
+        <v>6.2368613055682367</v>
+      </c>
+      <c r="O98" s="276">
+        <v>6.437152171974577</v>
+      </c>
+      <c r="P98" s="277">
+        <v>6.5802491390031568</v>
+      </c>
+      <c r="Q98" s="251"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C99" s="218"/>
+      <c r="D99" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="278">
+        <v>1.244008196063721</v>
+      </c>
+      <c r="F99" s="279">
+        <v>1.2563517449527819</v>
+      </c>
+      <c r="G99" s="279">
+        <v>1.275394511863748</v>
+      </c>
+      <c r="H99" s="279">
+        <v>1.296997401561125</v>
+      </c>
+      <c r="I99" s="279">
+        <v>1.317252193737749</v>
+      </c>
+      <c r="J99" s="279">
+        <v>1.3326884656323961</v>
+      </c>
+      <c r="K99" s="278">
+        <v>1.341354259402556</v>
+      </c>
+      <c r="L99" s="279">
+        <v>1.3414332088440319</v>
+      </c>
+      <c r="M99" s="279">
+        <v>1.3243958931817961</v>
+      </c>
+      <c r="N99" s="279">
+        <v>1.29826131805831</v>
+      </c>
+      <c r="O99" s="279">
+        <v>1.267173037391486</v>
+      </c>
+      <c r="P99" s="280">
+        <v>1.2467270724234221</v>
+      </c>
+      <c r="Q99" s="253"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C100" s="218"/>
+      <c r="D100" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="261">
+        <v>209.49596681802751</v>
+      </c>
+      <c r="F100" s="262">
+        <v>212.88502694736661</v>
+      </c>
+      <c r="G100" s="262">
+        <v>213.9656333674931</v>
+      </c>
+      <c r="H100" s="262">
+        <v>214.0911635869237</v>
+      </c>
+      <c r="I100" s="262">
+        <v>214.01123954661159</v>
+      </c>
+      <c r="J100" s="262">
+        <v>213.89870095057981</v>
+      </c>
+      <c r="K100" s="261">
+        <v>213.8226881549937</v>
+      </c>
+      <c r="L100" s="262">
+        <v>213.82640017706561</v>
+      </c>
+      <c r="M100" s="262">
+        <v>213.97002651529431</v>
+      </c>
+      <c r="N100" s="262">
+        <v>214.08629702558139</v>
+      </c>
+      <c r="O100" s="262">
+        <v>213.5480987397375</v>
+      </c>
+      <c r="P100" s="263">
+        <v>210.30006791735971</v>
+      </c>
+      <c r="Q100" s="253"/>
+    </row>
+    <row r="101" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="219"/>
+      <c r="D101" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="256">
+        <v>2022.5319244441721</v>
+      </c>
+      <c r="F101" s="244">
+        <v>2037.815165681196</v>
+      </c>
+      <c r="G101" s="244">
+        <v>2066.2138634911998</v>
+      </c>
+      <c r="H101" s="244">
+        <v>2099.7647027061239</v>
+      </c>
+      <c r="I101" s="244">
+        <v>2131.4592531833532</v>
+      </c>
+      <c r="J101" s="244">
+        <v>2155.6737306999389</v>
+      </c>
+      <c r="K101" s="256">
+        <v>2169.2821146338438</v>
+      </c>
+      <c r="L101" s="244">
+        <v>2169.400901269069</v>
+      </c>
+      <c r="M101" s="244">
+        <v>2142.652649449999</v>
+      </c>
+      <c r="N101" s="244">
+        <v>2101.742410638507</v>
+      </c>
+      <c r="O101" s="244">
+        <v>2053.8962559878992</v>
+      </c>
+      <c r="P101" s="245">
+        <v>2025.8504596629921</v>
+      </c>
+      <c r="Q101" s="253"/>
+    </row>
+    <row r="102" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="217" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="254">
+        <v>22.9</v>
+      </c>
+      <c r="F102" s="232">
+        <v>24.65</v>
+      </c>
+      <c r="G102" s="232">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H102" s="232">
+        <v>45.2</v>
+      </c>
+      <c r="I102" s="232">
+        <v>55.85</v>
+      </c>
+      <c r="J102" s="232">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="K102" s="254">
+        <v>68.5</v>
+      </c>
+      <c r="L102" s="232">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="M102" s="232">
+        <v>59.85</v>
+      </c>
+      <c r="N102" s="232">
+        <v>48.65</v>
+      </c>
+      <c r="O102" s="232">
+        <v>38.4</v>
+      </c>
+      <c r="P102" s="233">
+        <v>27.75</v>
+      </c>
+      <c r="Q102" s="250"/>
+    </row>
+    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C103" s="218"/>
+      <c r="D103" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="255">
+        <v>46.505401468458587</v>
+      </c>
+      <c r="F103" s="235">
+        <v>47.786123420709472</v>
+      </c>
+      <c r="G103" s="235">
+        <v>51.496247845568128</v>
+      </c>
+      <c r="H103" s="235">
+        <v>57.858983435665863</v>
+      </c>
+      <c r="I103" s="235">
+        <v>62.850474189186258</v>
+      </c>
+      <c r="J103" s="235">
+        <v>66.284603252170115</v>
+      </c>
+      <c r="K103" s="255">
+        <v>67.659481523730278</v>
+      </c>
+      <c r="L103" s="235">
+        <v>66.956819253549909</v>
+      </c>
+      <c r="M103" s="235">
+        <v>63.248134111453894</v>
+      </c>
+      <c r="N103" s="235">
+        <v>57.696506773958127</v>
+      </c>
+      <c r="O103" s="235">
+        <v>52.120402154799073</v>
+      </c>
+      <c r="P103" s="236">
+        <v>47.761549331706398</v>
+      </c>
+      <c r="Q103" s="249">
+        <f t="shared" ref="Q103" si="14">K103/E103 - 1</f>
+        <v>0.45487361440410412</v>
+      </c>
+    </row>
+    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C104" s="218"/>
+      <c r="D104" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="255">
+        <v>78.831487237752</v>
+      </c>
+      <c r="F104" s="235">
+        <v>80.405778685706821</v>
+      </c>
+      <c r="G104" s="235">
+        <v>85.020506921143522</v>
+      </c>
+      <c r="H104" s="235">
+        <v>91.982451154595097</v>
+      </c>
+      <c r="I104" s="235">
+        <v>97.583247475641556</v>
+      </c>
+      <c r="J104" s="235">
+        <v>101.66877856032541</v>
+      </c>
+      <c r="K104" s="255">
+        <v>103.2521106509315</v>
+      </c>
+      <c r="L104" s="235">
+        <v>102.4878170554659</v>
+      </c>
+      <c r="M104" s="235">
+        <v>98.214241902053914</v>
+      </c>
+      <c r="N104" s="235">
+        <v>91.9958560758906</v>
+      </c>
+      <c r="O104" s="235">
+        <v>86.044338506993881</v>
+      </c>
+      <c r="P104" s="236">
+        <v>80.660230538964854</v>
+      </c>
+      <c r="Q104" s="251"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C105" s="218"/>
+      <c r="D105" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="275">
+        <v>7.0456149813126494</v>
+      </c>
+      <c r="F105" s="276">
+        <v>6.9813342096093454</v>
+      </c>
+      <c r="G105" s="276">
+        <v>6.8073224674549584</v>
+      </c>
+      <c r="H105" s="276">
+        <v>6.5283660349346313</v>
+      </c>
+      <c r="I105" s="276">
+        <v>6.3185720890363948</v>
+      </c>
+      <c r="J105" s="276">
+        <v>6.1725424452999302</v>
+      </c>
+      <c r="K105" s="275">
+        <v>6.115093145080909</v>
+      </c>
+      <c r="L105" s="276">
+        <v>6.1452647164378051</v>
+      </c>
+      <c r="M105" s="276">
+        <v>6.3047783869369898</v>
+      </c>
+      <c r="N105" s="276">
+        <v>6.5406623646985897</v>
+      </c>
+      <c r="O105" s="276">
+        <v>6.7858763015273853</v>
+      </c>
+      <c r="P105" s="277">
+        <v>6.9878294189092403</v>
+      </c>
+      <c r="Q105" s="251"/>
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C106" s="218"/>
+      <c r="D106" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="278">
+        <v>1.1795035491241159</v>
+      </c>
+      <c r="F106" s="279">
+        <v>1.1888032525420289</v>
+      </c>
+      <c r="G106" s="279">
+        <v>1.214439623755426</v>
+      </c>
+      <c r="H106" s="279">
+        <v>1.2521737132711159</v>
+      </c>
+      <c r="I106" s="279">
+        <v>1.2821661572831231</v>
+      </c>
+      <c r="J106" s="279">
+        <v>1.305350729141215</v>
+      </c>
+      <c r="K106" s="278">
+        <v>1.314387799807637</v>
+      </c>
+      <c r="L106" s="279">
+        <v>1.3099869728264231</v>
+      </c>
+      <c r="M106" s="279">
+        <v>1.2854916723123171</v>
+      </c>
+      <c r="N106" s="279">
+        <v>1.2517289601353501</v>
+      </c>
+      <c r="O106" s="279">
+        <v>1.219177457706599</v>
+      </c>
+      <c r="P106" s="280">
+        <v>1.1892686157807271</v>
+      </c>
+      <c r="Q106" s="253"/>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C107" s="218"/>
+      <c r="D107" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="261">
+        <v>189.38017353420159</v>
+      </c>
+      <c r="F107" s="262">
+        <v>191.73444463753751</v>
+      </c>
+      <c r="G107" s="262">
+        <v>198.78574997623781</v>
+      </c>
+      <c r="H107" s="262">
+        <v>209.54202067693609</v>
+      </c>
+      <c r="I107" s="262">
+        <v>214.00199097097041</v>
+      </c>
+      <c r="J107" s="262">
+        <v>214.06365439969329</v>
+      </c>
+      <c r="K107" s="261">
+        <v>214.01787361678291</v>
+      </c>
+      <c r="L107" s="262">
+        <v>214.03348823857229</v>
+      </c>
+      <c r="M107" s="262">
+        <v>214.06928064005621</v>
+      </c>
+      <c r="N107" s="262">
+        <v>209.70851248443921</v>
+      </c>
+      <c r="O107" s="262">
+        <v>200.5435127217213</v>
+      </c>
+      <c r="P107" s="263">
+        <v>192.24602184967449</v>
+      </c>
+      <c r="Q107" s="253"/>
+    </row>
+    <row r="108" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="219"/>
+      <c r="D108" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="256">
+        <v>1941.413442147817</v>
+      </c>
+      <c r="F108" s="244">
+        <v>1953.9715593361771</v>
+      </c>
+      <c r="G108" s="244">
+        <v>1987.632261174705</v>
+      </c>
+      <c r="H108" s="244">
+        <v>2035.2582485363239</v>
+      </c>
+      <c r="I108" s="244">
+        <v>2076.7723844694628</v>
+      </c>
+      <c r="J108" s="244">
+        <v>2112.866374776399</v>
+      </c>
+      <c r="K108" s="256">
+        <v>2127.0193778790299</v>
+      </c>
+      <c r="L108" s="244">
+        <v>2120.1353072899342</v>
+      </c>
+      <c r="M108" s="244">
+        <v>2081.877642659711</v>
+      </c>
+      <c r="N108" s="244">
+        <v>2034.3739339022929</v>
+      </c>
+      <c r="O108" s="244">
+        <v>1993.3241877353089</v>
+      </c>
+      <c r="P108" s="245">
+        <v>1954.267239344932</v>
+      </c>
+      <c r="Q108" s="253"/>
+    </row>
+    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C109" s="217" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="258">
+        <v>52.45</v>
+      </c>
+      <c r="F109" s="242">
+        <v>56.5</v>
+      </c>
+      <c r="G109" s="242">
+        <v>62.45</v>
+      </c>
+      <c r="H109" s="242">
+        <v>69.5</v>
+      </c>
+      <c r="I109" s="242">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J109" s="242">
+        <v>82.550000000000011</v>
+      </c>
+      <c r="K109" s="258">
+        <v>84.6</v>
+      </c>
+      <c r="L109" s="242">
+        <v>85.15</v>
+      </c>
+      <c r="M109" s="242">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="N109" s="242">
+        <v>71.199999999999989</v>
+      </c>
+      <c r="O109" s="242">
+        <v>60.9</v>
+      </c>
+      <c r="P109" s="243">
+        <v>53.7</v>
+      </c>
+      <c r="Q109" s="250"/>
+    </row>
+    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C110" s="218"/>
+      <c r="D110" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="259">
+        <v>59.227877954019512</v>
+      </c>
+      <c r="F110" s="237">
+        <v>61.083363319351108</v>
+      </c>
+      <c r="G110" s="237">
+        <v>63.74881504317257</v>
+      </c>
+      <c r="H110" s="237">
+        <v>66.893246728241152</v>
+      </c>
+      <c r="I110" s="237">
+        <v>69.812644618568413</v>
+      </c>
+      <c r="J110" s="237">
+        <v>72.443149753361297</v>
+      </c>
+      <c r="K110" s="259">
+        <v>73.388475258128423</v>
+      </c>
+      <c r="L110" s="237">
+        <v>73.643529363784026</v>
+      </c>
+      <c r="M110" s="237">
+        <v>70.749579788465383</v>
+      </c>
+      <c r="N110" s="237">
+        <v>67.005882547729684</v>
+      </c>
+      <c r="O110" s="237">
+        <v>62.443887127824667</v>
+      </c>
+      <c r="P110" s="238">
+        <v>59.64320430246547</v>
+      </c>
+      <c r="Q110" s="249">
+        <f>K110/E110 - 1</f>
+        <v>0.23908669014112305</v>
+      </c>
+    </row>
+    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C111" s="218"/>
+      <c r="D111" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" s="259">
+        <v>95.105352508046892</v>
+      </c>
+      <c r="F111" s="237">
+        <v>97.418733193736472</v>
+      </c>
+      <c r="G111" s="237">
+        <v>100.6496427073852</v>
+      </c>
+      <c r="H111" s="237">
+        <v>104.3156161870486</v>
+      </c>
+      <c r="I111" s="237">
+        <v>107.6521931847607</v>
+      </c>
+      <c r="J111" s="237">
+        <v>110.50996233096519</v>
+      </c>
+      <c r="K111" s="259">
+        <v>111.5189678206752</v>
+      </c>
+      <c r="L111" s="237">
+        <v>111.7769084863084</v>
+      </c>
+      <c r="M111" s="237">
+        <v>108.68505496246379</v>
+      </c>
+      <c r="N111" s="237">
+        <v>104.4897501053282</v>
+      </c>
+      <c r="O111" s="237">
+        <v>99.148346862794114</v>
+      </c>
+      <c r="P111" s="238">
+        <v>95.637052184815786</v>
+      </c>
+      <c r="Q111" s="251"/>
+    </row>
+    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C112" s="218"/>
+      <c r="D112" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="268">
+        <v>6.4807165350434106</v>
+      </c>
+      <c r="F112" s="269">
+        <v>6.4001873444763122</v>
+      </c>
+      <c r="G112" s="269">
+        <v>6.285273292607636</v>
+      </c>
+      <c r="H112" s="269">
+        <v>6.1510239362472179</v>
+      </c>
+      <c r="I112" s="269">
+        <v>6.030961142832429</v>
+      </c>
+      <c r="J112" s="269">
+        <v>5.9239705139988938</v>
+      </c>
+      <c r="K112" s="268">
+        <v>5.8861193361317206</v>
+      </c>
+      <c r="L112" s="269">
+        <v>5.8756356588549474</v>
+      </c>
+      <c r="M112" s="269">
+        <v>5.9927194104839554</v>
+      </c>
+      <c r="N112" s="269">
+        <v>6.1473245187748837</v>
+      </c>
+      <c r="O112" s="269">
+        <v>6.3433991735627346</v>
+      </c>
+      <c r="P112" s="270">
+        <v>6.4627904987565676</v>
+      </c>
+      <c r="Q112" s="251"/>
+    </row>
+    <row r="113" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C113" s="218"/>
+      <c r="D113" s="271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="272">
+        <v>1.258967889647008</v>
+      </c>
+      <c r="F113" s="273">
+        <v>1.271470631407569</v>
+      </c>
+      <c r="G113" s="273">
+        <v>1.2893946783766099</v>
+      </c>
+      <c r="H113" s="273">
+        <v>1.310256880573883</v>
+      </c>
+      <c r="I113" s="273">
+        <v>1.329207387306035</v>
+      </c>
+      <c r="J113" s="273">
+        <v>1.345443922815508</v>
+      </c>
+      <c r="K113" s="272">
+        <v>1.3511665834720861</v>
+      </c>
+      <c r="L113" s="273">
+        <v>1.352633786554609</v>
+      </c>
+      <c r="M113" s="273">
+        <v>1.3350764091524161</v>
+      </c>
+      <c r="N113" s="273">
+        <v>1.311219612032372</v>
+      </c>
+      <c r="O113" s="273">
+        <v>1.280794036638419</v>
+      </c>
+      <c r="P113" s="274">
+        <v>1.261823325483828</v>
+      </c>
+      <c r="Q113" s="253"/>
+    </row>
+    <row r="114" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C114" s="218"/>
+      <c r="D114" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="264">
+        <v>212.95481767772799</v>
+      </c>
+      <c r="F114" s="265">
+        <v>213.64067373216349</v>
+      </c>
+      <c r="G114" s="265">
+        <v>214.09327143108749</v>
+      </c>
+      <c r="H114" s="265">
+        <v>214.05296360448759</v>
+      </c>
+      <c r="I114" s="265">
+        <v>213.9215219735473</v>
+      </c>
+      <c r="J114" s="265">
+        <v>213.76239822382419</v>
+      </c>
+      <c r="K114" s="264">
+        <v>213.69373691352129</v>
+      </c>
+      <c r="L114" s="265">
+        <v>213.6777798478692</v>
+      </c>
+      <c r="M114" s="265">
+        <v>213.86887505262169</v>
+      </c>
+      <c r="N114" s="265">
+        <v>214.03871333473921</v>
+      </c>
+      <c r="O114" s="265">
+        <v>214.06620655592741</v>
+      </c>
+      <c r="P114" s="266">
+        <v>213.12503839009011</v>
+      </c>
+      <c r="Q114" s="253"/>
+    </row>
+    <row r="115" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="219"/>
+      <c r="D115" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="260">
+        <v>2041.828789064898</v>
+      </c>
+      <c r="F115" s="240">
+        <v>2060.5045752207379</v>
+      </c>
+      <c r="G115" s="240">
+        <v>2087.9159904404469</v>
+      </c>
+      <c r="H115" s="240">
+        <v>2120.5114038792749</v>
+      </c>
+      <c r="I115" s="240">
+        <v>2150.2311967121082</v>
+      </c>
+      <c r="J115" s="240">
+        <v>2175.7479786106451</v>
+      </c>
+      <c r="K115" s="260">
+        <v>2184.755890322233</v>
+      </c>
+      <c r="L115" s="240">
+        <v>2187.0634112041271</v>
+      </c>
+      <c r="M115" s="240">
+        <v>2159.4492000287519</v>
+      </c>
+      <c r="N115" s="240">
+        <v>2122.0303757315592</v>
+      </c>
+      <c r="O115" s="240">
+        <v>2074.530251881326</v>
+      </c>
+      <c r="P115" s="241">
+        <v>2046.078453706717</v>
+      </c>
+      <c r="Q115" s="252"/>
+    </row>
+    <row r="116" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C116" s="214" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" s="214"/>
+      <c r="E116" s="214"/>
+      <c r="F116" s="214"/>
+      <c r="G116" s="214"/>
+      <c r="H116" s="214"/>
+      <c r="I116" s="214"/>
+      <c r="J116" s="214"/>
+      <c r="K116" s="214"/>
+      <c r="L116" s="214"/>
+      <c r="M116" s="214"/>
+      <c r="N116" s="214"/>
+      <c r="O116" s="214"/>
+      <c r="P116" s="214"/>
+      <c r="Q116" s="214"/>
+    </row>
+    <row r="117" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C117" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="215"/>
+      <c r="E117" s="215"/>
+      <c r="F117" s="215"/>
+      <c r="G117" s="215"/>
+      <c r="H117" s="215"/>
+      <c r="I117" s="215"/>
+      <c r="J117" s="215"/>
+      <c r="K117" s="215"/>
+      <c r="L117" s="215"/>
+      <c r="M117" s="215"/>
+      <c r="N117" s="215"/>
+      <c r="O117" s="215"/>
+      <c r="P117" s="215"/>
+      <c r="Q117" s="215"/>
+    </row>
+    <row r="118" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C118" s="215" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="215"/>
+      <c r="E118" s="215"/>
+      <c r="F118" s="215"/>
+      <c r="G118" s="215"/>
+      <c r="H118" s="215"/>
+      <c r="I118" s="215"/>
+      <c r="J118" s="215"/>
+      <c r="K118" s="215"/>
+      <c r="L118" s="215"/>
+      <c r="M118" s="215"/>
+      <c r="N118" s="215"/>
+      <c r="O118" s="215"/>
+      <c r="P118" s="215"/>
+      <c r="Q118" s="215"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C11"/>
+  <mergeCells count="24">
+    <mergeCell ref="C116:Q116"/>
+    <mergeCell ref="C117:Q117"/>
+    <mergeCell ref="C118:Q118"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="E2:P2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
